--- a/pages/MA_ssoservi_cservico_csala.xlsx
+++ b/pages/MA_ssoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC5A727-5905-4471-9ABD-481946E4F053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF7744C-8F0F-48D8-BDD2-57E688527E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{149F6C8A-4ABB-45E4-B310-DA53D82C00F6}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$115</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$118</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="235">
   <si>
     <t>Complemento</t>
   </si>
@@ -392,12 +392,6 @@
     <t>S030001</t>
   </si>
   <si>
-    <t>BOM AR - 360ML</t>
-  </si>
-  <si>
-    <t>S010066</t>
-  </si>
-  <si>
     <t>CAFE - 250G - 250G</t>
   </si>
   <si>
@@ -491,15 +485,6 @@
     <t>122</t>
   </si>
   <si>
-    <t>BAND-AID - 500 UND</t>
-  </si>
-  <si>
-    <t>S150156</t>
-  </si>
-  <si>
-    <t>874</t>
-  </si>
-  <si>
     <t>CANETA DETECTA DINHEIRO FALSO - UNICA</t>
   </si>
   <si>
@@ -729,6 +714,36 @@
   </si>
   <si>
     <t>S020008</t>
+  </si>
+  <si>
+    <t>CURATIVO ADESIVO EM DISCO - UNICA</t>
+  </si>
+  <si>
+    <t>S150189</t>
+  </si>
+  <si>
+    <t>DESODORIZADOR DE AMBIENTE - UNICA</t>
+  </si>
+  <si>
+    <t>S010012</t>
+  </si>
+  <si>
+    <t>MOP PO REFIL - UNICA</t>
+  </si>
+  <si>
+    <t>S010076</t>
+  </si>
+  <si>
+    <t>MOP UMIDO REFIL - UNICA - UNICA</t>
+  </si>
+  <si>
+    <t>S010034</t>
+  </si>
+  <si>
+    <t>KIT MOP UMIDO - UNICA</t>
+  </si>
+  <si>
+    <t>S010086</t>
   </si>
 </sst>
 </file>
@@ -811,7 +826,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -828,12 +843,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -869,9 +896,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -909,7 +936,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1015,7 +1042,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1157,7 +1184,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1165,10 +1192,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
-  <dimension ref="A1:D116"/>
+  <dimension ref="A1:D119"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="A111" sqref="A111:XFD111"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58:XFD58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1184,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1198,7 +1225,7 @@
         <v>115</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>116</v>
@@ -1209,27 +1236,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
@@ -1240,7 +1267,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
@@ -1254,7 +1281,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>6</v>
@@ -1265,13 +1292,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D7" s="4">
         <v>53</v>
@@ -1279,380 +1306,380 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>150</v>
+        <v>197</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>152</v>
+        <v>196</v>
+      </c>
+      <c r="D11" s="4">
+        <v>831</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>202</v>
+        <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>201</v>
+        <v>8</v>
       </c>
       <c r="D12" s="4">
-        <v>831</v>
+        <v>809</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>7</v>
+        <v>194</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="4">
-        <v>809</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="4">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>198</v>
+        <v>10</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D15" s="4">
-        <v>1045</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="D16" s="4">
-        <v>104</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D17" s="4">
-        <v>103</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="D18" s="4">
-        <v>33</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D19" s="4">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>119</v>
+        <v>17</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="D20" s="4">
-        <v>58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>15</v>
+        <v>148</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="4">
-        <v>20</v>
+        <v>149</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D22" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>153</v>
+        <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>146</v>
+        <v>20</v>
+      </c>
+      <c r="D23" s="4">
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>19</v>
+        <v>218</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D24" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D25" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>223</v>
+        <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D26" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D27" s="4">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="D28" s="4">
-        <v>1</v>
+        <v>904</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>26</v>
+        <v>150</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="4">
-        <v>52</v>
+        <v>127</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>129</v>
+        <v>28</v>
       </c>
       <c r="D30" s="4">
-        <v>904</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>155</v>
+        <v>119</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>156</v>
+        <v>28</v>
+      </c>
+      <c r="D31" s="4">
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>157</v>
+        <v>225</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D32" s="4">
-        <v>109</v>
+        <v>226</v>
+      </c>
+      <c r="D32" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D33" s="4">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>158</v>
+        <v>227</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>29</v>
+        <v>228</v>
       </c>
       <c r="D34" s="4">
-        <v>105</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1660,7 +1687,7 @@
         <v>30</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>31</v>
@@ -1671,13 +1698,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D36" s="4">
         <v>1</v>
@@ -1688,7 +1715,7 @@
         <v>32</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>33</v>
@@ -1699,16 +1726,16 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1716,7 +1743,7 @@
         <v>34</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>35</v>
@@ -1730,7 +1757,7 @@
         <v>36</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>37</v>
@@ -1741,16 +1768,16 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1758,13 +1785,13 @@
         <v>38</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1772,7 +1799,7 @@
         <v>40</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>41</v>
@@ -1786,7 +1813,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>43</v>
@@ -1800,7 +1827,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>45</v>
@@ -1814,7 +1841,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>45</v>
@@ -1828,7 +1855,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>45</v>
@@ -1842,7 +1869,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>45</v>
@@ -1853,27 +1880,27 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D50" s="4">
         <v>471</v>
@@ -1884,7 +1911,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>50</v>
@@ -1898,7 +1925,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>50</v>
@@ -1909,27 +1936,27 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D54" s="4">
         <v>1</v>
@@ -1940,7 +1967,7 @@
         <v>52</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>53</v>
@@ -1954,7 +1981,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>55</v>
@@ -1968,7 +1995,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>57</v>
@@ -1979,13 +2006,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>58</v>
+        <v>233</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>59</v>
+        <v>234</v>
       </c>
       <c r="D58" s="4">
         <v>1</v>
@@ -1993,13 +2020,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>130</v>
+        <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>131</v>
+        <v>59</v>
       </c>
       <c r="D59" s="4">
         <v>1</v>
@@ -2007,13 +2034,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D60" s="4">
         <v>1</v>
@@ -2021,41 +2048,41 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>61</v>
+        <v>134</v>
       </c>
       <c r="D61" s="4">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D62" s="4">
-        <v>103</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D63" s="4">
         <v>103</v>
@@ -2063,223 +2090,223 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>65</v>
       </c>
       <c r="D64" s="4">
-        <v>910</v>
+        <v>103</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D65" s="4">
-        <v>1</v>
+        <v>910</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D66" s="4">
-        <v>745</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D67" s="4">
-        <v>33</v>
+        <v>745</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>72</v>
       </c>
       <c r="D68" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>132</v>
+        <v>73</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>133</v>
+        <v>72</v>
       </c>
       <c r="D69" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>168</v>
+        <v>131</v>
+      </c>
+      <c r="D70" s="4">
+        <v>33</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D71" s="4">
-        <v>31</v>
+        <v>131</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>75</v>
+        <v>131</v>
       </c>
       <c r="D72" s="4">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>169</v>
+        <v>74</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D73" s="4" t="s">
-        <v>170</v>
+      <c r="D73" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D75" s="4">
-        <v>1</v>
+        <v>75</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>226</v>
+        <v>76</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>146</v>
+        <v>77</v>
+      </c>
+      <c r="D76" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>78</v>
+        <v>221</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D77" s="4">
-        <v>211</v>
+        <v>222</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>173</v>
+        <v>229</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>175</v>
+        <v>230</v>
+      </c>
+      <c r="D78" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>80</v>
+        <v>231</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>81</v>
+        <v>232</v>
       </c>
       <c r="D79" s="4">
         <v>1</v>
@@ -2287,541 +2314,588 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>176</v>
+        <v>78</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>146</v>
+        <v>79</v>
+      </c>
+      <c r="D80" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>82</v>
+        <v>168</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D81" s="4">
-        <v>820</v>
+        <v>169</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D82" s="4">
-        <v>819</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>85</v>
+        <v>172</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>179</v>
+        <v>144</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D84" s="4">
-        <v>553</v>
+        <v>820</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>180</v>
+        <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D85" s="4">
-        <v>72</v>
+        <v>819</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D86" s="4">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D87" s="4">
-        <v>87</v>
+        <v>553</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>182</v>
+        <v>88</v>
+      </c>
+      <c r="D88" s="4">
+        <v>72</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>183</v>
+        <v>89</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D89" s="4">
-        <v>55</v>
+        <v>86</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>184</v>
+        <v>91</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D90" s="4">
-        <v>54</v>
+        <v>87</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>95</v>
+        <v>176</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D91" s="4">
-        <v>994</v>
+        <v>90</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>93</v>
+        <v>178</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D92" s="4">
-        <v>695</v>
+        <v>55</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>146</v>
+        <v>92</v>
+      </c>
+      <c r="D93" s="4">
+        <v>54</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D94" s="4">
-        <v>1</v>
+        <v>994</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>187</v>
+        <v>93</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>146</v>
+        <v>94</v>
+      </c>
+      <c r="D95" s="4">
+        <v>695</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>98</v>
+        <v>180</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D96" s="4">
-        <v>1</v>
+        <v>181</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>204</v>
+        <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>203</v>
+        <v>97</v>
       </c>
       <c r="D97" s="4">
-        <v>884</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>100</v>
+        <v>182</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D98" s="4">
-        <v>53</v>
+        <v>183</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D99" s="4">
-        <v>107</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>137</v>
+        <v>199</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>138</v>
+        <v>198</v>
       </c>
       <c r="D100" s="4">
-        <v>918</v>
+        <v>884</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>208</v>
+        <v>100</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>205</v>
+        <v>101</v>
       </c>
       <c r="D101" s="4">
-        <v>747</v>
+        <v>53</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>207</v>
+        <v>102</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>206</v>
+        <v>103</v>
       </c>
       <c r="D102" s="4">
-        <v>449</v>
+        <v>107</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="D103" s="4">
-        <v>170</v>
+        <v>918</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>106</v>
+        <v>203</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>105</v>
+        <v>200</v>
       </c>
       <c r="D104" s="4">
-        <v>163</v>
+        <v>747</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>107</v>
+        <v>202</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>105</v>
+        <v>201</v>
       </c>
       <c r="D105" s="4">
-        <v>799</v>
+        <v>449</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>191</v>
+        <v>104</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D106" s="4">
-        <v>1127</v>
+        <v>170</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D107" s="4">
-        <v>569</v>
+        <v>163</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D108" s="4">
-        <v>762</v>
+        <v>799</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>111</v>
+        <v>186</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>210</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D109" s="4">
-        <v>211</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>189</v>
+        <v>109</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>210</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>146</v>
+        <v>108</v>
+      </c>
+      <c r="D110" s="4">
+        <v>569</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>228</v>
+        <v>110</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>210</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>146</v>
+        <v>108</v>
+      </c>
+      <c r="D111" s="4">
+        <v>762</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>192</v>
+        <v>111</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="D112" s="4" t="s">
-        <v>143</v>
+        <v>112</v>
+      </c>
+      <c r="D112" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>139</v>
+        <v>184</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D113" s="4">
-        <v>1</v>
+        <v>185</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>195</v>
+        <v>224</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>196</v>
+        <v>144</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="D115" s="4">
-        <v>1</v>
+        <v>188</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="D116" s="4">
         <v>1</v>
       </c>
     </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D118" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D119" s="4">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D115" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D116">
-      <sortCondition ref="A1:A115"/>
+  <autoFilter ref="A1:D118" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D119">
+      <sortCondition ref="A1:A118"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="10">
+    <cfRule type="expression" dxfId="2" priority="13">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D116">
+  <conditionalFormatting sqref="A2:D57 A59:D119">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58:D58">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
+      <formula>LEN(TRIM(A58))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="D1:D113 D114:D116" numberStoredAsText="1"/>
+    <ignoredError sqref="D1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/pages/MA_ssoservi_cservico_csala.xlsx
+++ b/pages/MA_ssoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF7744C-8F0F-48D8-BDD2-57E688527E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325553B1-AFE1-4F00-A886-441A173F9DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{149F6C8A-4ABB-45E4-B310-DA53D82C00F6}"/>
   </bookViews>
@@ -467,12 +467,6 @@
     <t>2</t>
   </si>
   <si>
-    <t>AVENTAL - UNICA - UNICA</t>
-  </si>
-  <si>
-    <t>S010007</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -744,6 +738,12 @@
   </si>
   <si>
     <t>S010086</t>
+  </si>
+  <si>
+    <t>AVENTAL C/ MANGA - UNICA</t>
+  </si>
+  <si>
+    <t>S150204</t>
   </si>
 </sst>
 </file>
@@ -1194,8 +1194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
   <dimension ref="A1:D119"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58:XFD58"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1211,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1225,7 +1225,7 @@
         <v>115</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>116</v>
@@ -1236,16 +1236,16 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>215</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1253,7 +1253,7 @@
         <v>124</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>125</v>
@@ -1267,7 +1267,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
@@ -1281,7 +1281,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>6</v>
@@ -1295,7 +1295,7 @@
         <v>122</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>123</v>
@@ -1309,7 +1309,7 @@
         <v>139</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>140</v>
@@ -1320,41 +1320,41 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D11" s="4">
         <v>831</v>
@@ -1365,7 +1365,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>8</v>
@@ -1376,10 +1376,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>9</v>
@@ -1390,10 +1390,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>9</v>
@@ -1407,7 +1407,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>11</v>
@@ -1421,7 +1421,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>13</v>
@@ -1435,7 +1435,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>13</v>
@@ -1449,7 +1449,7 @@
         <v>117</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>118</v>
@@ -1463,7 +1463,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>16</v>
@@ -1477,7 +1477,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>18</v>
@@ -1488,16 +1488,16 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1505,7 +1505,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>20</v>
@@ -1519,7 +1519,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>20</v>
@@ -1530,10 +1530,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>20</v>
@@ -1547,7 +1547,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>23</v>
@@ -1561,7 +1561,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>25</v>
@@ -1575,7 +1575,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>27</v>
@@ -1589,7 +1589,7 @@
         <v>126</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>127</v>
@@ -1600,24 +1600,24 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>127</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>28</v>
@@ -1631,7 +1631,7 @@
         <v>119</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>28</v>
@@ -1642,13 +1642,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D32" s="6">
         <v>1</v>
@@ -1656,10 +1656,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>29</v>
@@ -1670,13 +1670,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D34" s="4">
         <v>1</v>
@@ -1687,7 +1687,7 @@
         <v>30</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>31</v>
@@ -1698,13 +1698,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D36" s="4">
         <v>1</v>
@@ -1715,7 +1715,7 @@
         <v>32</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>33</v>
@@ -1726,16 +1726,16 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1743,7 +1743,7 @@
         <v>34</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>35</v>
@@ -1757,7 +1757,7 @@
         <v>36</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>37</v>
@@ -1768,16 +1768,16 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1785,13 +1785,13 @@
         <v>38</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1799,7 +1799,7 @@
         <v>40</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>41</v>
@@ -1813,7 +1813,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>43</v>
@@ -1827,7 +1827,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>45</v>
@@ -1841,7 +1841,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>45</v>
@@ -1855,7 +1855,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>45</v>
@@ -1869,7 +1869,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>45</v>
@@ -1880,16 +1880,16 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1897,7 +1897,7 @@
         <v>120</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>121</v>
@@ -1911,7 +1911,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>50</v>
@@ -1925,7 +1925,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>50</v>
@@ -1936,27 +1936,27 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D54" s="4">
         <v>1</v>
@@ -1967,7 +1967,7 @@
         <v>52</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>53</v>
@@ -1981,7 +1981,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>55</v>
@@ -1995,7 +1995,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>57</v>
@@ -2006,13 +2006,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D58" s="4">
         <v>1</v>
@@ -2023,7 +2023,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>59</v>
@@ -2037,7 +2037,7 @@
         <v>128</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>129</v>
@@ -2051,7 +2051,7 @@
         <v>133</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>134</v>
@@ -2065,7 +2065,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>61</v>
@@ -2079,7 +2079,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>63</v>
@@ -2093,7 +2093,7 @@
         <v>64</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>65</v>
@@ -2107,7 +2107,7 @@
         <v>66</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>65</v>
@@ -2121,7 +2121,7 @@
         <v>67</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>68</v>
@@ -2135,7 +2135,7 @@
         <v>69</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>70</v>
@@ -2149,7 +2149,7 @@
         <v>71</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>72</v>
@@ -2163,7 +2163,7 @@
         <v>73</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>72</v>
@@ -2177,7 +2177,7 @@
         <v>130</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>131</v>
@@ -2188,16 +2188,16 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>131</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -2205,7 +2205,7 @@
         <v>132</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>131</v>
@@ -2219,7 +2219,7 @@
         <v>74</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>75</v>
@@ -2230,30 +2230,30 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -2261,7 +2261,7 @@
         <v>76</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>77</v>
@@ -2272,27 +2272,27 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D78" s="4">
         <v>1</v>
@@ -2300,13 +2300,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D79" s="4">
         <v>1</v>
@@ -2317,7 +2317,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>79</v>
@@ -2328,16 +2328,16 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D81" s="4" t="s">
         <v>168</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -2345,7 +2345,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>81</v>
@@ -2356,16 +2356,16 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -2373,7 +2373,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>83</v>
@@ -2387,7 +2387,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>83</v>
@@ -2398,16 +2398,16 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>85</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -2415,7 +2415,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>87</v>
@@ -2426,10 +2426,10 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>88</v>
@@ -2443,7 +2443,7 @@
         <v>89</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>90</v>
@@ -2457,7 +2457,7 @@
         <v>91</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>90</v>
@@ -2468,24 +2468,24 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>90</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>92</v>
@@ -2496,10 +2496,10 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>92</v>
@@ -2513,7 +2513,7 @@
         <v>95</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>94</v>
@@ -2527,7 +2527,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>94</v>
@@ -2538,16 +2538,16 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -2555,7 +2555,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>97</v>
@@ -2566,16 +2566,16 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -2583,7 +2583,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>99</v>
@@ -2594,13 +2594,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D100" s="4">
         <v>884</v>
@@ -2611,7 +2611,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>101</v>
@@ -2625,7 +2625,7 @@
         <v>102</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>103</v>
@@ -2639,7 +2639,7 @@
         <v>135</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>136</v>
@@ -2650,13 +2650,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D104" s="4">
         <v>747</v>
@@ -2664,13 +2664,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D105" s="4">
         <v>449</v>
@@ -2681,7 +2681,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>105</v>
@@ -2695,7 +2695,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>105</v>
@@ -2709,7 +2709,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>105</v>
@@ -2720,10 +2720,10 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>108</v>
@@ -2737,7 +2737,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>108</v>
@@ -2751,7 +2751,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>108</v>
@@ -2765,7 +2765,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>112</v>
@@ -2776,41 +2776,41 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D115" s="4" t="s">
         <v>141</v>
@@ -2821,7 +2821,7 @@
         <v>137</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>138</v>
@@ -2832,27 +2832,27 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D117" s="4" t="s">
         <v>189</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="D117" s="4" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D118" s="4">
         <v>1</v>
@@ -2863,7 +2863,7 @@
         <v>113</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>114</v>
@@ -2879,18 +2879,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="13">
+    <cfRule type="expression" dxfId="2" priority="14">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D57 A59:D119">
+  <conditionalFormatting sqref="A2:D8 A10:D119">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A58:D58">
+  <conditionalFormatting sqref="A9:D9">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A58))&gt;0</formula>
+      <formula>LEN(TRIM(A9))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/MA_ssoservi_cservico_csala.xlsx
+++ b/pages/MA_ssoservi_cservico_csala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325553B1-AFE1-4F00-A886-441A173F9DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41DAA90A-3E4C-4B81-BDC8-E0E462F97A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{149F6C8A-4ABB-45E4-B310-DA53D82C00F6}"/>
   </bookViews>
@@ -851,16 +851,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -2879,18 +2870,13 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="14">
+    <cfRule type="expression" dxfId="1" priority="14">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D8 A10:D119">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D119">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9:D9">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A9))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/MA_ssoservi_cservico_csala.xlsx
+++ b/pages/MA_ssoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41DAA90A-3E4C-4B81-BDC8-E0E462F97A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79AEDCAD-11BE-4912-8229-4F853FA80BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{149F6C8A-4ABB-45E4-B310-DA53D82C00F6}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$118</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$119</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="237">
   <si>
     <t>Complemento</t>
   </si>
@@ -744,6 +744,12 @@
   </si>
   <si>
     <t>S150204</t>
+  </si>
+  <si>
+    <t>AGUA SANITÁRIA - 1000ML - 1000ML</t>
+  </si>
+  <si>
+    <t>S010002</t>
   </si>
 </sst>
 </file>
@@ -851,7 +857,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1183,10 +1198,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
-  <dimension ref="A1:D119"/>
+  <dimension ref="A1:D120"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:D9"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1241,147 +1256,147 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>124</v>
+        <v>235</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>125</v>
+        <v>236</v>
       </c>
       <c r="D4" s="4">
-        <v>1</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>4</v>
+        <v>125</v>
       </c>
       <c r="D5" s="4">
-        <v>105</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D6" s="4">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>122</v>
+        <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="D7" s="4">
-        <v>53</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>141</v>
+        <v>123</v>
+      </c>
+      <c r="D8" s="4">
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>233</v>
+        <v>139</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>234</v>
+        <v>140</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>143</v>
+        <v>233</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>144</v>
+        <v>234</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>195</v>
+        <v>143</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="D11" s="4">
-        <v>831</v>
+        <v>144</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>7</v>
+        <v>195</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>8</v>
+        <v>194</v>
       </c>
       <c r="D12" s="4">
-        <v>809</v>
+        <v>831</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>192</v>
+        <v>7</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" s="4">
-        <v>1046</v>
+        <v>809</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>203</v>
@@ -1390,40 +1405,40 @@
         <v>9</v>
       </c>
       <c r="D14" s="4">
-        <v>1045</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>10</v>
+        <v>191</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D15" s="4">
-        <v>103</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D16" s="4">
-        <v>33</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>203</v>
@@ -1432,82 +1447,82 @@
         <v>13</v>
       </c>
       <c r="D17" s="4">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="D18" s="4">
-        <v>58</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>15</v>
+        <v>117</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="D19" s="4">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D20" s="4">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>146</v>
+        <v>17</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>142</v>
+        <v>18</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="4">
-        <v>2</v>
+        <v>147</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>203</v>
@@ -1516,12 +1531,12 @@
         <v>20</v>
       </c>
       <c r="D23" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>216</v>
+        <v>21</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>203</v>
@@ -1530,32 +1545,32 @@
         <v>20</v>
       </c>
       <c r="D24" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>22</v>
+        <v>216</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D25" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>204</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D26" s="4">
         <v>1</v>
@@ -1563,35 +1578,35 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D27" s="4">
-        <v>52</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="D28" s="4">
-        <v>904</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>203</v>
@@ -1599,117 +1614,117 @@
       <c r="C29" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>149</v>
+      <c r="D29" s="4">
+        <v>904</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" s="4">
-        <v>109</v>
+        <v>127</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D31" s="4">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>223</v>
+        <v>119</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="D32" s="6">
-        <v>1</v>
+        <v>28</v>
+      </c>
+      <c r="D32" s="4">
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>151</v>
+        <v>223</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D33" s="4">
-        <v>105</v>
+        <v>224</v>
+      </c>
+      <c r="D33" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>225</v>
+        <v>151</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>226</v>
+        <v>29</v>
       </c>
       <c r="D34" s="4">
-        <v>1</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>30</v>
+        <v>225</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>31</v>
+        <v>226</v>
       </c>
       <c r="D35" s="4">
-        <v>103</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>193</v>
+        <v>31</v>
       </c>
       <c r="D36" s="4">
-        <v>1</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>32</v>
+        <v>152</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>33</v>
+        <v>193</v>
       </c>
       <c r="D37" s="4">
         <v>1</v>
@@ -1717,41 +1732,41 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>153</v>
+        <v>32</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>142</v>
+        <v>33</v>
+      </c>
+      <c r="D38" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>34</v>
+        <v>153</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D39" s="4">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D40" s="4">
         <v>1</v>
@@ -1759,55 +1774,55 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>155</v>
+        <v>36</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>157</v>
+        <v>37</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>38</v>
+        <v>155</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>39</v>
+        <v>156</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D43" s="4">
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D44" s="4">
         <v>1</v>
@@ -1815,21 +1830,21 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D45" s="4">
-        <v>899</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>203</v>
@@ -1838,12 +1853,12 @@
         <v>45</v>
       </c>
       <c r="D46" s="4">
-        <v>896</v>
+        <v>899</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>203</v>
@@ -1852,12 +1867,12 @@
         <v>45</v>
       </c>
       <c r="D47" s="4">
-        <v>900</v>
+        <v>896</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>203</v>
@@ -1866,54 +1881,54 @@
         <v>45</v>
       </c>
       <c r="D48" s="4">
-        <v>898</v>
+        <v>900</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>217</v>
+        <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>142</v>
+        <v>45</v>
+      </c>
+      <c r="D49" s="4">
+        <v>898</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>120</v>
+        <v>217</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D50" s="4">
-        <v>471</v>
+        <v>218</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>49</v>
+        <v>120</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="D51" s="4">
-        <v>166</v>
+        <v>471</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>203</v>
@@ -1922,46 +1937,46 @@
         <v>50</v>
       </c>
       <c r="D52" s="4">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>158</v>
+        <v>51</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>142</v>
+        <v>50</v>
+      </c>
+      <c r="D53" s="4">
+        <v>167</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>211</v>
+        <v>158</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="D54" s="4">
-        <v>1</v>
+        <v>159</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>52</v>
+        <v>211</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>53</v>
+        <v>212</v>
       </c>
       <c r="D55" s="4">
         <v>1</v>
@@ -1969,27 +1984,27 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D56" s="4">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D57" s="4">
         <v>80</v>
@@ -1997,27 +2012,27 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>231</v>
+        <v>56</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>232</v>
+        <v>57</v>
       </c>
       <c r="D58" s="4">
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>58</v>
+        <v>231</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>59</v>
+        <v>232</v>
       </c>
       <c r="D59" s="4">
         <v>1</v>
@@ -2025,13 +2040,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>128</v>
+        <v>58</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>129</v>
+        <v>59</v>
       </c>
       <c r="D60" s="4">
         <v>1</v>
@@ -2039,13 +2054,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D61" s="4">
         <v>1</v>
@@ -2053,41 +2068,41 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>61</v>
+        <v>134</v>
       </c>
       <c r="D62" s="4">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D63" s="4">
-        <v>103</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D64" s="4">
         <v>103</v>
@@ -2095,7 +2110,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>203</v>
@@ -2104,54 +2119,54 @@
         <v>65</v>
       </c>
       <c r="D65" s="4">
-        <v>910</v>
+        <v>103</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D66" s="4">
-        <v>1</v>
+        <v>910</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D67" s="4">
-        <v>745</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D68" s="4">
-        <v>33</v>
+        <v>745</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>203</v>
@@ -2160,26 +2175,26 @@
         <v>72</v>
       </c>
       <c r="D69" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="D70" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>204</v>
@@ -2187,13 +2202,13 @@
       <c r="C71" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D71" s="4" t="s">
-        <v>161</v>
+      <c r="D71" s="4">
+        <v>33</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>204</v>
@@ -2201,27 +2216,27 @@
       <c r="C72" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D72" s="4">
-        <v>31</v>
+      <c r="D72" s="4" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>75</v>
+        <v>131</v>
       </c>
       <c r="D73" s="4">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>162</v>
+        <v>74</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>203</v>
@@ -2229,13 +2244,13 @@
       <c r="C74" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D74" s="4" t="s">
-        <v>163</v>
+      <c r="D74" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>203</v>
@@ -2244,60 +2259,60 @@
         <v>75</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>76</v>
+        <v>164</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D76" s="4">
-        <v>1</v>
+        <v>75</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>219</v>
+        <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>142</v>
+        <v>77</v>
+      </c>
+      <c r="D77" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="D78" s="4">
-        <v>1</v>
+        <v>220</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D79" s="4">
         <v>1</v>
@@ -2305,77 +2320,77 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>78</v>
+        <v>229</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>79</v>
+        <v>230</v>
       </c>
       <c r="D80" s="4">
-        <v>211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>166</v>
+        <v>78</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>168</v>
+        <v>79</v>
+      </c>
+      <c r="D81" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>80</v>
+        <v>166</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D82" s="4">
-        <v>1</v>
+        <v>167</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>169</v>
+        <v>80</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>142</v>
+        <v>81</v>
+      </c>
+      <c r="D83" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>82</v>
+        <v>169</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D84" s="4">
-        <v>820</v>
+        <v>170</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>205</v>
@@ -2384,68 +2399,68 @@
         <v>83</v>
       </c>
       <c r="D85" s="4">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>171</v>
+        <v>84</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>172</v>
+        <v>83</v>
+      </c>
+      <c r="D86" s="4">
+        <v>819</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>86</v>
+        <v>171</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D87" s="4">
-        <v>553</v>
+        <v>85</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>173</v>
+        <v>86</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D88" s="4">
-        <v>72</v>
+        <v>553</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D89" s="4">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>203</v>
@@ -2454,12 +2469,12 @@
         <v>90</v>
       </c>
       <c r="D90" s="4">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>174</v>
+        <v>91</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>203</v>
@@ -2467,27 +2482,27 @@
       <c r="C91" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D91" s="4" t="s">
-        <v>175</v>
+      <c r="D91" s="4">
+        <v>87</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D92" s="4">
-        <v>55</v>
+        <v>90</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>203</v>
@@ -2496,26 +2511,26 @@
         <v>92</v>
       </c>
       <c r="D93" s="4">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>95</v>
+        <v>177</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D94" s="4">
-        <v>994</v>
+        <v>54</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>203</v>
@@ -2524,180 +2539,180 @@
         <v>94</v>
       </c>
       <c r="D95" s="4">
-        <v>695</v>
+        <v>994</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>178</v>
+        <v>93</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>142</v>
+        <v>94</v>
+      </c>
+      <c r="D96" s="4">
+        <v>695</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>96</v>
+        <v>178</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D97" s="4">
-        <v>1</v>
+        <v>179</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>180</v>
+        <v>96</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>142</v>
+        <v>97</v>
+      </c>
+      <c r="D98" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>98</v>
+        <v>180</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D99" s="4">
-        <v>1</v>
+        <v>181</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>197</v>
+        <v>98</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>196</v>
+        <v>99</v>
       </c>
       <c r="D100" s="4">
-        <v>884</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>100</v>
+        <v>197</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>205</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>101</v>
+        <v>196</v>
       </c>
       <c r="D101" s="4">
-        <v>53</v>
+        <v>884</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D102" s="4">
-        <v>107</v>
+        <v>53</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="D103" s="4">
-        <v>918</v>
+        <v>107</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>201</v>
+        <v>135</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>205</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>198</v>
+        <v>136</v>
       </c>
       <c r="D104" s="4">
-        <v>747</v>
+        <v>918</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>205</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D105" s="4">
-        <v>449</v>
+        <v>747</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>104</v>
+        <v>200</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>105</v>
+        <v>199</v>
       </c>
       <c r="D106" s="4">
-        <v>170</v>
+        <v>449</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>105</v>
       </c>
       <c r="D107" s="4">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>203</v>
@@ -2706,26 +2721,26 @@
         <v>105</v>
       </c>
       <c r="D108" s="4">
-        <v>799</v>
+        <v>163</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>184</v>
+        <v>107</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D109" s="4">
-        <v>1127</v>
+        <v>799</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>109</v>
+        <v>184</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>208</v>
@@ -2734,12 +2749,12 @@
         <v>108</v>
       </c>
       <c r="D110" s="4">
-        <v>569</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>208</v>
@@ -2748,46 +2763,46 @@
         <v>108</v>
       </c>
       <c r="D111" s="4">
-        <v>762</v>
+        <v>569</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D112" s="4">
-        <v>211</v>
+        <v>762</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>182</v>
+        <v>111</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="D113" s="4" t="s">
-        <v>142</v>
+        <v>112</v>
+      </c>
+      <c r="D113" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>221</v>
+        <v>182</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>222</v>
+        <v>183</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>142</v>
@@ -2795,88 +2810,107 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>137</v>
+        <v>185</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D116" s="4">
-        <v>1</v>
+        <v>186</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>187</v>
+        <v>137</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="D117" s="4" t="s">
-        <v>189</v>
+        <v>138</v>
+      </c>
+      <c r="D117" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="D118" s="4">
-        <v>1</v>
+        <v>188</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>113</v>
+        <v>210</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>114</v>
+        <v>190</v>
       </c>
       <c r="D119" s="4">
         <v>1</v>
       </c>
     </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D120" s="4">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D118" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D119">
-      <sortCondition ref="A1:A118"/>
+  <autoFilter ref="A1:D119" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D120">
+      <sortCondition ref="A1:A119"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="14">
+    <cfRule type="expression" dxfId="2" priority="15">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D119">
+  <conditionalFormatting sqref="A2:D3 A5:D120">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:D4">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
+      <formula>LEN(TRIM(A4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/MA_ssoservi_cservico_csala.xlsx
+++ b/pages/MA_ssoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79AEDCAD-11BE-4912-8229-4F853FA80BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B25E00-12EA-4855-B977-1C5E82AF6930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{149F6C8A-4ABB-45E4-B310-DA53D82C00F6}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$119</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$120</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="239">
   <si>
     <t>Complemento</t>
   </si>
@@ -750,6 +750,12 @@
   </si>
   <si>
     <t>S010002</t>
+  </si>
+  <si>
+    <t>TAPETE - UNICA</t>
+  </si>
+  <si>
+    <t>S110059</t>
   </si>
 </sst>
 </file>
@@ -857,16 +863,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1198,10 +1195,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
-  <dimension ref="A1:D120"/>
+  <dimension ref="A1:D121"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A113" sqref="A113:XFD113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2782,41 +2779,41 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>111</v>
+        <v>237</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>112</v>
+        <v>238</v>
       </c>
       <c r="D113" s="4">
-        <v>211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>182</v>
+        <v>111</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="D114" s="4" t="s">
-        <v>142</v>
+        <v>112</v>
+      </c>
+      <c r="D114" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>221</v>
+        <v>182</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>222</v>
+        <v>183</v>
       </c>
       <c r="D115" s="4" t="s">
         <v>142</v>
@@ -2824,93 +2821,102 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>137</v>
+        <v>185</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D117" s="4">
-        <v>1</v>
+        <v>186</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>187</v>
+        <v>137</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="D118" s="4" t="s">
-        <v>189</v>
+        <v>138</v>
+      </c>
+      <c r="D118" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="D119" s="4">
-        <v>1</v>
+        <v>188</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>113</v>
+        <v>210</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>114</v>
+        <v>190</v>
       </c>
       <c r="D120" s="4">
         <v>1</v>
       </c>
     </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D121" s="4">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D119" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D120">
-      <sortCondition ref="A1:A119"/>
+  <autoFilter ref="A1:D120" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D121">
+      <sortCondition ref="A1:A120"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="15">
+    <cfRule type="expression" dxfId="1" priority="15">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D3 A5:D120">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D121">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4:D4">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/MA_ssoservi_cservico_csala.xlsx
+++ b/pages/MA_ssoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B25E00-12EA-4855-B977-1C5E82AF6930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD73A771-F881-420E-A62C-60BD8B6B7594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{149F6C8A-4ABB-45E4-B310-DA53D82C00F6}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="238">
   <si>
     <t>Complemento</t>
   </si>
@@ -296,9 +296,6 @@
     <t>PAPEL A4 - BRANCO 500FLS - BRANCO 500FLS</t>
   </si>
   <si>
-    <t>S010039</t>
-  </si>
-  <si>
     <t>PAPEL HIGIENICO - 300MT</t>
   </si>
   <si>
@@ -554,12 +551,6 @@
     <t>S010038</t>
   </si>
   <si>
-    <t>PAPEL FILME PVC - 300 M</t>
-  </si>
-  <si>
-    <t>750</t>
-  </si>
-  <si>
     <t>PAPEL TOALHA INTERFOLHADO - 1000 FLS</t>
   </si>
   <si>
@@ -756,6 +747,12 @@
   </si>
   <si>
     <t>S110059</t>
+  </si>
+  <si>
+    <t>FILME PVC PLASTICO - 300 M</t>
+  </si>
+  <si>
+    <t>S050019</t>
   </si>
 </sst>
 </file>
@@ -863,7 +860,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1197,9 +1203,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
   <dimension ref="A1:D121"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="A113" sqref="A113:XFD113"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1214,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1225,13 +1229,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1239,27 +1243,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D4" s="4">
         <v>105</v>
@@ -1267,13 +1271,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
@@ -1284,7 +1288,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>4</v>
@@ -1298,7 +1302,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>6</v>
@@ -1309,13 +1313,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="D8" s="4">
         <v>53</v>
@@ -1323,55 +1327,55 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D12" s="4">
         <v>831</v>
@@ -1382,7 +1386,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>8</v>
@@ -1393,10 +1397,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>9</v>
@@ -1407,10 +1411,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>9</v>
@@ -1424,7 +1428,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>11</v>
@@ -1438,7 +1442,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>13</v>
@@ -1452,7 +1456,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>13</v>
@@ -1463,13 +1467,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="D19" s="4">
         <v>58</v>
@@ -1480,7 +1484,7 @@
         <v>15</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>16</v>
@@ -1494,7 +1498,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>18</v>
@@ -1505,16 +1509,16 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>147</v>
-      </c>
       <c r="D22" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1522,7 +1526,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>20</v>
@@ -1536,7 +1540,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>20</v>
@@ -1547,10 +1551,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>20</v>
@@ -1564,7 +1568,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>23</v>
@@ -1578,7 +1582,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>25</v>
@@ -1592,7 +1596,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>27</v>
@@ -1603,13 +1607,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="D29" s="4">
         <v>904</v>
@@ -1617,24 +1621,24 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>28</v>
@@ -1645,10 +1649,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>28</v>
@@ -1659,13 +1663,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D33" s="6">
         <v>1</v>
@@ -1673,10 +1677,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>29</v>
@@ -1687,13 +1691,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D35" s="4">
         <v>1</v>
@@ -1704,7 +1708,7 @@
         <v>30</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>31</v>
@@ -1715,13 +1719,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D37" s="4">
         <v>1</v>
@@ -1732,7 +1736,7 @@
         <v>32</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>33</v>
@@ -1743,16 +1747,16 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>154</v>
-      </c>
       <c r="D39" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1760,7 +1764,7 @@
         <v>34</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>35</v>
@@ -1774,7 +1778,7 @@
         <v>36</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>37</v>
@@ -1785,16 +1789,16 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C42" s="4" t="s">
+      <c r="D42" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1802,13 +1806,13 @@
         <v>38</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1816,7 +1820,7 @@
         <v>40</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>41</v>
@@ -1830,7 +1834,7 @@
         <v>42</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>43</v>
@@ -1844,7 +1848,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>45</v>
@@ -1858,7 +1862,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>45</v>
@@ -1872,7 +1876,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>45</v>
@@ -1886,7 +1890,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>45</v>
@@ -1897,97 +1901,97 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>120</v>
+        <v>236</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>121</v>
+        <v>237</v>
       </c>
       <c r="D51" s="4">
-        <v>471</v>
+        <v>750</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>49</v>
+        <v>119</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="D52" s="4">
-        <v>166</v>
+        <v>471</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D53" s="4">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>158</v>
+        <v>51</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>142</v>
+        <v>50</v>
+      </c>
+      <c r="D54" s="4">
+        <v>167</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>211</v>
+        <v>157</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="D55" s="4">
-        <v>1</v>
+        <v>158</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>52</v>
+        <v>208</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>53</v>
+        <v>209</v>
       </c>
       <c r="D56" s="4">
         <v>1</v>
@@ -1995,27 +1999,27 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D57" s="4">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D58" s="4">
         <v>80</v>
@@ -2023,27 +2027,27 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>231</v>
+        <v>56</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>232</v>
+        <v>57</v>
       </c>
       <c r="D59" s="4">
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>58</v>
+        <v>228</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>59</v>
+        <v>229</v>
       </c>
       <c r="D60" s="4">
         <v>1</v>
@@ -2051,13 +2055,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>128</v>
+        <v>58</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>129</v>
+        <v>59</v>
       </c>
       <c r="D61" s="4">
         <v>1</v>
@@ -2065,13 +2069,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D62" s="4">
         <v>1</v>
@@ -2079,41 +2083,41 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>60</v>
+        <v>132</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>61</v>
+        <v>133</v>
       </c>
       <c r="D63" s="4">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D64" s="4">
-        <v>103</v>
+        <v>40</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D65" s="4">
         <v>103</v>
@@ -2121,209 +2125,209 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>65</v>
       </c>
       <c r="D66" s="4">
-        <v>910</v>
+        <v>103</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D67" s="4">
-        <v>1</v>
+        <v>910</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D68" s="4">
-        <v>745</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D69" s="4">
-        <v>33</v>
+        <v>745</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>72</v>
       </c>
       <c r="D70" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="D71" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>161</v>
+        <v>130</v>
+      </c>
+      <c r="D72" s="4">
+        <v>33</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D73" s="4">
-        <v>31</v>
+        <v>130</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="D74" s="4">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>162</v>
+        <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D75" s="4" t="s">
-        <v>163</v>
+      <c r="D75" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>76</v>
+        <v>163</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D77" s="4">
-        <v>1</v>
+        <v>75</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>219</v>
+        <v>76</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>142</v>
+        <v>77</v>
+      </c>
+      <c r="D78" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="D79" s="4">
-        <v>1</v>
+        <v>217</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D80" s="4">
         <v>1</v>
@@ -2331,111 +2335,111 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>78</v>
+        <v>226</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>79</v>
+        <v>227</v>
       </c>
       <c r="D81" s="4">
-        <v>211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>166</v>
+        <v>78</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>168</v>
+        <v>79</v>
+      </c>
+      <c r="D82" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D83" s="4">
-        <v>1</v>
+        <v>166</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>169</v>
+        <v>80</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>142</v>
+        <v>81</v>
+      </c>
+      <c r="D84" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>82</v>
+        <v>168</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D85" s="4">
-        <v>820</v>
+        <v>169</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>83</v>
       </c>
       <c r="D86" s="4">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>171</v>
+        <v>84</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>172</v>
+        <v>83</v>
+      </c>
+      <c r="D87" s="4">
+        <v>819</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="D88" s="4">
         <v>553</v>
@@ -2443,13 +2447,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D89" s="4">
         <v>72</v>
@@ -2457,13 +2461,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="D90" s="4">
         <v>86</v>
@@ -2471,13 +2475,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D91" s="4">
         <v>87</v>
@@ -2485,27 +2489,27 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D93" s="4">
         <v>55</v>
@@ -2513,13 +2517,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D94" s="4">
         <v>54</v>
@@ -2527,13 +2531,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D95" s="4">
         <v>994</v>
@@ -2541,13 +2545,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="D96" s="4">
         <v>695</v>
@@ -2555,27 +2559,27 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="D98" s="4">
         <v>1</v>
@@ -2583,27 +2587,27 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C100" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="D100" s="4">
         <v>1</v>
@@ -2611,13 +2615,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D101" s="4">
         <v>884</v>
@@ -2625,13 +2629,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C102" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="D102" s="4">
         <v>53</v>
@@ -2639,13 +2643,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C103" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="D103" s="4">
         <v>107</v>
@@ -2653,13 +2657,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C104" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="D104" s="4">
         <v>918</v>
@@ -2667,13 +2671,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D105" s="4">
         <v>747</v>
@@ -2681,13 +2685,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D106" s="4">
         <v>449</v>
@@ -2695,13 +2699,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C107" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="D107" s="4">
         <v>170</v>
@@ -2709,13 +2713,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D108" s="4">
         <v>163</v>
@@ -2723,13 +2727,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D109" s="4">
         <v>799</v>
@@ -2737,13 +2741,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D110" s="4">
         <v>1127</v>
@@ -2751,13 +2755,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D111" s="4">
         <v>569</v>
@@ -2765,13 +2769,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D112" s="4">
         <v>762</v>
@@ -2779,13 +2783,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D113" s="4">
         <v>1</v>
@@ -2793,13 +2797,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C114" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="D114" s="4">
         <v>211</v>
@@ -2807,55 +2811,55 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C118" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>138</v>
       </c>
       <c r="D118" s="4">
         <v>1</v>
@@ -2863,27 +2867,27 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D120" s="4">
         <v>1</v>
@@ -2891,13 +2895,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C121" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="D121" s="4">
         <v>1</v>
@@ -2910,13 +2914,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="15">
+    <cfRule type="expression" dxfId="2" priority="16">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D121">
+  <conditionalFormatting sqref="A2:D86 A88:D121">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A87:D87">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
+      <formula>LEN(TRIM(A87))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/MA_ssoservi_cservico_csala.xlsx
+++ b/pages/MA_ssoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD73A771-F881-420E-A62C-60BD8B6B7594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C958A19-FF61-40EE-882A-9286C0729DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{149F6C8A-4ABB-45E4-B310-DA53D82C00F6}"/>
   </bookViews>
@@ -161,9 +161,6 @@
     <t>S110018</t>
   </si>
   <si>
-    <t>ESPONJA DUPLA FACE - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S010018</t>
   </si>
   <si>
@@ -753,6 +750,9 @@
   </si>
   <si>
     <t>S050019</t>
+  </si>
+  <si>
+    <t>ESPONJA DUPLA FACE - 110X75X20MM</t>
   </si>
 </sst>
 </file>
@@ -1203,7 +1203,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
   <dimension ref="A1:D121"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:D44"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1218,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1229,13 +1231,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1243,27 +1245,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>211</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>232</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>233</v>
       </c>
       <c r="D4" s="4">
         <v>105</v>
@@ -1271,13 +1273,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
@@ -1288,7 +1290,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>4</v>
@@ -1302,7 +1304,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>6</v>
@@ -1313,13 +1315,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="D8" s="4">
         <v>53</v>
@@ -1327,55 +1329,55 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>231</v>
-      </c>
       <c r="D10" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D12" s="4">
         <v>831</v>
@@ -1386,7 +1388,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>8</v>
@@ -1397,10 +1399,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>9</v>
@@ -1411,10 +1413,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>9</v>
@@ -1428,7 +1430,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>11</v>
@@ -1442,7 +1444,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>13</v>
@@ -1456,7 +1458,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>13</v>
@@ -1467,13 +1469,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="D19" s="4">
         <v>58</v>
@@ -1484,7 +1486,7 @@
         <v>15</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>16</v>
@@ -1498,7 +1500,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>18</v>
@@ -1509,16 +1511,16 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>146</v>
-      </c>
       <c r="D22" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1526,7 +1528,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>20</v>
@@ -1540,7 +1542,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>20</v>
@@ -1551,10 +1553,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>20</v>
@@ -1568,7 +1570,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>23</v>
@@ -1582,7 +1584,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>25</v>
@@ -1596,7 +1598,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>27</v>
@@ -1607,13 +1609,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="D29" s="4">
         <v>904</v>
@@ -1621,24 +1623,24 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>28</v>
@@ -1649,10 +1651,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>28</v>
@@ -1663,13 +1665,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>220</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>221</v>
       </c>
       <c r="D33" s="6">
         <v>1</v>
@@ -1677,10 +1679,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>29</v>
@@ -1691,13 +1693,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>222</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>223</v>
       </c>
       <c r="D35" s="4">
         <v>1</v>
@@ -1708,7 +1710,7 @@
         <v>30</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>31</v>
@@ -1719,13 +1721,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D37" s="4">
         <v>1</v>
@@ -1736,7 +1738,7 @@
         <v>32</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>33</v>
@@ -1747,16 +1749,16 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>153</v>
-      </c>
       <c r="D39" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1764,7 +1766,7 @@
         <v>34</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>35</v>
@@ -1778,7 +1780,7 @@
         <v>36</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>37</v>
@@ -1789,16 +1791,16 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C42" s="4" t="s">
+      <c r="D42" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1806,38 +1808,38 @@
         <v>38</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="D44" s="4">
-        <v>1</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="D45" s="4">
         <v>1</v>
@@ -1845,13 +1847,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="D46" s="4">
         <v>899</v>
@@ -1859,13 +1861,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D47" s="4">
         <v>896</v>
@@ -1873,13 +1875,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D48" s="4">
         <v>900</v>
@@ -1887,13 +1889,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D49" s="4">
         <v>898</v>
@@ -1901,27 +1903,27 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>215</v>
-      </c>
       <c r="D50" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>236</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>237</v>
       </c>
       <c r="D51" s="4">
         <v>750</v>
@@ -1929,13 +1931,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="D52" s="4">
         <v>471</v>
@@ -1943,13 +1945,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="D53" s="4">
         <v>166</v>
@@ -1957,13 +1959,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D54" s="4">
         <v>167</v>
@@ -1971,27 +1973,27 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>158</v>
-      </c>
       <c r="D55" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>208</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>209</v>
       </c>
       <c r="D56" s="4">
         <v>1</v>
@@ -1999,13 +2001,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="D57" s="4">
         <v>1</v>
@@ -2013,13 +2015,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="D58" s="4">
         <v>80</v>
@@ -2027,13 +2029,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="D59" s="4">
         <v>80</v>
@@ -2041,13 +2043,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>228</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>229</v>
       </c>
       <c r="D60" s="4">
         <v>1</v>
@@ -2055,13 +2057,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="D61" s="4">
         <v>1</v>
@@ -2069,13 +2071,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="D62" s="4">
         <v>1</v>
@@ -2083,13 +2085,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>133</v>
       </c>
       <c r="D63" s="4">
         <v>1</v>
@@ -2097,13 +2099,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="D64" s="4">
         <v>40</v>
@@ -2111,13 +2113,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="D65" s="4">
         <v>103</v>
@@ -2125,13 +2127,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="D66" s="4">
         <v>103</v>
@@ -2139,13 +2141,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D67" s="4">
         <v>910</v>
@@ -2153,13 +2155,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="D68" s="4">
         <v>1</v>
@@ -2167,13 +2169,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="D69" s="4">
         <v>745</v>
@@ -2181,13 +2183,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="D70" s="4">
         <v>33</v>
@@ -2195,13 +2197,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D71" s="4">
         <v>32</v>
@@ -2209,13 +2211,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="D72" s="4">
         <v>33</v>
@@ -2223,27 +2225,27 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D73" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D74" s="4">
         <v>31</v>
@@ -2251,13 +2253,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="D75" s="4">
         <v>2</v>
@@ -2265,41 +2267,41 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D76" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D77" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="D78" s="4">
         <v>1</v>
@@ -2307,27 +2309,27 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="B79" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>217</v>
-      </c>
       <c r="D79" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>224</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>225</v>
       </c>
       <c r="D80" s="4">
         <v>1</v>
@@ -2335,13 +2337,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>226</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>227</v>
       </c>
       <c r="D81" s="4">
         <v>1</v>
@@ -2349,13 +2351,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="D82" s="4">
         <v>211</v>
@@ -2363,27 +2365,27 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B83" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C83" s="4" t="s">
+      <c r="D83" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="D84" s="4">
         <v>1</v>
@@ -2391,27 +2393,27 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="B85" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>169</v>
-      </c>
       <c r="D85" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="D86" s="4">
         <v>820</v>
@@ -2419,13 +2421,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D87" s="4">
         <v>819</v>
@@ -2433,13 +2435,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="D88" s="4">
         <v>553</v>
@@ -2447,13 +2449,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D89" s="4">
         <v>72</v>
@@ -2461,13 +2463,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="D90" s="4">
         <v>86</v>
@@ -2475,13 +2477,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D91" s="4">
         <v>87</v>
@@ -2489,27 +2491,27 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D92" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D93" s="4">
         <v>55</v>
@@ -2517,13 +2519,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D94" s="4">
         <v>54</v>
@@ -2531,13 +2533,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D95" s="4">
         <v>994</v>
@@ -2545,13 +2547,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="D96" s="4">
         <v>695</v>
@@ -2559,27 +2561,27 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B97" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>176</v>
-      </c>
       <c r="D97" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="D98" s="4">
         <v>1</v>
@@ -2587,27 +2589,27 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C99" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B99" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>178</v>
-      </c>
       <c r="D99" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C100" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="D100" s="4">
         <v>1</v>
@@ -2615,13 +2617,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D101" s="4">
         <v>884</v>
@@ -2629,13 +2631,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C102" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="D102" s="4">
         <v>53</v>
@@ -2643,13 +2645,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C103" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="D103" s="4">
         <v>107</v>
@@ -2657,13 +2659,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C104" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>135</v>
       </c>
       <c r="D104" s="4">
         <v>918</v>
@@ -2671,13 +2673,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D105" s="4">
         <v>747</v>
@@ -2685,13 +2687,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D106" s="4">
         <v>449</v>
@@ -2699,13 +2701,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C107" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="D107" s="4">
         <v>170</v>
@@ -2713,13 +2715,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D108" s="4">
         <v>163</v>
@@ -2727,13 +2729,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D109" s="4">
         <v>799</v>
@@ -2741,13 +2743,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D110" s="4">
         <v>1127</v>
@@ -2755,13 +2757,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D111" s="4">
         <v>569</v>
@@ -2769,13 +2771,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D112" s="4">
         <v>762</v>
@@ -2783,13 +2785,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C113" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>235</v>
       </c>
       <c r="D113" s="4">
         <v>1</v>
@@ -2797,13 +2799,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C114" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="D114" s="4">
         <v>211</v>
@@ -2811,55 +2813,55 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C115" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B115" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>180</v>
-      </c>
       <c r="D115" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C116" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="B116" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>219</v>
-      </c>
       <c r="D116" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C117" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="B117" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>183</v>
-      </c>
       <c r="D117" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C118" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>137</v>
       </c>
       <c r="D118" s="4">
         <v>1</v>
@@ -2867,27 +2869,27 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C119" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="B119" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C119" s="4" t="s">
+      <c r="D119" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="D119" s="4" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D120" s="4">
         <v>1</v>
@@ -2895,13 +2897,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C121" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="D121" s="4">
         <v>1</v>
@@ -2914,18 +2916,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="16">
+    <cfRule type="expression" dxfId="2" priority="17">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D86 A88:D121">
+  <conditionalFormatting sqref="A2:D43 A45:D121">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A87:D87">
+  <conditionalFormatting sqref="A44:D44">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A87))&gt;0</formula>
+      <formula>LEN(TRIM(A44))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/MA_ssoservi_cservico_csala.xlsx
+++ b/pages/MA_ssoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C958A19-FF61-40EE-882A-9286C0729DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9DA868-043A-4A82-A2B9-7DFC44FA6B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{149F6C8A-4ABB-45E4-B310-DA53D82C00F6}"/>
   </bookViews>
@@ -278,9 +278,6 @@
     <t>S040043</t>
   </si>
   <si>
-    <t>PANO DE CHAO - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S010037</t>
   </si>
   <si>
@@ -434,12 +431,6 @@
     <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO P - TAMANHO P</t>
   </si>
   <si>
-    <t>LENCOL HOSPITALAR PAPEL 50CMX50M - UNICA</t>
-  </si>
-  <si>
-    <t>S010084</t>
-  </si>
-  <si>
     <t>SACO DE LIXO INFECTANTE - 50LTS</t>
   </si>
   <si>
@@ -704,9 +695,6 @@
     <t>S150189</t>
   </si>
   <si>
-    <t>DESODORIZADOR DE AMBIENTE - UNICA</t>
-  </si>
-  <si>
     <t>S010012</t>
   </si>
   <si>
@@ -753,6 +741,18 @@
   </si>
   <si>
     <t>ESPONJA DUPLA FACE - 110X75X20MM</t>
+  </si>
+  <si>
+    <t>LENCOL HOSPITALAR DE PAPEL - 50CMX50M</t>
+  </si>
+  <si>
+    <t>S010024</t>
+  </si>
+  <si>
+    <t>PANO DE CHAO ALVEJADO - 50X75CM</t>
+  </si>
+  <si>
+    <t>DESODORIZADOR DE AMBIENTE - SPRAY</t>
   </si>
 </sst>
 </file>
@@ -860,7 +860,25 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1203,8 +1221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
   <dimension ref="A1:D121"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:D44"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1220,7 +1238,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1231,13 +1249,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1245,27 +1263,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D4" s="4">
         <v>105</v>
@@ -1273,13 +1291,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
@@ -1290,7 +1308,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>4</v>
@@ -1304,7 +1322,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>6</v>
@@ -1315,13 +1333,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="D8" s="4">
         <v>53</v>
@@ -1329,55 +1347,55 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D12" s="4">
         <v>831</v>
@@ -1388,7 +1406,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>8</v>
@@ -1399,10 +1417,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>9</v>
@@ -1413,10 +1431,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>9</v>
@@ -1430,7 +1448,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>11</v>
@@ -1444,7 +1462,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>13</v>
@@ -1458,7 +1476,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>13</v>
@@ -1469,13 +1487,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="D19" s="4">
         <v>58</v>
@@ -1486,7 +1504,7 @@
         <v>15</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>16</v>
@@ -1500,7 +1518,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>18</v>
@@ -1511,16 +1529,16 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1528,7 +1546,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>20</v>
@@ -1542,7 +1560,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>20</v>
@@ -1553,10 +1571,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>20</v>
@@ -1570,7 +1588,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>23</v>
@@ -1584,7 +1602,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>25</v>
@@ -1598,7 +1616,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>27</v>
@@ -1609,13 +1627,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="D29" s="4">
         <v>904</v>
@@ -1623,24 +1641,24 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>28</v>
@@ -1651,10 +1669,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>28</v>
@@ -1665,13 +1683,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D33" s="6">
         <v>1</v>
@@ -1679,10 +1697,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>29</v>
@@ -1693,16 +1711,16 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D35" s="4">
-        <v>1</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1710,7 +1728,7 @@
         <v>30</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>31</v>
@@ -1721,13 +1739,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D37" s="4">
         <v>1</v>
@@ -1738,7 +1756,7 @@
         <v>32</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>33</v>
@@ -1749,16 +1767,16 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1766,7 +1784,7 @@
         <v>34</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>35</v>
@@ -1780,7 +1798,7 @@
         <v>36</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>37</v>
@@ -1791,16 +1809,16 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1808,21 +1826,21 @@
         <v>38</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>40</v>
@@ -1836,7 +1854,7 @@
         <v>41</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>42</v>
@@ -1850,7 +1868,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>44</v>
@@ -1864,7 +1882,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>44</v>
@@ -1878,7 +1896,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>44</v>
@@ -1892,7 +1910,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>44</v>
@@ -1903,27 +1921,27 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D51" s="4">
         <v>750</v>
@@ -1931,13 +1949,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="D52" s="4">
         <v>471</v>
@@ -1948,7 +1966,7 @@
         <v>48</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>49</v>
@@ -1962,7 +1980,7 @@
         <v>50</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>49</v>
@@ -1973,27 +1991,27 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D56" s="4">
         <v>1</v>
@@ -2004,7 +2022,7 @@
         <v>51</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>52</v>
@@ -2018,7 +2036,7 @@
         <v>53</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>54</v>
@@ -2032,7 +2050,7 @@
         <v>55</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>56</v>
@@ -2043,13 +2061,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D60" s="4">
         <v>1</v>
@@ -2060,7 +2078,7 @@
         <v>57</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>58</v>
@@ -2071,13 +2089,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="D62" s="4">
         <v>1</v>
@@ -2085,16 +2103,16 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="D63" s="4">
-        <v>1</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -2102,7 +2120,7 @@
         <v>59</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>60</v>
@@ -2116,7 +2134,7 @@
         <v>61</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>62</v>
@@ -2130,7 +2148,7 @@
         <v>63</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>64</v>
@@ -2144,7 +2162,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>64</v>
@@ -2158,7 +2176,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>67</v>
@@ -2172,7 +2190,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>69</v>
@@ -2186,7 +2204,7 @@
         <v>70</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>71</v>
@@ -2200,7 +2218,7 @@
         <v>72</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>71</v>
@@ -2211,13 +2229,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="D72" s="4">
         <v>33</v>
@@ -2225,27 +2243,27 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D74" s="4">
         <v>31</v>
@@ -2256,7 +2274,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>74</v>
@@ -2267,30 +2285,30 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>74</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>74</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -2298,7 +2316,7 @@
         <v>75</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>76</v>
@@ -2309,27 +2327,27 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D80" s="4">
         <v>1</v>
@@ -2337,13 +2355,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D81" s="4">
         <v>1</v>
@@ -2354,7 +2372,7 @@
         <v>77</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>78</v>
@@ -2365,55 +2383,55 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B84" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="D84" s="4">
-        <v>1</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="D86" s="4">
         <v>820</v>
@@ -2421,13 +2439,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D87" s="4">
         <v>819</v>
@@ -2435,13 +2453,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="D88" s="4">
         <v>553</v>
@@ -2449,13 +2467,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D89" s="4">
         <v>72</v>
@@ -2463,13 +2481,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="D90" s="4">
         <v>86</v>
@@ -2477,13 +2495,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D91" s="4">
         <v>87</v>
@@ -2491,27 +2509,27 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D93" s="4">
         <v>55</v>
@@ -2519,13 +2537,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D94" s="4">
         <v>54</v>
@@ -2533,13 +2551,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="4">
         <v>994</v>
@@ -2547,13 +2565,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="D96" s="4">
         <v>695</v>
@@ -2561,27 +2579,27 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="D98" s="4">
         <v>1</v>
@@ -2589,27 +2607,27 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C100" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="D100" s="4">
         <v>1</v>
@@ -2617,13 +2635,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D101" s="4">
         <v>884</v>
@@ -2631,13 +2649,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C102" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="D102" s="4">
         <v>53</v>
@@ -2645,13 +2663,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C103" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="D103" s="4">
         <v>107</v>
@@ -2659,13 +2677,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D104" s="4">
         <v>918</v>
@@ -2673,13 +2691,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D105" s="4">
         <v>747</v>
@@ -2687,13 +2705,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D106" s="4">
         <v>449</v>
@@ -2701,13 +2719,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C107" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="D107" s="4">
         <v>170</v>
@@ -2715,13 +2733,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D108" s="4">
         <v>163</v>
@@ -2729,13 +2747,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D109" s="4">
         <v>799</v>
@@ -2743,13 +2761,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D110" s="4">
         <v>1127</v>
@@ -2757,13 +2775,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D111" s="4">
         <v>569</v>
@@ -2771,13 +2789,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D112" s="4">
         <v>762</v>
@@ -2785,13 +2803,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D113" s="4">
         <v>1</v>
@@ -2799,13 +2817,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C114" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="D114" s="4">
         <v>211</v>
@@ -2813,55 +2831,55 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D118" s="4">
         <v>1</v>
@@ -2869,27 +2887,27 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D120" s="4">
         <v>1</v>
@@ -2897,13 +2915,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C121" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="D121" s="4">
         <v>1</v>
@@ -2916,18 +2934,28 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="17">
+    <cfRule type="expression" dxfId="4" priority="20">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D43 A45:D121">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D34 A64:D83 A85:D121 A36:D62">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A44:D44">
+  <conditionalFormatting sqref="A63:D63">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(A63))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A84:D84">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A84))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35:D35">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A44))&gt;0</formula>
+      <formula>LEN(TRIM(A35))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/MA_ssoservi_cservico_csala.xlsx
+++ b/pages/MA_ssoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9DA868-043A-4A82-A2B9-7DFC44FA6B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806A6F02-69E2-4165-82CE-0DA0B4DBD37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{149F6C8A-4ABB-45E4-B310-DA53D82C00F6}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="235">
   <si>
     <t>Complemento</t>
   </si>
@@ -137,18 +137,6 @@
     <t>S010013</t>
   </si>
   <si>
-    <t>DISPENSER P/ SABONETE LIQ. - UNICA - UNICA</t>
-  </si>
-  <si>
-    <t>S110014</t>
-  </si>
-  <si>
-    <t>DISPENSER PAPEL TOALHA - UNICA</t>
-  </si>
-  <si>
-    <t>S010063</t>
-  </si>
-  <si>
     <t>EMBALAGEM PARA PRESENTE - UNICA - UNICA</t>
   </si>
   <si>
@@ -230,15 +218,9 @@
     <t>S010026</t>
   </si>
   <si>
-    <t>LIMPADOR MULT-USO - 500ML - 500ML</t>
-  </si>
-  <si>
     <t>S010027</t>
   </si>
   <si>
-    <t>LIMPADOR MULT-USO - CIF</t>
-  </si>
-  <si>
     <t>LIVRO ATA - UNICA - UNICA</t>
   </si>
   <si>
@@ -482,15 +464,6 @@
     <t>DESINFETANTE LIQUIDO - 1000ML - 1000ML</t>
   </si>
   <si>
-    <t>DISPENSER ALCOOL EM GEL - UNICA</t>
-  </si>
-  <si>
-    <t>DISPENSER PAPEL HIGIENICO - UNICA</t>
-  </si>
-  <si>
-    <t>S010064</t>
-  </si>
-  <si>
     <t>ENVELOPE A4 - OURO - OURO</t>
   </si>
   <si>
@@ -753,6 +726,24 @@
   </si>
   <si>
     <t>DESODORIZADOR DE AMBIENTE - SPRAY</t>
+  </si>
+  <si>
+    <t>DISPENSER - ALCOOL EM GEL</t>
+  </si>
+  <si>
+    <t>DISPENSER - PAPEL HIGIENICO</t>
+  </si>
+  <si>
+    <t>DISPENSER - PAPEL TOALHA</t>
+  </si>
+  <si>
+    <t>DISPENSER - SABONETE LIQUIDO</t>
+  </si>
+  <si>
+    <t>LIMPADOR MULTIUSO - 500ML - 500ML</t>
+  </si>
+  <si>
+    <t>LIMPADOR MULTIUSO - CIF</t>
   </si>
 </sst>
 </file>
@@ -860,25 +851,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1221,8 +1194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
   <dimension ref="A1:D121"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:D35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66:A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1238,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1249,13 +1222,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1263,27 +1236,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D4" s="4">
         <v>105</v>
@@ -1291,13 +1264,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
@@ -1308,7 +1281,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>4</v>
@@ -1322,7 +1295,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>6</v>
@@ -1333,13 +1306,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D8" s="4">
         <v>53</v>
@@ -1347,55 +1320,55 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="D12" s="4">
         <v>831</v>
@@ -1406,7 +1379,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>8</v>
@@ -1417,10 +1390,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>9</v>
@@ -1431,10 +1404,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>9</v>
@@ -1448,7 +1421,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>11</v>
@@ -1462,7 +1435,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>13</v>
@@ -1476,7 +1449,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>13</v>
@@ -1487,13 +1460,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D19" s="4">
         <v>58</v>
@@ -1504,7 +1477,7 @@
         <v>15</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>16</v>
@@ -1518,7 +1491,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>18</v>
@@ -1529,16 +1502,16 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1546,7 +1519,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>20</v>
@@ -1560,7 +1533,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>20</v>
@@ -1571,10 +1544,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>20</v>
@@ -1588,7 +1561,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>23</v>
@@ -1602,7 +1575,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>25</v>
@@ -1616,7 +1589,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>27</v>
@@ -1627,13 +1600,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D29" s="4">
         <v>904</v>
@@ -1641,24 +1614,24 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>28</v>
@@ -1669,10 +1642,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>28</v>
@@ -1683,13 +1656,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D33" s="6">
         <v>1</v>
@@ -1697,10 +1670,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>29</v>
@@ -1711,13 +1684,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="D35" s="4">
         <v>1160</v>
@@ -1728,7 +1701,7 @@
         <v>30</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>31</v>
@@ -1739,69 +1712,69 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>147</v>
+        <v>229</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="D37" s="4">
-        <v>1</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>32</v>
+        <v>230</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>33</v>
+        <v>177</v>
       </c>
       <c r="D38" s="4">
-        <v>1</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>148</v>
+        <v>231</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>137</v>
+        <v>177</v>
+      </c>
+      <c r="D39" s="4">
+        <v>1178</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>34</v>
+        <v>232</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>35</v>
+        <v>177</v>
       </c>
       <c r="D40" s="4">
-        <v>1</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D41" s="4">
         <v>1</v>
@@ -1809,41 +1782,41 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D44" s="4">
         <v>1159</v>
@@ -1851,13 +1824,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D45" s="4">
         <v>1</v>
@@ -1865,13 +1838,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D46" s="4">
         <v>899</v>
@@ -1879,13 +1852,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D47" s="4">
         <v>896</v>
@@ -1893,13 +1866,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D48" s="4">
         <v>900</v>
@@ -1907,13 +1880,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D49" s="4">
         <v>898</v>
@@ -1921,27 +1894,27 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="D51" s="4">
         <v>750</v>
@@ -1949,13 +1922,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D52" s="4">
         <v>471</v>
@@ -1963,13 +1936,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D53" s="4">
         <v>166</v>
@@ -1977,13 +1950,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D54" s="4">
         <v>167</v>
@@ -1991,27 +1964,27 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="B56" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>196</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>205</v>
       </c>
       <c r="D56" s="4">
         <v>1</v>
@@ -2019,13 +1992,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D57" s="4">
         <v>1</v>
@@ -2033,13 +2006,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D58" s="4">
         <v>80</v>
@@ -2047,13 +2020,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D59" s="4">
         <v>80</v>
@@ -2061,13 +2034,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="D60" s="4">
         <v>1</v>
@@ -2075,13 +2048,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D61" s="4">
         <v>1</v>
@@ -2089,13 +2062,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D62" s="4">
         <v>1</v>
@@ -2103,13 +2076,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D63" s="4">
         <v>1163</v>
@@ -2117,13 +2090,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D64" s="4">
         <v>40</v>
@@ -2131,13 +2104,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D65" s="4">
         <v>103</v>
@@ -2145,13 +2118,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>63</v>
+        <v>233</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D66" s="4">
         <v>103</v>
@@ -2159,13 +2132,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>65</v>
+        <v>234</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D67" s="4">
         <v>910</v>
@@ -2173,13 +2146,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D68" s="4">
         <v>1</v>
@@ -2187,13 +2160,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D69" s="4">
         <v>745</v>
@@ -2201,13 +2174,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D70" s="4">
         <v>33</v>
@@ -2215,13 +2188,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D71" s="4">
         <v>32</v>
@@ -2229,13 +2202,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D72" s="4">
         <v>33</v>
@@ -2243,27 +2216,27 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D74" s="4">
         <v>31</v>
@@ -2271,13 +2244,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D75" s="4">
         <v>2</v>
@@ -2285,41 +2258,41 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D78" s="4">
         <v>1</v>
@@ -2327,27 +2300,27 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D80" s="4">
         <v>1</v>
@@ -2355,13 +2328,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="D81" s="4">
         <v>1</v>
@@ -2369,13 +2342,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D82" s="4">
         <v>211</v>
@@ -2383,27 +2356,27 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D84" s="4">
         <v>1166</v>
@@ -2411,27 +2384,27 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D86" s="4">
         <v>820</v>
@@ -2439,13 +2412,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D87" s="4">
         <v>819</v>
@@ -2453,13 +2426,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D88" s="4">
         <v>553</v>
@@ -2467,13 +2440,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D89" s="4">
         <v>72</v>
@@ -2481,13 +2454,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D90" s="4">
         <v>86</v>
@@ -2495,13 +2468,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D91" s="4">
         <v>87</v>
@@ -2509,27 +2482,27 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D93" s="4">
         <v>55</v>
@@ -2537,13 +2510,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D94" s="4">
         <v>54</v>
@@ -2551,13 +2524,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D95" s="4">
         <v>994</v>
@@ -2565,13 +2538,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D96" s="4">
         <v>695</v>
@@ -2579,27 +2552,27 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D98" s="4">
         <v>1</v>
@@ -2607,27 +2580,27 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D100" s="4">
         <v>1</v>
@@ -2635,13 +2608,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="D101" s="4">
         <v>884</v>
@@ -2649,13 +2622,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D102" s="4">
         <v>53</v>
@@ -2663,13 +2636,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D103" s="4">
         <v>107</v>
@@ -2677,13 +2650,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D104" s="4">
         <v>918</v>
@@ -2691,13 +2664,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="D105" s="4">
         <v>747</v>
@@ -2705,13 +2678,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="D106" s="4">
         <v>449</v>
@@ -2719,13 +2692,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D107" s="4">
         <v>170</v>
@@ -2733,13 +2706,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D108" s="4">
         <v>163</v>
@@ -2747,13 +2720,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D109" s="4">
         <v>799</v>
@@ -2761,13 +2734,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D110" s="4">
         <v>1127</v>
@@ -2775,13 +2748,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D111" s="4">
         <v>569</v>
@@ -2789,13 +2762,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D112" s="4">
         <v>762</v>
@@ -2803,13 +2776,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D113" s="4">
         <v>1</v>
@@ -2817,13 +2790,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D114" s="4">
         <v>211</v>
@@ -2831,55 +2804,55 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D118" s="4">
         <v>1</v>
@@ -2887,27 +2860,27 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D120" s="4">
         <v>1</v>
@@ -2915,13 +2888,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D121" s="4">
         <v>1</v>
@@ -2934,28 +2907,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="4" priority="20">
+    <cfRule type="expression" dxfId="2" priority="22">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D34 A64:D83 A85:D121 A36:D62">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
+  <conditionalFormatting sqref="A2:D65 A68:D121 B66:D67">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A63:D63">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
-      <formula>LEN(TRIM(A63))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A84:D84">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(A84))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A35:D35">
+  <conditionalFormatting sqref="A66:A67">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A35))&gt;0</formula>
+      <formula>LEN(TRIM(A66))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/MA_ssoservi_cservico_csala.xlsx
+++ b/pages/MA_ssoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806A6F02-69E2-4165-82CE-0DA0B4DBD37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4105C609-6215-4BA3-8202-53E52333CA08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{149F6C8A-4ABB-45E4-B310-DA53D82C00F6}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="234">
   <si>
     <t>Complemento</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Derivação</t>
   </si>
   <si>
-    <t>ALCOOL 70% PARA PROCEDIMENTO - 1000ML - 1000ML</t>
-  </si>
-  <si>
     <t>S010004</t>
   </si>
   <si>
@@ -182,9 +179,6 @@
     <t>FITA ADESIVA TRANSPARENTE - 45CMX45M</t>
   </si>
   <si>
-    <t>FLANELA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S010021</t>
   </si>
   <si>
@@ -233,24 +227,15 @@
     <t>S110045</t>
   </si>
   <si>
-    <t>LUVA MULTIUSO DE LATEX - TAMANHO G - TAMANHO G</t>
-  </si>
-  <si>
     <t>S010030</t>
   </si>
   <si>
-    <t>LUVA MULTIUSO DE LATEX - TAMANHO M - TAMANHO M</t>
-  </si>
-  <si>
     <t>MARCADOR QUADRO BRANCO - AZUL - AZUL</t>
   </si>
   <si>
     <t>S020101</t>
   </si>
   <si>
-    <t>MASCARA DESCARTAVEL - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S010032</t>
   </si>
   <si>
@@ -404,15 +389,9 @@
     <t>S150191</t>
   </si>
   <si>
-    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO G - TAMANHO G</t>
-  </si>
-  <si>
     <t>S010031</t>
   </si>
   <si>
-    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO P - TAMANHO P</t>
-  </si>
-  <si>
     <t>SACO DE LIXO INFECTANTE - 50LTS</t>
   </si>
   <si>
@@ -479,12 +458,6 @@
     <t>S230009</t>
   </si>
   <si>
-    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO M - TAMANHO M</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
     <t>MARCADOR QUADRO BRANCO - PRETO - PRETO</t>
   </si>
   <si>
@@ -506,9 +479,6 @@
     <t>591</t>
   </si>
   <si>
-    <t>PANO DE PRATO - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S010038</t>
   </si>
   <si>
@@ -744,6 +714,33 @@
   </si>
   <si>
     <t>LIMPADOR MULTIUSO - CIF</t>
+  </si>
+  <si>
+    <t>ALCOOL LIQUIDO 70º - 1000ML - 1000ML</t>
+  </si>
+  <si>
+    <t>FLANELA - 29cm X 49cm - 29cm X 49cm</t>
+  </si>
+  <si>
+    <t>LUVA MULTIUSO DE LATEX - TAMANHO G</t>
+  </si>
+  <si>
+    <t>LUVA MULTIUSO DE LATEX - TAMANHO M</t>
+  </si>
+  <si>
+    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO G</t>
+  </si>
+  <si>
+    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO M</t>
+  </si>
+  <si>
+    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO P</t>
+  </si>
+  <si>
+    <t>MASCARA DESCARTAVEL - UNICA</t>
+  </si>
+  <si>
+    <t>PANO DE PRATO - 50X75CM</t>
   </si>
 </sst>
 </file>
@@ -851,7 +848,61 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="9">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1194,8 +1245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
   <dimension ref="A1:D121"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66:A67"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85:D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1211,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1222,13 +1273,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1236,27 +1287,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D4" s="4">
         <v>105</v>
@@ -1264,13 +1315,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
@@ -1278,13 +1329,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>4</v>
       </c>
       <c r="D6" s="4">
         <v>105</v>
@@ -1292,13 +1343,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>6</v>
       </c>
       <c r="D7" s="4">
         <v>103</v>
@@ -1306,13 +1357,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D8" s="4">
         <v>53</v>
@@ -1320,55 +1371,55 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="D12" s="4">
         <v>831</v>
@@ -1376,13 +1427,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="D13" s="4">
         <v>809</v>
@@ -1390,13 +1441,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D14" s="4">
         <v>1046</v>
@@ -1404,13 +1455,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D15" s="4">
         <v>1045</v>
@@ -1418,13 +1469,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="D16" s="4">
         <v>103</v>
@@ -1432,13 +1483,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17" s="4">
         <v>33</v>
@@ -1446,13 +1497,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="D18" s="4">
         <v>31</v>
@@ -1460,13 +1511,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D19" s="4">
         <v>58</v>
@@ -1474,13 +1525,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="D20" s="4">
         <v>20</v>
@@ -1488,13 +1539,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="D21" s="4">
         <v>1</v>
@@ -1502,27 +1553,27 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="D23" s="4">
         <v>2</v>
@@ -1530,13 +1581,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D24" s="4">
         <v>3</v>
@@ -1544,13 +1595,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D25" s="4">
         <v>4</v>
@@ -1558,13 +1609,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="D26" s="4">
         <v>1</v>
@@ -1572,13 +1623,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="D27" s="4">
         <v>1</v>
@@ -1586,13 +1637,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="D28" s="4">
         <v>52</v>
@@ -1600,13 +1651,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D29" s="4">
         <v>904</v>
@@ -1614,27 +1665,27 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D31" s="4">
         <v>109</v>
@@ -1642,13 +1693,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D32" s="4">
         <v>100</v>
@@ -1656,13 +1707,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="D33" s="6">
         <v>1</v>
@@ -1670,13 +1721,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D34" s="4">
         <v>105</v>
@@ -1684,13 +1735,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="D35" s="4">
         <v>1160</v>
@@ -1698,13 +1749,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="D36" s="4">
         <v>103</v>
@@ -1712,13 +1763,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D37" s="4">
         <v>1176</v>
@@ -1726,13 +1777,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D38" s="4">
         <v>1177</v>
@@ -1740,13 +1791,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D39" s="4">
         <v>1178</v>
@@ -1754,13 +1805,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D40" s="4">
         <v>1179</v>
@@ -1768,13 +1819,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="D41" s="4">
         <v>1</v>
@@ -1782,41 +1833,41 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="D43" s="4" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D44" s="4">
         <v>1159</v>
@@ -1824,13 +1875,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="D45" s="4">
         <v>1</v>
@@ -1838,13 +1889,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="D46" s="4">
         <v>899</v>
@@ -1852,13 +1903,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D47" s="4">
         <v>896</v>
@@ -1866,13 +1917,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D48" s="4">
         <v>900</v>
@@ -1880,13 +1931,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D49" s="4">
         <v>898</v>
@@ -1894,27 +1945,27 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="D51" s="4">
         <v>750</v>
@@ -1922,13 +1973,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D52" s="4">
         <v>471</v>
@@ -1936,13 +1987,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="D53" s="4">
         <v>166</v>
@@ -1950,13 +2001,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D54" s="4">
         <v>167</v>
@@ -1964,27 +2015,27 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="D56" s="4">
         <v>1</v>
@@ -1992,27 +2043,27 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>47</v>
+        <v>226</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D57" s="4">
-        <v>1</v>
+        <v>448</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D58" s="4">
         <v>80</v>
@@ -2020,13 +2071,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D59" s="4">
         <v>80</v>
@@ -2034,13 +2085,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D60" s="4">
         <v>1</v>
@@ -2048,13 +2099,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D61" s="4">
         <v>1</v>
@@ -2062,13 +2113,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D62" s="4">
         <v>1</v>
@@ -2076,13 +2127,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="D63" s="4">
         <v>1163</v>
@@ -2090,13 +2141,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D64" s="4">
         <v>40</v>
@@ -2104,13 +2155,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D65" s="4">
         <v>103</v>
@@ -2118,13 +2169,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D66" s="4">
         <v>103</v>
@@ -2132,13 +2183,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D67" s="4">
         <v>910</v>
@@ -2146,13 +2197,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D68" s="4">
         <v>1</v>
@@ -2160,13 +2211,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D69" s="4">
         <v>745</v>
@@ -2174,13 +2225,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>64</v>
+        <v>227</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D70" s="4">
         <v>33</v>
@@ -2188,13 +2239,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>66</v>
+        <v>228</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D71" s="4">
         <v>32</v>
@@ -2202,13 +2253,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>121</v>
+        <v>229</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D72" s="4">
         <v>33</v>
@@ -2216,27 +2267,27 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>146</v>
+        <v>230</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>147</v>
+        <v>116</v>
+      </c>
+      <c r="D73" s="4">
+        <v>32</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>123</v>
+        <v>231</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D74" s="4">
         <v>31</v>
@@ -2244,13 +2295,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D75" s="4">
         <v>2</v>
@@ -2258,41 +2309,41 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>69</v>
+        <v>232</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D78" s="4">
         <v>1</v>
@@ -2300,27 +2351,27 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="D80" s="4">
         <v>1</v>
@@ -2328,13 +2379,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D81" s="4">
         <v>1</v>
@@ -2342,13 +2393,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D82" s="4">
         <v>211</v>
@@ -2356,27 +2407,27 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D84" s="4">
         <v>1166</v>
@@ -2384,27 +2435,27 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>131</v>
+        <v>146</v>
+      </c>
+      <c r="D85" s="4">
+        <v>1167</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D86" s="4">
         <v>820</v>
@@ -2412,13 +2463,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D87" s="4">
         <v>819</v>
@@ -2426,13 +2477,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D88" s="4">
         <v>553</v>
@@ -2440,13 +2491,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D89" s="4">
         <v>72</v>
@@ -2454,13 +2505,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D90" s="4">
         <v>86</v>
@@ -2468,13 +2519,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D91" s="4">
         <v>87</v>
@@ -2482,27 +2533,27 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D93" s="4">
         <v>55</v>
@@ -2510,13 +2561,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D94" s="4">
         <v>54</v>
@@ -2524,13 +2575,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D95" s="4">
         <v>994</v>
@@ -2538,13 +2589,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D96" s="4">
         <v>695</v>
@@ -2552,27 +2603,27 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D98" s="4">
         <v>1</v>
@@ -2580,27 +2631,27 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D100" s="4">
         <v>1</v>
@@ -2608,13 +2659,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="D101" s="4">
         <v>884</v>
@@ -2622,13 +2673,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D102" s="4">
         <v>53</v>
@@ -2636,13 +2687,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D103" s="4">
         <v>107</v>
@@ -2650,13 +2701,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D104" s="4">
         <v>918</v>
@@ -2664,13 +2715,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D105" s="4">
         <v>747</v>
@@ -2678,13 +2729,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="D106" s="4">
         <v>449</v>
@@ -2692,13 +2743,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D107" s="4">
         <v>170</v>
@@ -2706,13 +2757,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D108" s="4">
         <v>163</v>
@@ -2720,13 +2771,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D109" s="4">
         <v>799</v>
@@ -2734,13 +2785,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D110" s="4">
         <v>1127</v>
@@ -2748,13 +2799,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D111" s="4">
         <v>569</v>
@@ -2762,13 +2813,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D112" s="4">
         <v>762</v>
@@ -2776,13 +2827,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D113" s="4">
         <v>1</v>
@@ -2790,13 +2841,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D114" s="4">
         <v>211</v>
@@ -2804,55 +2855,55 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D118" s="4">
         <v>1</v>
@@ -2860,27 +2911,27 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="D120" s="4">
         <v>1</v>
@@ -2888,13 +2939,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D121" s="4">
         <v>1</v>
@@ -2907,18 +2958,48 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="22">
+    <cfRule type="expression" dxfId="8" priority="29">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D65 A68:D121 B66:D67">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D5 A7:D56 A58:D69 A75:D77 A79:D84 A86:D121">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="8">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A66:A67">
+  <conditionalFormatting sqref="A6:D6">
+    <cfRule type="notContainsBlanks" dxfId="6" priority="7">
+      <formula>LEN(TRIM(A6))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A57:D57">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="6">
+      <formula>LEN(TRIM(A57))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B72:D74 A70:D71">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="5">
+      <formula>LEN(TRIM(A70))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A72:A74">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
+      <formula>LEN(TRIM(A72))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B78:D78">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(B78))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A78">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A78))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A85:D85">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A66))&gt;0</formula>
+      <formula>LEN(TRIM(A85))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/MA_ssoservi_cservico_csala.xlsx
+++ b/pages/MA_ssoservi_cservico_csala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4105C609-6215-4BA3-8202-53E52333CA08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084075AC-B0EB-44F4-A272-DAB9AA05879D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{149F6C8A-4ABB-45E4-B310-DA53D82C00F6}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="232">
   <si>
     <t>Complemento</t>
   </si>
@@ -641,24 +641,6 @@
     <t>S010012</t>
   </si>
   <si>
-    <t>MOP PO REFIL - UNICA</t>
-  </si>
-  <si>
-    <t>S010076</t>
-  </si>
-  <si>
-    <t>MOP UMIDO REFIL - UNICA - UNICA</t>
-  </si>
-  <si>
-    <t>S010034</t>
-  </si>
-  <si>
-    <t>KIT MOP UMIDO - UNICA</t>
-  </si>
-  <si>
-    <t>S010086</t>
-  </si>
-  <si>
     <t>AVENTAL C/ MANGA - UNICA</t>
   </si>
   <si>
@@ -741,6 +723,18 @@
   </si>
   <si>
     <t>PANO DE PRATO - 50X75CM</t>
+  </si>
+  <si>
+    <t>MOP - KIT UMIDO</t>
+  </si>
+  <si>
+    <t>S010075</t>
+  </si>
+  <si>
+    <t>MOP - REFIL PO</t>
+  </si>
+  <si>
+    <t>MOP - REFIL UMIDO</t>
   </si>
 </sst>
 </file>
@@ -848,61 +842,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1245,8 +1185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
   <dimension ref="A1:D121"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85:D85"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79:D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1301,13 +1241,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>177</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D4" s="4">
         <v>105</v>
@@ -1329,7 +1269,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>177</v>
@@ -1385,13 +1325,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>183</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>124</v>
@@ -1735,7 +1675,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>177</v>
@@ -1763,7 +1703,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>177</v>
@@ -1777,7 +1717,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>177</v>
@@ -1791,7 +1731,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>177</v>
@@ -1805,7 +1745,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>177</v>
@@ -1861,7 +1801,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>177</v>
@@ -1959,13 +1899,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>177</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D51" s="4">
         <v>750</v>
@@ -2043,7 +1983,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>177</v>
@@ -2085,13 +2025,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>204</v>
+        <v>51</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>177</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>205</v>
+        <v>52</v>
       </c>
       <c r="D60" s="4">
         <v>1</v>
@@ -2099,13 +2039,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>51</v>
+        <v>114</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>52</v>
+        <v>115</v>
       </c>
       <c r="D61" s="4">
         <v>1</v>
@@ -2113,55 +2053,55 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>114</v>
+        <v>209</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>115</v>
+        <v>210</v>
       </c>
       <c r="D62" s="4">
-        <v>1</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>215</v>
+        <v>53</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>177</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>216</v>
+        <v>54</v>
       </c>
       <c r="D63" s="4">
-        <v>1163</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>177</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D64" s="4">
-        <v>40</v>
+        <v>103</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>55</v>
+        <v>217</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>177</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D65" s="4">
         <v>103</v>
@@ -2169,7 +2109,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>177</v>
@@ -2178,54 +2118,54 @@
         <v>57</v>
       </c>
       <c r="D66" s="4">
-        <v>103</v>
+        <v>910</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>224</v>
+        <v>58</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>177</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D67" s="4">
-        <v>910</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>177</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D68" s="4">
-        <v>1</v>
+        <v>745</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>60</v>
+        <v>221</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>177</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D69" s="4">
-        <v>745</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>177</v>
@@ -2234,26 +2174,26 @@
         <v>62</v>
       </c>
       <c r="D70" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="D71" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>178</v>
@@ -2262,12 +2202,12 @@
         <v>116</v>
       </c>
       <c r="D72" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>178</v>
@@ -2276,26 +2216,26 @@
         <v>116</v>
       </c>
       <c r="D73" s="4">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>231</v>
+        <v>63</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>116</v>
+        <v>64</v>
       </c>
       <c r="D74" s="4">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>63</v>
+        <v>139</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>177</v>
@@ -2303,13 +2243,13 @@
       <c r="C75" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D75" s="4">
-        <v>2</v>
+      <c r="D75" s="4" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>177</v>
@@ -2318,77 +2258,77 @@
         <v>64</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>141</v>
+        <v>226</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>142</v>
+        <v>65</v>
+      </c>
+      <c r="D77" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D78" s="4">
-        <v>1</v>
+        <v>194</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>193</v>
+        <v>228</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>177</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>124</v>
+        <v>229</v>
+      </c>
+      <c r="D79" s="4">
+        <v>1172</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>177</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="D80" s="4">
-        <v>1</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>202</v>
+        <v>231</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>177</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="D81" s="4">
-        <v>1</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -2421,7 +2361,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>177</v>
@@ -2435,7 +2375,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>177</v>
@@ -2827,13 +2767,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>177</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D113" s="4">
         <v>1</v>
@@ -2958,48 +2898,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="8" priority="29">
+    <cfRule type="expression" dxfId="2" priority="30">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D5 A7:D56 A58:D69 A75:D77 A79:D84 A86:D121">
-    <cfRule type="notContainsBlanks" dxfId="7" priority="8">
+  <conditionalFormatting sqref="A2:D78 A82:D121">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:D6">
-    <cfRule type="notContainsBlanks" dxfId="6" priority="7">
-      <formula>LEN(TRIM(A6))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A57:D57">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="6">
-      <formula>LEN(TRIM(A57))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B72:D74 A70:D71">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="5">
-      <formula>LEN(TRIM(A70))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A72:A74">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
-      <formula>LEN(TRIM(A72))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B78:D78">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
-      <formula>LEN(TRIM(B78))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A78">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(A78))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A85:D85">
+  <conditionalFormatting sqref="A79:D81">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A85))&gt;0</formula>
+      <formula>LEN(TRIM(A79))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/MA_ssoservi_cservico_csala.xlsx
+++ b/pages/MA_ssoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084075AC-B0EB-44F4-A272-DAB9AA05879D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F15AAFE-9B01-4716-94A8-BF956F56E561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{149F6C8A-4ABB-45E4-B310-DA53D82C00F6}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$120</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$121</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="233">
   <si>
     <t>Complemento</t>
   </si>
@@ -227,9 +227,6 @@
     <t>S110045</t>
   </si>
   <si>
-    <t>S010030</t>
-  </si>
-  <si>
     <t>MARCADOR QUADRO BRANCO - AZUL - AZUL</t>
   </si>
   <si>
@@ -371,9 +368,6 @@
     <t>S010005</t>
   </si>
   <si>
-    <t>AGULHA - UNICA</t>
-  </si>
-  <si>
     <t>S010072</t>
   </si>
   <si>
@@ -389,9 +383,6 @@
     <t>S150191</t>
   </si>
   <si>
-    <t>S010031</t>
-  </si>
-  <si>
     <t>SACO DE LIXO INFECTANTE - 50LTS</t>
   </si>
   <si>
@@ -566,9 +557,6 @@
     <t>SACO P/ LIXO C/5N - 100LT</t>
   </si>
   <si>
-    <t>SACO P/ LIXO C/10UN - 30LT</t>
-  </si>
-  <si>
     <t>UM.</t>
   </si>
   <si>
@@ -704,21 +692,6 @@
     <t>FLANELA - 29cm X 49cm - 29cm X 49cm</t>
   </si>
   <si>
-    <t>LUVA MULTIUSO DE LATEX - TAMANHO G</t>
-  </si>
-  <si>
-    <t>LUVA MULTIUSO DE LATEX - TAMANHO M</t>
-  </si>
-  <si>
-    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO G</t>
-  </si>
-  <si>
-    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO M</t>
-  </si>
-  <si>
-    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO P</t>
-  </si>
-  <si>
     <t>MASCARA DESCARTAVEL - UNICA</t>
   </si>
   <si>
@@ -735,6 +708,36 @@
   </si>
   <si>
     <t>MOP - REFIL UMIDO</t>
+  </si>
+  <si>
+    <t>AGULHA 12X40MM - 100UN</t>
+  </si>
+  <si>
+    <t>SACO P/ LIXO C/10UN - 30L</t>
+  </si>
+  <si>
+    <t>LUVA MULTIUSO DE LATEX - TAM.G - TAM.G</t>
+  </si>
+  <si>
+    <t>S080024</t>
+  </si>
+  <si>
+    <t>LUVA MULTIUSO DE LATEX - TAM.M - TAM.M</t>
+  </si>
+  <si>
+    <t>LUVA MULTIUSO DE LATEX - TAM.P - TAM.P</t>
+  </si>
+  <si>
+    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAM.G - TAM.G</t>
+  </si>
+  <si>
+    <t>S080023</t>
+  </si>
+  <si>
+    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAM.M - TAM.M</t>
+  </si>
+  <si>
+    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAM.P - TAM.P</t>
   </si>
 </sst>
 </file>
@@ -842,16 +845,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1183,10 +1177,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
-  <dimension ref="A1:D121"/>
+  <dimension ref="A1:D122"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79:D81"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72:B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1213,13 +1207,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1227,27 +1221,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D4" s="4">
         <v>105</v>
@@ -1255,24 +1249,24 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>110</v>
+        <v>223</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1</v>
+        <v>109</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>3</v>
@@ -1286,7 +1280,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>5</v>
@@ -1297,13 +1291,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="D8" s="4">
         <v>53</v>
@@ -1311,55 +1305,55 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D12" s="4">
         <v>831</v>
@@ -1370,7 +1364,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>7</v>
@@ -1381,10 +1375,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>8</v>
@@ -1395,10 +1389,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>8</v>
@@ -1412,7 +1406,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>10</v>
@@ -1426,7 +1420,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>12</v>
@@ -1440,7 +1434,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>12</v>
@@ -1451,13 +1445,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="D19" s="4">
         <v>58</v>
@@ -1468,7 +1462,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>15</v>
@@ -1482,7 +1476,7 @@
         <v>16</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>17</v>
@@ -1493,16 +1487,16 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1510,7 +1504,7 @@
         <v>18</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>19</v>
@@ -1524,7 +1518,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>19</v>
@@ -1535,10 +1529,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>19</v>
@@ -1552,7 +1546,7 @@
         <v>21</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>22</v>
@@ -1566,7 +1560,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>24</v>
@@ -1580,7 +1574,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>26</v>
@@ -1591,13 +1585,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D29" s="4">
         <v>904</v>
@@ -1605,24 +1599,24 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>27</v>
@@ -1633,10 +1627,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>27</v>
@@ -1647,13 +1641,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D33" s="6">
         <v>1</v>
@@ -1661,10 +1655,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>28</v>
@@ -1675,13 +1669,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D35" s="4">
         <v>1160</v>
@@ -1692,7 +1686,7 @@
         <v>29</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>30</v>
@@ -1703,13 +1697,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D37" s="4">
         <v>1176</v>
@@ -1717,13 +1711,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D38" s="4">
         <v>1177</v>
@@ -1731,13 +1725,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D39" s="4">
         <v>1178</v>
@@ -1745,13 +1739,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D40" s="4">
         <v>1179</v>
@@ -1762,7 +1756,7 @@
         <v>31</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>32</v>
@@ -1773,16 +1767,16 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1790,27 +1784,27 @@
         <v>33</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D44" s="4">
-        <v>1159</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1818,7 +1812,7 @@
         <v>36</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>37</v>
@@ -1832,7 +1826,7 @@
         <v>38</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>39</v>
@@ -1846,7 +1840,7 @@
         <v>40</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>39</v>
@@ -1860,7 +1854,7 @@
         <v>41</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>39</v>
@@ -1874,7 +1868,7 @@
         <v>42</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>39</v>
@@ -1885,27 +1879,27 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D51" s="4">
         <v>750</v>
@@ -1913,13 +1907,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="D52" s="4">
         <v>471</v>
@@ -1930,7 +1924,7 @@
         <v>43</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>44</v>
@@ -1944,7 +1938,7 @@
         <v>45</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>44</v>
@@ -1955,27 +1949,27 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D56" s="4">
         <v>1</v>
@@ -1983,10 +1977,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>46</v>
@@ -2000,7 +1994,7 @@
         <v>47</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>48</v>
@@ -2014,7 +2008,7 @@
         <v>49</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>50</v>
@@ -2028,7 +2022,7 @@
         <v>51</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>52</v>
@@ -2039,13 +2033,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D61" s="4">
         <v>1</v>
@@ -2053,13 +2047,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D62" s="4">
         <v>1163</v>
@@ -2070,7 +2064,7 @@
         <v>53</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>54</v>
@@ -2084,7 +2078,7 @@
         <v>55</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>56</v>
@@ -2095,10 +2089,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>57</v>
@@ -2109,10 +2103,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>57</v>
@@ -2126,7 +2120,7 @@
         <v>58</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>59</v>
@@ -2140,7 +2134,7 @@
         <v>60</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>61</v>
@@ -2151,13 +2145,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>62</v>
+        <v>226</v>
       </c>
       <c r="D69" s="4">
         <v>33</v>
@@ -2165,751 +2159,760 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>62</v>
+        <v>226</v>
       </c>
       <c r="D70" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>116</v>
+        <v>226</v>
       </c>
       <c r="D71" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>116</v>
+        <v>230</v>
       </c>
       <c r="D72" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>116</v>
+        <v>230</v>
       </c>
       <c r="D73" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>63</v>
+        <v>232</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>64</v>
+        <v>230</v>
       </c>
       <c r="D74" s="4">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>139</v>
+        <v>62</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>140</v>
+        <v>63</v>
+      </c>
+      <c r="D75" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>226</v>
+        <v>138</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D77" s="4">
-        <v>1</v>
+        <v>63</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>124</v>
+        <v>64</v>
+      </c>
+      <c r="D78" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>228</v>
+        <v>189</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="D79" s="4">
-        <v>1172</v>
+        <v>190</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="D80" s="4">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="D81" s="4">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>66</v>
+        <v>222</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>67</v>
+        <v>220</v>
       </c>
       <c r="D82" s="4">
-        <v>211</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>143</v>
+        <v>65</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>145</v>
+        <v>66</v>
+      </c>
+      <c r="D83" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>211</v>
+        <v>140</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D84" s="4">
-        <v>1166</v>
+        <v>141</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>146</v>
+        <v>67</v>
       </c>
       <c r="D85" s="4">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>69</v>
+        <v>218</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>70</v>
+        <v>143</v>
       </c>
       <c r="D86" s="4">
-        <v>820</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D87" s="4">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D88" s="4">
-        <v>553</v>
+        <v>819</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>147</v>
+        <v>71</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D89" s="4">
-        <v>72</v>
+        <v>553</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>75</v>
+        <v>144</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D90" s="4">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D91" s="4">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>148</v>
+        <v>76</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>149</v>
+        <v>75</v>
+      </c>
+      <c r="D92" s="4">
+        <v>87</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D93" s="4">
-        <v>55</v>
+        <v>75</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D94" s="4">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D95" s="4">
-        <v>994</v>
+        <v>54</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B96" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="D96" s="4">
-        <v>695</v>
+        <v>994</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>124</v>
+        <v>79</v>
+      </c>
+      <c r="D97" s="4">
+        <v>695</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D98" s="4">
-        <v>1</v>
+        <v>150</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>154</v>
+        <v>81</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>124</v>
+        <v>82</v>
+      </c>
+      <c r="D99" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>84</v>
+        <v>151</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D100" s="4">
-        <v>1</v>
+        <v>152</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>171</v>
+        <v>83</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c r="D101" s="4">
-        <v>884</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>86</v>
+        <v>168</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>87</v>
+        <v>167</v>
       </c>
       <c r="D102" s="4">
-        <v>53</v>
+        <v>884</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D103" s="4">
-        <v>107</v>
+        <v>53</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="D104" s="4">
-        <v>918</v>
+        <v>107</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B105" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B105" s="4" t="s">
-        <v>179</v>
-      </c>
       <c r="C105" s="4" t="s">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c r="D105" s="4">
-        <v>747</v>
+        <v>918</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>174</v>
+        <v>224</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D106" s="4">
-        <v>449</v>
+        <v>437</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>90</v>
+        <v>171</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>91</v>
+        <v>170</v>
       </c>
       <c r="D107" s="4">
-        <v>170</v>
+        <v>449</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>177</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D108" s="4">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D109" s="4">
-        <v>799</v>
+        <v>163</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D110" s="4">
-        <v>1127</v>
+        <v>799</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D111" s="4">
-        <v>569</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D112" s="4">
-        <v>762</v>
+        <v>569</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>204</v>
+        <v>95</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>205</v>
+        <v>93</v>
       </c>
       <c r="D113" s="4">
-        <v>1</v>
+        <v>762</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>97</v>
+        <v>200</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>98</v>
+        <v>201</v>
       </c>
       <c r="D114" s="4">
-        <v>211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>156</v>
+        <v>96</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D115" s="4" t="s">
-        <v>124</v>
+        <v>97</v>
+      </c>
+      <c r="D115" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>195</v>
+        <v>153</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>196</v>
+        <v>154</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C118" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D118" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="D118" s="4">
-        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>161</v>
+        <v>116</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D119" s="4" t="s">
-        <v>163</v>
+        <v>117</v>
+      </c>
+      <c r="D119" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>177</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D120" s="4">
-        <v>1</v>
+        <v>159</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>99</v>
+        <v>180</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>100</v>
+        <v>161</v>
       </c>
       <c r="D121" s="4">
         <v>1</v>
       </c>
     </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D122" s="4">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D120" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D121">
-      <sortCondition ref="A1:A120"/>
+  <autoFilter ref="A1:D121" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D122">
+      <sortCondition ref="A1:A121"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="30">
+    <cfRule type="expression" dxfId="1" priority="34">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D78 A82:D121">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D122">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A79:D81">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A79))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/MA_ssoservi_cservico_csala.xlsx
+++ b/pages/MA_ssoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F15AAFE-9B01-4716-94A8-BF956F56E561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6D0C5B-BEDF-4598-B62A-25D1A8C59D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{149F6C8A-4ABB-45E4-B310-DA53D82C00F6}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$121</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$120</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="231">
   <si>
     <t>Complemento</t>
   </si>
@@ -383,15 +383,9 @@
     <t>S150191</t>
   </si>
   <si>
-    <t>SACO DE LIXO INFECTANTE - 50LTS</t>
-  </si>
-  <si>
     <t>S010062</t>
   </si>
   <si>
-    <t>TIRA P/ TESTE DE GLICEMIA - ÚNICA</t>
-  </si>
-  <si>
     <t>S150190</t>
   </si>
   <si>
@@ -614,12 +608,6 @@
     <t>S150037</t>
   </si>
   <si>
-    <t>TESOURA MULTIUSO - UNICA - UNICA</t>
-  </si>
-  <si>
-    <t>S020008</t>
-  </si>
-  <si>
     <t>CURATIVO ADESIVO EM DISCO - UNICA</t>
   </si>
   <si>
@@ -629,12 +617,6 @@
     <t>S010012</t>
   </si>
   <si>
-    <t>AVENTAL C/ MANGA - UNICA</t>
-  </si>
-  <si>
-    <t>S150204</t>
-  </si>
-  <si>
     <t>AGUA SANITÁRIA - 1000ML - 1000ML</t>
   </si>
   <si>
@@ -738,6 +720,18 @@
   </si>
   <si>
     <t>LUVA PROCEDIMENTO DESCARTAVEL - TAM.P - TAM.P</t>
+  </si>
+  <si>
+    <t>AVENTAL DESCARTAVEL TNT MANGA LONGA - 30G</t>
+  </si>
+  <si>
+    <t>S080016</t>
+  </si>
+  <si>
+    <t>SACO P/ LIXO INFECTANTE - 50L</t>
+  </si>
+  <si>
+    <t>TIRA P/ TESTE DE GLICEMIA - UNICA</t>
   </si>
 </sst>
 </file>
@@ -845,7 +839,25 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1177,10 +1189,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
-  <dimension ref="A1:D122"/>
+  <dimension ref="A1:D121"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72:B74"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="A117" sqref="A117:XFD117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1196,7 +1208,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1210,7 +1222,7 @@
         <v>100</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>101</v>
@@ -1221,27 +1233,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>183</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D4" s="4">
         <v>105</v>
@@ -1249,10 +1261,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>109</v>
@@ -1263,10 +1275,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>3</v>
@@ -1280,7 +1292,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>5</v>
@@ -1294,7 +1306,7 @@
         <v>107</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>108</v>
@@ -1305,55 +1317,55 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>121</v>
+        <v>228</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1208</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D12" s="4">
         <v>831</v>
@@ -1364,7 +1376,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>7</v>
@@ -1375,10 +1387,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>8</v>
@@ -1389,10 +1401,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>8</v>
@@ -1406,7 +1418,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>10</v>
@@ -1420,7 +1432,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>12</v>
@@ -1434,7 +1446,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>12</v>
@@ -1448,7 +1460,7 @@
         <v>102</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>103</v>
@@ -1462,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>15</v>
@@ -1476,7 +1488,7 @@
         <v>16</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>17</v>
@@ -1487,16 +1499,16 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1504,7 +1516,7 @@
         <v>18</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>19</v>
@@ -1518,7 +1530,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>19</v>
@@ -1529,10 +1541,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>19</v>
@@ -1546,7 +1558,7 @@
         <v>21</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>22</v>
@@ -1560,7 +1572,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>24</v>
@@ -1574,7 +1586,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>26</v>
@@ -1588,7 +1600,7 @@
         <v>110</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>111</v>
@@ -1599,24 +1611,24 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>111</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>27</v>
@@ -1630,7 +1642,7 @@
         <v>104</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>27</v>
@@ -1641,13 +1653,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D33" s="6">
         <v>1</v>
@@ -1655,10 +1667,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>28</v>
@@ -1669,13 +1681,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D35" s="4">
         <v>1160</v>
@@ -1686,7 +1698,7 @@
         <v>29</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>30</v>
@@ -1697,13 +1709,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D37" s="4">
         <v>1176</v>
@@ -1711,13 +1723,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D38" s="4">
         <v>1177</v>
@@ -1725,13 +1737,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D39" s="4">
         <v>1178</v>
@@ -1739,13 +1751,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D40" s="4">
         <v>1179</v>
@@ -1756,7 +1768,7 @@
         <v>31</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>32</v>
@@ -1767,16 +1779,16 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1784,21 +1796,21 @@
         <v>33</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>35</v>
@@ -1812,7 +1824,7 @@
         <v>36</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>37</v>
@@ -1826,7 +1838,7 @@
         <v>38</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>39</v>
@@ -1840,7 +1852,7 @@
         <v>40</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>39</v>
@@ -1854,7 +1866,7 @@
         <v>41</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>39</v>
@@ -1868,7 +1880,7 @@
         <v>42</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>39</v>
@@ -1879,27 +1891,27 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D51" s="4">
         <v>750</v>
@@ -1910,7 +1922,7 @@
         <v>105</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>106</v>
@@ -1924,7 +1936,7 @@
         <v>43</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>44</v>
@@ -1938,7 +1950,7 @@
         <v>45</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>44</v>
@@ -1949,27 +1961,27 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D56" s="4">
         <v>1</v>
@@ -1977,10 +1989,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>46</v>
@@ -1994,7 +2006,7 @@
         <v>47</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>48</v>
@@ -2008,7 +2020,7 @@
         <v>49</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>50</v>
@@ -2022,7 +2034,7 @@
         <v>51</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>52</v>
@@ -2036,7 +2048,7 @@
         <v>112</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>113</v>
@@ -2047,16 +2059,16 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D62" s="4">
-        <v>1163</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -2064,7 +2076,7 @@
         <v>53</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>54</v>
@@ -2078,7 +2090,7 @@
         <v>55</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>56</v>
@@ -2089,10 +2101,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>57</v>
@@ -2103,10 +2115,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>57</v>
@@ -2120,7 +2132,7 @@
         <v>58</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>59</v>
@@ -2134,7 +2146,7 @@
         <v>60</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>61</v>
@@ -2145,13 +2157,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D69" s="4">
         <v>33</v>
@@ -2159,13 +2171,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D70" s="4">
         <v>33</v>
@@ -2173,13 +2185,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D71" s="4">
         <v>32</v>
@@ -2187,13 +2199,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D72" s="4">
         <v>33</v>
@@ -2201,13 +2213,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D73" s="4">
         <v>32</v>
@@ -2215,13 +2227,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D74" s="4">
         <v>31</v>
@@ -2232,7 +2244,7 @@
         <v>62</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>63</v>
@@ -2243,38 +2255,38 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>63</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>63</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>64</v>
@@ -2285,27 +2297,27 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D80" s="4">
         <v>1172</v>
@@ -2313,13 +2325,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D81" s="4">
         <v>1173</v>
@@ -2327,13 +2339,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D82" s="4">
         <v>1174</v>
@@ -2344,7 +2356,7 @@
         <v>65</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>66</v>
@@ -2355,24 +2367,24 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D84" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>67</v>
@@ -2383,13 +2395,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D86" s="4">
         <v>1167</v>
@@ -2400,7 +2412,7 @@
         <v>68</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>69</v>
@@ -2414,7 +2426,7 @@
         <v>70</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>69</v>
@@ -2428,7 +2440,7 @@
         <v>71</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>72</v>
@@ -2439,10 +2451,10 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>73</v>
@@ -2456,7 +2468,7 @@
         <v>74</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>75</v>
@@ -2470,7 +2482,7 @@
         <v>76</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>75</v>
@@ -2481,24 +2493,24 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>77</v>
@@ -2509,10 +2521,10 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>77</v>
@@ -2526,7 +2538,7 @@
         <v>80</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>79</v>
@@ -2540,7 +2552,7 @@
         <v>78</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>79</v>
@@ -2551,16 +2563,16 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -2568,7 +2580,7 @@
         <v>81</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>82</v>
@@ -2579,16 +2591,16 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -2596,7 +2608,7 @@
         <v>83</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>84</v>
@@ -2607,13 +2619,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D102" s="4">
         <v>884</v>
@@ -2624,7 +2636,7 @@
         <v>85</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>86</v>
@@ -2638,7 +2650,7 @@
         <v>87</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>88</v>
@@ -2649,27 +2661,27 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C105" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B105" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="D105" s="4">
-        <v>918</v>
+        <v>986</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D106" s="4">
         <v>437</v>
@@ -2677,13 +2689,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D107" s="4">
         <v>449</v>
@@ -2694,7 +2706,7 @@
         <v>89</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>90</v>
@@ -2708,7 +2720,7 @@
         <v>91</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>90</v>
@@ -2722,7 +2734,7 @@
         <v>92</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>90</v>
@@ -2733,10 +2745,10 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>93</v>
@@ -2750,7 +2762,7 @@
         <v>94</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>93</v>
@@ -2764,7 +2776,7 @@
         <v>95</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>93</v>
@@ -2775,13 +2787,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D114" s="4">
         <v>1</v>
@@ -2792,7 +2804,7 @@
         <v>96</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>97</v>
@@ -2803,116 +2815,112 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>156</v>
+        <v>230</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D118" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
+      </c>
+      <c r="D118" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>116</v>
+        <v>156</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D119" s="4">
-        <v>1</v>
+        <v>157</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C120" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="D120" s="4" t="s">
-        <v>160</v>
+      <c r="D120" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>180</v>
+        <v>98</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>161</v>
+        <v>99</v>
       </c>
       <c r="D121" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D122" s="4">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D121" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D122">
-      <sortCondition ref="A1:A121"/>
+  <autoFilter ref="A1:D120" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D121">
+      <sortCondition ref="A1:A120"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="34">
+    <cfRule type="expression" dxfId="3" priority="39">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D122">
+  <conditionalFormatting sqref="A2:D104 B105:D105 A119:D121 B118:D118 A106:D117">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A105">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A105))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A118">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
+      <formula>LEN(TRIM(A118))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/MA_ssoservi_cservico_csala.xlsx
+++ b/pages/MA_ssoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6D0C5B-BEDF-4598-B62A-25D1A8C59D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E7B530-141B-4093-8A52-40BA60C83401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{149F6C8A-4ABB-45E4-B310-DA53D82C00F6}"/>
   </bookViews>
@@ -233,9 +233,6 @@
     <t>S020101</t>
   </si>
   <si>
-    <t>S010032</t>
-  </si>
-  <si>
     <t>MOUSE - USB</t>
   </si>
   <si>
@@ -674,9 +671,6 @@
     <t>FLANELA - 29cm X 49cm - 29cm X 49cm</t>
   </si>
   <si>
-    <t>MASCARA DESCARTAVEL - UNICA</t>
-  </si>
-  <si>
     <t>PANO DE PRATO - 50X75CM</t>
   </si>
   <si>
@@ -732,6 +726,12 @@
   </si>
   <si>
     <t>TIRA P/ TESTE DE GLICEMIA - UNICA</t>
+  </si>
+  <si>
+    <t>MASCARA DESCARTAVEL - TNT</t>
+  </si>
+  <si>
+    <t>S080026</t>
   </si>
 </sst>
 </file>
@@ -839,16 +839,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1191,8 +1182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
   <dimension ref="A1:D121"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="A117" sqref="A117:XFD117"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1208,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1219,13 +1210,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1233,27 +1224,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>182</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>192</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>193</v>
       </c>
       <c r="D4" s="4">
         <v>105</v>
@@ -1261,13 +1252,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D5" s="6">
         <v>0.5</v>
@@ -1275,10 +1266,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>3</v>
@@ -1292,7 +1283,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>5</v>
@@ -1303,13 +1294,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="D8" s="4">
         <v>53</v>
@@ -1317,27 +1308,27 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D10" s="4">
         <v>1208</v>
@@ -1345,27 +1336,27 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D12" s="4">
         <v>831</v>
@@ -1376,7 +1367,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>7</v>
@@ -1387,10 +1378,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>8</v>
@@ -1401,10 +1392,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>8</v>
@@ -1418,7 +1409,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>10</v>
@@ -1432,7 +1423,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>12</v>
@@ -1446,7 +1437,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>12</v>
@@ -1457,13 +1448,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="D19" s="4">
         <v>58</v>
@@ -1474,7 +1465,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>15</v>
@@ -1488,7 +1479,7 @@
         <v>16</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>17</v>
@@ -1499,16 +1490,16 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>124</v>
-      </c>
       <c r="D22" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1516,7 +1507,7 @@
         <v>18</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>19</v>
@@ -1530,7 +1521,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>19</v>
@@ -1541,10 +1532,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>19</v>
@@ -1558,7 +1549,7 @@
         <v>21</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>22</v>
@@ -1572,7 +1563,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>24</v>
@@ -1586,7 +1577,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>26</v>
@@ -1597,13 +1588,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="D29" s="4">
         <v>904</v>
@@ -1611,24 +1602,24 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>27</v>
@@ -1639,10 +1630,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>27</v>
@@ -1653,13 +1644,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>189</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>190</v>
       </c>
       <c r="D33" s="6">
         <v>1</v>
@@ -1667,10 +1658,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>28</v>
@@ -1681,13 +1672,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D35" s="4">
         <v>1160</v>
@@ -1698,7 +1689,7 @@
         <v>29</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>30</v>
@@ -1709,13 +1700,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D37" s="4">
         <v>1176</v>
@@ -1723,13 +1714,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D38" s="4">
         <v>1177</v>
@@ -1737,13 +1728,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D39" s="4">
         <v>1178</v>
@@ -1751,13 +1742,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D40" s="4">
         <v>1179</v>
@@ -1768,7 +1759,7 @@
         <v>31</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>32</v>
@@ -1779,16 +1770,16 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C42" s="4" t="s">
+      <c r="D42" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1796,21 +1787,21 @@
         <v>33</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>35</v>
@@ -1824,7 +1815,7 @@
         <v>36</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>37</v>
@@ -1838,7 +1829,7 @@
         <v>38</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>39</v>
@@ -1852,7 +1843,7 @@
         <v>40</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>39</v>
@@ -1866,7 +1857,7 @@
         <v>41</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>39</v>
@@ -1880,7 +1871,7 @@
         <v>42</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>39</v>
@@ -1891,27 +1882,27 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>186</v>
-      </c>
       <c r="D50" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>196</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>197</v>
       </c>
       <c r="D51" s="4">
         <v>750</v>
@@ -1919,13 +1910,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="D52" s="4">
         <v>471</v>
@@ -1936,7 +1927,7 @@
         <v>43</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>44</v>
@@ -1950,7 +1941,7 @@
         <v>45</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>44</v>
@@ -1961,27 +1952,27 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>133</v>
-      </c>
       <c r="D55" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>179</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>180</v>
       </c>
       <c r="D56" s="4">
         <v>1</v>
@@ -1989,10 +1980,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>46</v>
@@ -2006,7 +1997,7 @@
         <v>47</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>48</v>
@@ -2020,7 +2011,7 @@
         <v>49</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>50</v>
@@ -2034,7 +2025,7 @@
         <v>51</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>52</v>
@@ -2045,13 +2036,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="D61" s="4">
         <v>1</v>
@@ -2059,13 +2050,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>199</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>200</v>
       </c>
       <c r="D62" s="4">
         <v>1164</v>
@@ -2076,7 +2067,7 @@
         <v>53</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>54</v>
@@ -2090,7 +2081,7 @@
         <v>55</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>56</v>
@@ -2101,10 +2092,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>57</v>
@@ -2115,10 +2106,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>57</v>
@@ -2132,7 +2123,7 @@
         <v>58</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>59</v>
@@ -2146,7 +2137,7 @@
         <v>60</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>61</v>
@@ -2157,13 +2148,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D69" s="4">
         <v>33</v>
@@ -2171,13 +2162,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D70" s="4">
         <v>33</v>
@@ -2185,13 +2176,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D71" s="4">
         <v>32</v>
@@ -2199,13 +2190,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D72" s="4">
         <v>33</v>
@@ -2213,13 +2204,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D73" s="4">
         <v>32</v>
@@ -2227,13 +2218,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D74" s="4">
         <v>31</v>
@@ -2244,7 +2235,7 @@
         <v>62</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>63</v>
@@ -2255,69 +2246,69 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>63</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>63</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>64</v>
+        <v>230</v>
       </c>
       <c r="D78" s="4">
-        <v>1</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B79" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>188</v>
-      </c>
       <c r="D79" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D80" s="4">
         <v>1172</v>
@@ -2325,13 +2316,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D81" s="4">
         <v>1173</v>
@@ -2339,13 +2330,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D82" s="4">
         <v>1174</v>
@@ -2353,13 +2344,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="D83" s="4">
         <v>211</v>
@@ -2367,41 +2358,41 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B84" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C84" s="4" t="s">
+      <c r="D84" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D85" s="4">
-        <v>1166</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D86" s="4">
         <v>1167</v>
@@ -2409,13 +2400,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="D87" s="4">
         <v>820</v>
@@ -2423,13 +2414,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D88" s="4">
         <v>819</v>
@@ -2437,13 +2428,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="D89" s="4">
         <v>553</v>
@@ -2451,13 +2442,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D90" s="4">
         <v>72</v>
@@ -2465,13 +2456,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="D91" s="4">
         <v>86</v>
@@ -2479,13 +2470,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D92" s="4">
         <v>87</v>
@@ -2493,27 +2484,27 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D93" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D94" s="4">
         <v>55</v>
@@ -2521,13 +2512,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D95" s="4">
         <v>54</v>
@@ -2535,13 +2526,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D96" s="4">
         <v>994</v>
@@ -2549,13 +2540,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="D97" s="4">
         <v>695</v>
@@ -2563,27 +2554,27 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B98" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>148</v>
-      </c>
       <c r="D98" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C99" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="D99" s="4">
         <v>1</v>
@@ -2591,27 +2582,27 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C100" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B100" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>150</v>
-      </c>
       <c r="D100" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="D101" s="4">
         <v>1</v>
@@ -2619,13 +2610,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D102" s="4">
         <v>884</v>
@@ -2633,13 +2624,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C103" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="D103" s="4">
         <v>53</v>
@@ -2647,13 +2638,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C104" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="D104" s="4">
         <v>107</v>
@@ -2661,13 +2652,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D105" s="4">
         <v>986</v>
@@ -2675,13 +2666,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D106" s="4">
         <v>437</v>
@@ -2689,13 +2680,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D107" s="4">
         <v>449</v>
@@ -2703,13 +2694,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C108" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="D108" s="4">
         <v>170</v>
@@ -2717,13 +2708,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D109" s="4">
         <v>163</v>
@@ -2731,13 +2722,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D110" s="4">
         <v>799</v>
@@ -2745,13 +2736,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D111" s="4">
         <v>1127</v>
@@ -2759,13 +2750,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D112" s="4">
         <v>569</v>
@@ -2773,13 +2764,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D113" s="4">
         <v>762</v>
@@ -2787,13 +2778,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C114" s="4" t="s">
         <v>194</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>195</v>
       </c>
       <c r="D114" s="4">
         <v>1</v>
@@ -2801,13 +2792,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C115" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="D115" s="4">
         <v>211</v>
@@ -2815,41 +2806,41 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C116" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B116" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>152</v>
-      </c>
       <c r="D116" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C117" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B117" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>155</v>
-      </c>
       <c r="D117" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D118" s="4">
         <v>1</v>
@@ -2857,27 +2848,27 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C119" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B119" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C119" s="4" t="s">
+      <c r="D119" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="D119" s="4" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D120" s="4">
         <v>1</v>
@@ -2885,13 +2876,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C121" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="D121" s="4">
         <v>1</v>
@@ -2904,23 +2895,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="3" priority="39">
+    <cfRule type="expression" dxfId="2" priority="40">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D104 B105:D105 A119:D121 B118:D118 A106:D117">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+  <conditionalFormatting sqref="A2:D77 A79:D121">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A105">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(A105))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A118">
+  <conditionalFormatting sqref="A78:D78">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A118))&gt;0</formula>
+      <formula>LEN(TRIM(A78))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/MA_ssoservi_cservico_csala.xlsx
+++ b/pages/MA_ssoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E7B530-141B-4093-8A52-40BA60C83401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33CF0A9-EAD5-42FE-953F-690AA4ECD8DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{149F6C8A-4ABB-45E4-B310-DA53D82C00F6}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$120</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$118</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="227">
   <si>
     <t>Complemento</t>
   </si>
@@ -53,12 +53,6 @@
     <t>S010004</t>
   </si>
   <si>
-    <t>ALCOOL GEL - 500 ML</t>
-  </si>
-  <si>
-    <t>S010061</t>
-  </si>
-  <si>
     <t>BOBINA IMPRESSORA FISCAL PADRONIZADO - 80x40M</t>
   </si>
   <si>
@@ -525,12 +519,6 @@
   </si>
   <si>
     <t>S010087</t>
-  </si>
-  <si>
-    <t>S030006</t>
-  </si>
-  <si>
-    <t>BISCOITO - ROSQUINHA</t>
   </si>
   <si>
     <t>S010046</t>
@@ -839,16 +827,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1180,10 +1159,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
-  <dimension ref="A1:D121"/>
+  <dimension ref="A1:D119"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1199,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1210,13 +1189,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1224,27 +1203,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D4" s="4">
         <v>105</v>
@@ -1252,13 +1231,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D5" s="6">
         <v>0.5</v>
@@ -1266,10 +1245,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>3</v>
@@ -1280,128 +1259,128 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="D7" s="4">
-        <v>103</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D8" s="4">
-        <v>53</v>
+        <v>114</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>115</v>
+        <v>221</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>117</v>
+        <v>222</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1208</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>225</v>
+        <v>117</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="D10" s="4">
-        <v>1208</v>
+        <v>118</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>119</v>
+        <v>4</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>121</v>
+        <v>5</v>
+      </c>
+      <c r="D11" s="4">
+        <v>809</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>162</v>
+        <v>6</v>
       </c>
       <c r="D12" s="4">
-        <v>831</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="D13" s="4">
-        <v>809</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>160</v>
+        <v>7</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="4">
-        <v>1046</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D15" s="4">
-        <v>1045</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1409,69 +1388,69 @@
         <v>9</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="4">
-        <v>103</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="D17" s="4">
-        <v>33</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D18" s="4">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="D19" s="4">
-        <v>58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="4">
-        <v>20</v>
+        <v>121</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1479,279 +1458,279 @@
         <v>16</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D21" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>118</v>
+        <v>17</v>
+      </c>
+      <c r="D22" s="4">
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>18</v>
+        <v>179</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D23" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="D24" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>183</v>
+        <v>21</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D25" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D26" s="4">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="D27" s="4">
-        <v>1</v>
+        <v>904</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>25</v>
+        <v>122</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="4">
-        <v>52</v>
+        <v>108</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="4">
         <v>109</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D29" s="4">
-        <v>904</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>125</v>
+        <v>25</v>
+      </c>
+      <c r="D30" s="4">
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>126</v>
+        <v>184</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" s="4">
-        <v>109</v>
+        <v>185</v>
+      </c>
+      <c r="D31" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D32" s="4">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="D33" s="6">
-        <v>1</v>
+        <v>186</v>
+      </c>
+      <c r="D33" s="4">
+        <v>1160</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D34" s="4">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="D35" s="4">
-        <v>1160</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>29</v>
+        <v>199</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>30</v>
+        <v>159</v>
       </c>
       <c r="D36" s="4">
-        <v>103</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D37" s="4">
-        <v>1176</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D38" s="4">
-        <v>1177</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>204</v>
+        <v>29</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>161</v>
+        <v>30</v>
       </c>
       <c r="D39" s="4">
-        <v>1178</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>205</v>
+        <v>126</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D40" s="4">
-        <v>1179</v>
+        <v>127</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1759,83 +1738,83 @@
         <v>31</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D41" s="4">
-        <v>1</v>
+      <c r="D41" s="4" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>128</v>
+        <v>193</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>130</v>
+        <v>33</v>
+      </c>
+      <c r="D42" s="4">
+        <v>1162</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>118</v>
+        <v>35</v>
+      </c>
+      <c r="D43" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>197</v>
+        <v>36</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D44" s="4">
-        <v>1162</v>
+        <v>899</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="4">
-        <v>1</v>
+        <v>896</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D46" s="4">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1843,329 +1822,329 @@
         <v>40</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D47" s="4">
-        <v>896</v>
+        <v>898</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>41</v>
+        <v>180</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D48" s="4">
-        <v>900</v>
+        <v>181</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>42</v>
+        <v>191</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>39</v>
+        <v>192</v>
       </c>
       <c r="D49" s="4">
-        <v>898</v>
+        <v>750</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>184</v>
+        <v>102</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>118</v>
+        <v>103</v>
+      </c>
+      <c r="D50" s="4">
+        <v>471</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>195</v>
+        <v>41</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>196</v>
+        <v>42</v>
       </c>
       <c r="D51" s="4">
-        <v>750</v>
+        <v>166</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="D52" s="4">
-        <v>471</v>
+        <v>167</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>43</v>
+        <v>129</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D53" s="4">
-        <v>166</v>
+        <v>130</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>45</v>
+        <v>174</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>44</v>
+        <v>175</v>
       </c>
       <c r="D54" s="4">
-        <v>167</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>131</v>
+        <v>205</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>118</v>
+        <v>44</v>
+      </c>
+      <c r="D55" s="4">
+        <v>448</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>178</v>
+        <v>45</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>179</v>
+        <v>46</v>
       </c>
       <c r="D56" s="4">
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>209</v>
+        <v>47</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D57" s="4">
-        <v>448</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D58" s="4">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="D59" s="4">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>51</v>
+        <v>194</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>52</v>
+        <v>195</v>
       </c>
       <c r="D60" s="4">
-        <v>1</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="D61" s="4">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>198</v>
+        <v>53</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>199</v>
+        <v>54</v>
       </c>
       <c r="D62" s="4">
-        <v>1164</v>
+        <v>103</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>53</v>
+        <v>202</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D63" s="4">
-        <v>40</v>
+        <v>103</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="D64" s="4">
-        <v>103</v>
+        <v>910</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>206</v>
+        <v>56</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D65" s="4">
-        <v>103</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>207</v>
+        <v>58</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D66" s="4">
-        <v>910</v>
+        <v>745</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>58</v>
+        <v>213</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>59</v>
+        <v>214</v>
       </c>
       <c r="D67" s="4">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>60</v>
+        <v>215</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>61</v>
+        <v>214</v>
       </c>
       <c r="D68" s="4">
-        <v>745</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D69" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>218</v>
@@ -2176,10 +2155,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>218</v>
@@ -2190,366 +2169,366 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D72" s="4">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>223</v>
+        <v>60</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>222</v>
+        <v>61</v>
       </c>
       <c r="D73" s="4">
-        <v>32</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>224</v>
+        <v>131</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="D74" s="4">
-        <v>31</v>
+        <v>61</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>62</v>
+        <v>133</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D75" s="4">
-        <v>2</v>
+        <v>61</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>133</v>
+        <v>225</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>134</v>
+        <v>226</v>
+      </c>
+      <c r="D76" s="4">
+        <v>1181</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>135</v>
+        <v>182</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>63</v>
+        <v>183</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="D78" s="4">
-        <v>1181</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>118</v>
+        <v>208</v>
+      </c>
+      <c r="D79" s="4">
+        <v>1173</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D80" s="4">
-        <v>1172</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>213</v>
+        <v>62</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>212</v>
+        <v>63</v>
       </c>
       <c r="D81" s="4">
-        <v>1173</v>
+        <v>211</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>214</v>
+        <v>135</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="D82" s="4">
-        <v>1174</v>
+        <v>136</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B83" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="D83" s="4">
-        <v>211</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>137</v>
+        <v>206</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D84" s="4" t="s">
-        <v>139</v>
+      <c r="D84" s="4">
+        <v>1167</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>66</v>
       </c>
       <c r="D85" s="4">
-        <v>1167</v>
+        <v>820</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>210</v>
+        <v>67</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>140</v>
+        <v>66</v>
       </c>
       <c r="D86" s="4">
-        <v>1167</v>
+        <v>819</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D87" s="4">
-        <v>820</v>
+        <v>553</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>69</v>
+        <v>139</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D88" s="4">
-        <v>819</v>
+        <v>72</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D89" s="4">
-        <v>553</v>
+        <v>86</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>72</v>
       </c>
       <c r="D90" s="4">
-        <v>72</v>
+        <v>87</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>73</v>
+        <v>140</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D91" s="4">
-        <v>86</v>
+        <v>72</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>74</v>
       </c>
       <c r="D92" s="4">
-        <v>87</v>
+        <v>55</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D93" s="4" t="s">
-        <v>143</v>
+      <c r="D93" s="4">
+        <v>54</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D94" s="4">
-        <v>55</v>
+        <v>994</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>145</v>
+        <v>75</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D95" s="4">
-        <v>54</v>
+        <v>695</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D96" s="4">
-        <v>994</v>
+        <v>145</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D97" s="4">
-        <v>695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -2557,13 +2536,13 @@
         <v>146</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>147</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -2571,7 +2550,7 @@
         <v>80</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>81</v>
@@ -2582,16 +2561,16 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>118</v>
+        <v>160</v>
+      </c>
+      <c r="D100" s="4">
+        <v>884</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -2599,125 +2578,125 @@
         <v>82</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>83</v>
       </c>
       <c r="D101" s="4">
-        <v>1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>165</v>
+        <v>84</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>164</v>
+        <v>85</v>
       </c>
       <c r="D102" s="4">
-        <v>884</v>
+        <v>107</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>84</v>
+        <v>223</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="D103" s="4">
-        <v>53</v>
+        <v>986</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>86</v>
+        <v>212</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>87</v>
+        <v>162</v>
       </c>
       <c r="D104" s="4">
-        <v>107</v>
+        <v>437</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>227</v>
+        <v>164</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>113</v>
+        <v>163</v>
       </c>
       <c r="D105" s="4">
-        <v>986</v>
+        <v>449</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>216</v>
+        <v>86</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>166</v>
+        <v>87</v>
       </c>
       <c r="D106" s="4">
-        <v>437</v>
+        <v>170</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>168</v>
+        <v>88</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>167</v>
+        <v>87</v>
       </c>
       <c r="D107" s="4">
-        <v>449</v>
+        <v>163</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D108" s="4">
-        <v>170</v>
+        <v>799</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C109" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B109" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="D109" s="4">
-        <v>163</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -2725,97 +2704,97 @@
         <v>91</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D110" s="4">
-        <v>799</v>
+        <v>569</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>152</v>
+        <v>92</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D111" s="4">
-        <v>1127</v>
+        <v>762</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>93</v>
+        <v>189</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>92</v>
+        <v>190</v>
       </c>
       <c r="D112" s="4">
-        <v>569</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C113" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B113" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>92</v>
-      </c>
       <c r="D113" s="4">
-        <v>762</v>
+        <v>211</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="D114" s="4">
-        <v>1</v>
+        <v>149</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>95</v>
+        <v>151</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D115" s="4">
-        <v>211</v>
+        <v>152</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>150</v>
+        <v>224</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D116" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
+      </c>
+      <c r="D116" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -2829,18 +2808,18 @@
         <v>154</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>228</v>
+        <v>173</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>114</v>
+        <v>156</v>
       </c>
       <c r="D118" s="4">
         <v>1</v>
@@ -2848,65 +2827,32 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>155</v>
+        <v>95</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D119" s="4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D120" s="4">
+        <v>96</v>
+      </c>
+      <c r="D119" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D121" s="4">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D120" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D121">
-      <sortCondition ref="A1:A120"/>
+  <autoFilter ref="A1:D118" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D119">
+      <sortCondition ref="A1:A118"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="40">
+    <cfRule type="expression" dxfId="1" priority="40">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D77 A79:D121">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D119">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A78:D78">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A78))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/MA_ssoservi_cservico_csala.xlsx
+++ b/pages/MA_ssoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33CF0A9-EAD5-42FE-953F-690AA4ECD8DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA85E42-C75C-461F-8963-69F26A45CB8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{149F6C8A-4ABB-45E4-B310-DA53D82C00F6}"/>
   </bookViews>
@@ -650,9 +650,6 @@
     <t>LIMPADOR MULTIUSO - 500ML - 500ML</t>
   </si>
   <si>
-    <t>LIMPADOR MULTIUSO - CIF</t>
-  </si>
-  <si>
     <t>ALCOOL LIQUIDO 70º - 1000ML - 1000ML</t>
   </si>
   <si>
@@ -720,6 +717,9 @@
   </si>
   <si>
     <t>S080026</t>
+  </si>
+  <si>
+    <t>LIMPADOR MULTIUSO - CIF LIQUIDO</t>
   </si>
 </sst>
 </file>
@@ -827,7 +827,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1161,8 +1170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
   <dimension ref="A1:D119"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64:D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1231,7 +1240,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>167</v>
@@ -1245,7 +1254,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>166</v>
@@ -1287,13 +1296,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D9" s="4">
         <v>1208</v>
@@ -1931,7 +1940,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>166</v>
@@ -2057,7 +2066,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>166</v>
@@ -2066,7 +2075,7 @@
         <v>55</v>
       </c>
       <c r="D64" s="4">
-        <v>910</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -2099,13 +2108,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>213</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>214</v>
       </c>
       <c r="D67" s="4">
         <v>33</v>
@@ -2113,13 +2122,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>166</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D68" s="4">
         <v>33</v>
@@ -2127,13 +2136,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>166</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D69" s="4">
         <v>32</v>
@@ -2141,13 +2150,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>217</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>218</v>
       </c>
       <c r="D70" s="4">
         <v>33</v>
@@ -2155,13 +2164,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>166</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D71" s="4">
         <v>32</v>
@@ -2169,13 +2178,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>166</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D72" s="4">
         <v>31</v>
@@ -2225,13 +2234,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>167</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D76" s="4">
         <v>1181</v>
@@ -2253,13 +2262,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>207</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>208</v>
       </c>
       <c r="D78" s="4">
         <v>1172</v>
@@ -2267,13 +2276,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>166</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D79" s="4">
         <v>1173</v>
@@ -2281,13 +2290,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>166</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D80" s="4">
         <v>1174</v>
@@ -2337,7 +2346,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>166</v>
@@ -2603,7 +2612,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>168</v>
@@ -2617,7 +2626,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>168</v>
@@ -2785,7 +2794,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>167</v>
@@ -2846,13 +2855,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="40">
+    <cfRule type="expression" dxfId="2" priority="41">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D119">
+  <conditionalFormatting sqref="A2:D63 A65:D119">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64:D64">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
+      <formula>LEN(TRIM(A64))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/MA_ssoservi_cservico_csala.xlsx
+++ b/pages/MA_ssoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA85E42-C75C-461F-8963-69F26A45CB8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4BA5E2-D2D9-4021-9C67-0BED1900E532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{149F6C8A-4ABB-45E4-B310-DA53D82C00F6}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$118</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$116</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="224">
   <si>
     <t>Complemento</t>
   </si>
@@ -260,9 +260,6 @@
     <t>S020025</t>
   </si>
   <si>
-    <t>PASTA PLASTICA C/ ELASTICO - 30MM</t>
-  </si>
-  <si>
     <t>S200035</t>
   </si>
   <si>
@@ -459,12 +456,6 @@
   </si>
   <si>
     <t>PAPEL TOALHA INTERFOLHADO - 1000 FLS</t>
-  </si>
-  <si>
-    <t>PASTA PLASTICA C/ ELASTICO - 55MM</t>
-  </si>
-  <si>
-    <t>88</t>
   </si>
   <si>
     <t>PILHA - AA</t>
@@ -827,16 +818,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1168,10 +1150,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
-  <dimension ref="A1:D119"/>
+  <dimension ref="A1:D117"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64:D64"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90:XFD90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1187,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1198,13 +1180,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1212,27 +1194,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D4" s="4">
         <v>105</v>
@@ -1240,13 +1222,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D5" s="6">
         <v>0.5</v>
@@ -1254,10 +1236,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>3</v>
@@ -1268,13 +1250,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="D7" s="4">
         <v>53</v>
@@ -1282,27 +1264,27 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D9" s="4">
         <v>1208</v>
@@ -1310,16 +1292,16 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1327,7 +1309,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>5</v>
@@ -1338,10 +1320,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>6</v>
@@ -1352,10 +1334,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>6</v>
@@ -1369,7 +1351,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>8</v>
@@ -1383,7 +1365,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>10</v>
@@ -1397,7 +1379,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>10</v>
@@ -1408,13 +1390,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="D17" s="4">
         <v>58</v>
@@ -1425,7 +1407,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>13</v>
@@ -1439,7 +1421,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>15</v>
@@ -1450,16 +1432,16 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>121</v>
-      </c>
       <c r="D20" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1467,7 +1449,7 @@
         <v>16</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>17</v>
@@ -1481,7 +1463,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>17</v>
@@ -1492,10 +1474,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>17</v>
@@ -1509,7 +1491,7 @@
         <v>19</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>20</v>
@@ -1523,7 +1505,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>22</v>
@@ -1537,7 +1519,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>24</v>
@@ -1548,13 +1530,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="D27" s="4">
         <v>904</v>
@@ -1562,24 +1544,24 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>25</v>
@@ -1590,10 +1572,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>25</v>
@@ -1604,13 +1586,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D31" s="6">
         <v>1</v>
@@ -1618,10 +1600,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>26</v>
@@ -1632,13 +1614,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D33" s="4">
         <v>1160</v>
@@ -1649,7 +1631,7 @@
         <v>27</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>28</v>
@@ -1660,13 +1642,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D35" s="4">
         <v>1176</v>
@@ -1674,13 +1656,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D36" s="4">
         <v>1177</v>
@@ -1688,13 +1670,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D37" s="4">
         <v>1178</v>
@@ -1702,13 +1684,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D38" s="4">
         <v>1179</v>
@@ -1719,7 +1701,7 @@
         <v>29</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>30</v>
@@ -1730,16 +1712,16 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C40" s="4" t="s">
+      <c r="D40" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1747,21 +1729,21 @@
         <v>31</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>33</v>
@@ -1775,7 +1757,7 @@
         <v>34</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>35</v>
@@ -1789,7 +1771,7 @@
         <v>36</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>37</v>
@@ -1803,7 +1785,7 @@
         <v>38</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>37</v>
@@ -1817,7 +1799,7 @@
         <v>39</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>37</v>
@@ -1831,7 +1813,7 @@
         <v>40</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>37</v>
@@ -1842,27 +1824,27 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D49" s="4">
         <v>750</v>
@@ -1870,13 +1852,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="D50" s="4">
         <v>471</v>
@@ -1887,7 +1869,7 @@
         <v>41</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>42</v>
@@ -1901,7 +1883,7 @@
         <v>43</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>42</v>
@@ -1912,27 +1894,27 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>130</v>
-      </c>
       <c r="D53" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D54" s="4">
         <v>1</v>
@@ -1940,10 +1922,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>44</v>
@@ -1957,7 +1939,7 @@
         <v>45</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>46</v>
@@ -1971,7 +1953,7 @@
         <v>47</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>48</v>
@@ -1985,7 +1967,7 @@
         <v>49</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>50</v>
@@ -1996,13 +1978,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="D59" s="4">
         <v>1</v>
@@ -2010,13 +1992,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D60" s="4">
         <v>1164</v>
@@ -2027,7 +2009,7 @@
         <v>51</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>52</v>
@@ -2041,7 +2023,7 @@
         <v>53</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>54</v>
@@ -2052,10 +2034,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>55</v>
@@ -2066,10 +2048,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>55</v>
@@ -2083,7 +2065,7 @@
         <v>56</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>57</v>
@@ -2097,7 +2079,7 @@
         <v>58</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>59</v>
@@ -2108,13 +2090,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D67" s="4">
         <v>33</v>
@@ -2122,13 +2104,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D68" s="4">
         <v>33</v>
@@ -2136,13 +2118,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D69" s="4">
         <v>32</v>
@@ -2150,13 +2132,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D70" s="4">
         <v>33</v>
@@ -2164,13 +2146,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D71" s="4">
         <v>32</v>
@@ -2178,13 +2160,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D72" s="4">
         <v>31</v>
@@ -2195,7 +2177,7 @@
         <v>60</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>61</v>
@@ -2206,41 +2188,41 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D76" s="4">
         <v>1181</v>
@@ -2248,27 +2230,27 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D78" s="4">
         <v>1172</v>
@@ -2276,13 +2258,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D79" s="4">
         <v>1173</v>
@@ -2290,13 +2272,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D80" s="4">
         <v>1174</v>
@@ -2307,7 +2289,7 @@
         <v>62</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>63</v>
@@ -2318,24 +2300,24 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B82" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C82" s="4" t="s">
+      <c r="D82" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>64</v>
@@ -2346,13 +2328,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D84" s="4">
         <v>1167</v>
@@ -2363,7 +2345,7 @@
         <v>65</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>66</v>
@@ -2377,7 +2359,7 @@
         <v>67</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>66</v>
@@ -2391,7 +2373,7 @@
         <v>68</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>69</v>
@@ -2402,10 +2384,10 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>70</v>
@@ -2419,7 +2401,7 @@
         <v>71</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>72</v>
@@ -2430,16 +2412,16 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B90" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>72</v>
-      </c>
       <c r="D90" s="4">
-        <v>87</v>
+        <v>55</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -2447,94 +2429,94 @@
         <v>140</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>141</v>
+        <v>73</v>
+      </c>
+      <c r="D91" s="4">
+        <v>54</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D92" s="4">
-        <v>55</v>
+        <v>994</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>143</v>
+        <v>74</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D93" s="4">
-        <v>54</v>
+        <v>695</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D94" s="4">
-        <v>994</v>
+        <v>142</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D95" s="4">
-        <v>695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B96" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>145</v>
-      </c>
       <c r="D96" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D97" s="4">
         <v>1</v>
@@ -2542,184 +2524,184 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>116</v>
+        <v>157</v>
+      </c>
+      <c r="D98" s="4">
+        <v>884</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D99" s="4">
-        <v>1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>161</v>
+        <v>83</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>160</v>
+        <v>84</v>
       </c>
       <c r="D100" s="4">
-        <v>884</v>
+        <v>107</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>82</v>
+        <v>219</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="D101" s="4">
-        <v>53</v>
+        <v>986</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>84</v>
+        <v>208</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>85</v>
+        <v>159</v>
       </c>
       <c r="D102" s="4">
-        <v>107</v>
+        <v>437</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>222</v>
+        <v>161</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="D103" s="4">
-        <v>986</v>
+        <v>449</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>211</v>
+        <v>85</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>162</v>
+        <v>86</v>
       </c>
       <c r="D104" s="4">
-        <v>437</v>
+        <v>170</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>164</v>
+        <v>87</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>163</v>
+        <v>86</v>
       </c>
       <c r="D105" s="4">
-        <v>449</v>
+        <v>163</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C106" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B106" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>87</v>
-      </c>
       <c r="D106" s="4">
-        <v>170</v>
+        <v>799</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>88</v>
+        <v>147</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D107" s="4">
-        <v>163</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C108" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B108" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>87</v>
-      </c>
       <c r="D108" s="4">
-        <v>799</v>
+        <v>569</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>150</v>
+        <v>91</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D109" s="4">
-        <v>1127</v>
+        <v>762</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>91</v>
+        <v>186</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>90</v>
+        <v>187</v>
       </c>
       <c r="D110" s="4">
-        <v>569</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -2727,80 +2709,80 @@
         <v>92</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D111" s="4">
-        <v>762</v>
+        <v>211</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>189</v>
+        <v>145</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="D112" s="4">
-        <v>1</v>
+        <v>146</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>93</v>
+        <v>148</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D113" s="4">
-        <v>211</v>
+        <v>149</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>148</v>
+        <v>220</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D114" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
+      </c>
+      <c r="D114" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C115" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B115" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C115" s="4" t="s">
+      <c r="D115" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="D115" s="4" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>223</v>
+        <v>170</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>112</v>
+        <v>153</v>
       </c>
       <c r="D116" s="4">
         <v>1</v>
@@ -2808,65 +2790,32 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D117" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D118" s="4">
+        <v>95</v>
+      </c>
+      <c r="D117" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D119" s="4">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D118" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D119">
-      <sortCondition ref="A1:A118"/>
+  <autoFilter ref="A1:D116" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D117">
+      <sortCondition ref="A1:A116"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="41">
+    <cfRule type="expression" dxfId="1" priority="41">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D63 A65:D119">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D117">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A64:D64">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A64))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/MA_ssoservi_cservico_csala.xlsx
+++ b/pages/MA_ssoservi_cservico_csala.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4BA5E2-D2D9-4021-9C67-0BED1900E532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F37E83-FD8E-4FB3-A6B0-0113B0E17CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{149F6C8A-4ABB-45E4-B310-DA53D82C00F6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{149F6C8A-4ABB-45E4-B310-DA53D82C00F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="223">
   <si>
     <t>Complemento</t>
   </si>
@@ -245,9 +245,6 @@
     <t>PAPEL A4 - BRANCO 500FLS - BRANCO 500FLS</t>
   </si>
   <si>
-    <t>PAPEL HIGIENICO - 300MT</t>
-  </si>
-  <si>
     <t>S010056</t>
   </si>
   <si>
@@ -539,9 +536,6 @@
     <t>PC</t>
   </si>
   <si>
-    <t>PC C/8</t>
-  </si>
-  <si>
     <t>PC C/100</t>
   </si>
   <si>
@@ -711,6 +705,9 @@
   </si>
   <si>
     <t>LIMPADOR MULTIUSO - CIF LIQUIDO</t>
+  </si>
+  <si>
+    <t>PAPEL HIGIENICO - 300MT PC C/8</t>
   </si>
 </sst>
 </file>
@@ -818,7 +815,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1153,7 +1159,7 @@
   <dimension ref="A1:D117"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A90" sqref="A90:XFD90"/>
+      <selection activeCell="A87" sqref="A87:D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1169,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1180,13 +1186,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1194,27 +1200,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D4" s="4">
         <v>105</v>
@@ -1222,13 +1228,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D5" s="6">
         <v>0.5</v>
@@ -1236,10 +1242,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>3</v>
@@ -1250,13 +1256,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="D7" s="4">
         <v>53</v>
@@ -1264,27 +1270,27 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D9" s="4">
         <v>1208</v>
@@ -1292,16 +1298,16 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1309,7 +1315,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>5</v>
@@ -1320,10 +1326,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>6</v>
@@ -1334,10 +1340,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>6</v>
@@ -1351,7 +1357,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>8</v>
@@ -1365,7 +1371,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>10</v>
@@ -1379,7 +1385,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>10</v>
@@ -1390,13 +1396,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="D17" s="4">
         <v>58</v>
@@ -1407,7 +1413,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>13</v>
@@ -1421,7 +1427,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>15</v>
@@ -1432,16 +1438,16 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>120</v>
-      </c>
       <c r="D20" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1449,7 +1455,7 @@
         <v>16</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>17</v>
@@ -1463,7 +1469,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>17</v>
@@ -1474,10 +1480,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>17</v>
@@ -1491,7 +1497,7 @@
         <v>19</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>20</v>
@@ -1505,7 +1511,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>22</v>
@@ -1519,7 +1525,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>24</v>
@@ -1530,13 +1536,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="D27" s="4">
         <v>904</v>
@@ -1544,24 +1550,24 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>25</v>
@@ -1572,10 +1578,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>25</v>
@@ -1586,13 +1592,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D31" s="6">
         <v>1</v>
@@ -1600,10 +1606,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>26</v>
@@ -1614,13 +1620,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D33" s="4">
         <v>1160</v>
@@ -1631,7 +1637,7 @@
         <v>27</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>28</v>
@@ -1642,13 +1648,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D35" s="4">
         <v>1176</v>
@@ -1656,13 +1662,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D36" s="4">
         <v>1177</v>
@@ -1670,13 +1676,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D37" s="4">
         <v>1178</v>
@@ -1684,13 +1690,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D38" s="4">
         <v>1179</v>
@@ -1701,7 +1707,7 @@
         <v>29</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>30</v>
@@ -1712,16 +1718,16 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C40" s="4" t="s">
+      <c r="D40" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1729,21 +1735,21 @@
         <v>31</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>33</v>
@@ -1757,7 +1763,7 @@
         <v>34</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>35</v>
@@ -1771,7 +1777,7 @@
         <v>36</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>37</v>
@@ -1785,7 +1791,7 @@
         <v>38</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>37</v>
@@ -1799,7 +1805,7 @@
         <v>39</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>37</v>
@@ -1813,7 +1819,7 @@
         <v>40</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>37</v>
@@ -1824,27 +1830,27 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D49" s="4">
         <v>750</v>
@@ -1852,13 +1858,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="D50" s="4">
         <v>471</v>
@@ -1869,7 +1875,7 @@
         <v>41</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>42</v>
@@ -1883,7 +1889,7 @@
         <v>43</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>42</v>
@@ -1894,27 +1900,27 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>129</v>
-      </c>
       <c r="D53" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D54" s="4">
         <v>1</v>
@@ -1922,10 +1928,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>44</v>
@@ -1939,7 +1945,7 @@
         <v>45</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>46</v>
@@ -1953,7 +1959,7 @@
         <v>47</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>48</v>
@@ -1967,7 +1973,7 @@
         <v>49</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>50</v>
@@ -1978,13 +1984,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="D59" s="4">
         <v>1</v>
@@ -1992,13 +1998,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D60" s="4">
         <v>1164</v>
@@ -2009,7 +2015,7 @@
         <v>51</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>52</v>
@@ -2023,7 +2029,7 @@
         <v>53</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>54</v>
@@ -2034,10 +2040,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>55</v>
@@ -2048,10 +2054,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>55</v>
@@ -2065,7 +2071,7 @@
         <v>56</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>57</v>
@@ -2079,7 +2085,7 @@
         <v>58</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>59</v>
@@ -2090,13 +2096,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D67" s="4">
         <v>33</v>
@@ -2104,13 +2110,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D68" s="4">
         <v>33</v>
@@ -2118,13 +2124,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D69" s="4">
         <v>32</v>
@@ -2132,13 +2138,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D70" s="4">
         <v>33</v>
@@ -2146,13 +2152,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D71" s="4">
         <v>32</v>
@@ -2160,13 +2166,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D72" s="4">
         <v>31</v>
@@ -2177,7 +2183,7 @@
         <v>60</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>61</v>
@@ -2188,41 +2194,41 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D76" s="4">
         <v>1181</v>
@@ -2230,27 +2236,27 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D78" s="4">
         <v>1172</v>
@@ -2258,13 +2264,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D79" s="4">
         <v>1173</v>
@@ -2272,13 +2278,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D80" s="4">
         <v>1174</v>
@@ -2289,7 +2295,7 @@
         <v>62</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>63</v>
@@ -2300,24 +2306,24 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B82" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C82" s="4" t="s">
+      <c r="D82" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>64</v>
@@ -2328,13 +2334,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D84" s="4">
         <v>1167</v>
@@ -2345,7 +2351,7 @@
         <v>65</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>66</v>
@@ -2359,7 +2365,7 @@
         <v>67</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>66</v>
@@ -2370,27 +2376,27 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B87" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="D87" s="4">
-        <v>553</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D88" s="4">
         <v>72</v>
@@ -2398,13 +2404,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="D89" s="4">
         <v>86</v>
@@ -2412,13 +2418,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D90" s="4">
         <v>55</v>
@@ -2426,13 +2432,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D91" s="4">
         <v>54</v>
@@ -2440,13 +2446,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D92" s="4">
         <v>994</v>
@@ -2454,13 +2460,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="D93" s="4">
         <v>695</v>
@@ -2468,27 +2474,27 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B94" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>142</v>
-      </c>
       <c r="D94" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="D95" s="4">
         <v>1</v>
@@ -2496,27 +2502,27 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B96" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>144</v>
-      </c>
       <c r="D96" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="D97" s="4">
         <v>1</v>
@@ -2524,13 +2530,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D98" s="4">
         <v>884</v>
@@ -2538,13 +2544,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C99" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="D99" s="4">
         <v>53</v>
@@ -2552,13 +2558,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C100" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="D100" s="4">
         <v>107</v>
@@ -2566,13 +2572,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D101" s="4">
         <v>986</v>
@@ -2580,13 +2586,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D102" s="4">
         <v>437</v>
@@ -2594,13 +2600,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D103" s="4">
         <v>449</v>
@@ -2608,13 +2614,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C104" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="D104" s="4">
         <v>170</v>
@@ -2622,13 +2628,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D105" s="4">
         <v>163</v>
@@ -2636,13 +2642,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D106" s="4">
         <v>799</v>
@@ -2650,13 +2656,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D107" s="4">
         <v>1127</v>
@@ -2664,13 +2670,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D108" s="4">
         <v>569</v>
@@ -2678,13 +2684,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D109" s="4">
         <v>762</v>
@@ -2692,13 +2698,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D110" s="4">
         <v>1</v>
@@ -2706,13 +2712,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C111" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="D111" s="4">
         <v>211</v>
@@ -2720,41 +2726,41 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C112" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B112" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>146</v>
-      </c>
       <c r="D112" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C113" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B113" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>149</v>
-      </c>
       <c r="D113" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D114" s="4">
         <v>1</v>
@@ -2762,27 +2768,27 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C115" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B115" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C115" s="4" t="s">
+      <c r="D115" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="D115" s="4" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D116" s="4">
         <v>1</v>
@@ -2790,13 +2796,13 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C117" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="D117" s="4">
         <v>1</v>
@@ -2809,13 +2815,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="41">
+    <cfRule type="expression" dxfId="2" priority="42">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D117">
+  <conditionalFormatting sqref="A2:D86 A88:D117">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A87:D87">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
+      <formula>LEN(TRIM(A87))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/MA_ssoservi_cservico_csala.xlsx
+++ b/pages/MA_ssoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F37E83-FD8E-4FB3-A6B0-0113B0E17CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEAB0A01-18B2-4A96-952C-6571771E4D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{149F6C8A-4ABB-45E4-B310-DA53D82C00F6}"/>
   </bookViews>
@@ -182,9 +182,6 @@
     <t>S020056</t>
   </si>
   <si>
-    <t>GRAMPO - 26/6 - 26/6</t>
-  </si>
-  <si>
     <t>S020057</t>
   </si>
   <si>
@@ -708,6 +705,9 @@
   </si>
   <si>
     <t>PAPEL HIGIENICO - 300MT PC C/8</t>
+  </si>
+  <si>
+    <t>GRAMPO 26/6 P/ GRAMPEADOR - 1000UN</t>
   </si>
 </sst>
 </file>
@@ -1158,8 +1158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
   <dimension ref="A1:D117"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87:D87"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1186,13 +1186,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1200,27 +1200,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>182</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>183</v>
       </c>
       <c r="D4" s="4">
         <v>105</v>
@@ -1228,13 +1228,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D5" s="6">
         <v>0.5</v>
@@ -1242,10 +1242,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>3</v>
@@ -1256,13 +1256,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="D7" s="4">
         <v>53</v>
@@ -1270,27 +1270,27 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>215</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>216</v>
       </c>
       <c r="D9" s="4">
         <v>1208</v>
@@ -1298,16 +1298,16 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1315,7 +1315,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>5</v>
@@ -1326,10 +1326,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>6</v>
@@ -1340,10 +1340,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>6</v>
@@ -1357,7 +1357,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>8</v>
@@ -1371,7 +1371,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>10</v>
@@ -1385,7 +1385,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>10</v>
@@ -1396,13 +1396,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="D17" s="4">
         <v>58</v>
@@ -1413,7 +1413,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>13</v>
@@ -1427,7 +1427,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>15</v>
@@ -1438,16 +1438,16 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>119</v>
-      </c>
       <c r="D20" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1455,7 +1455,7 @@
         <v>16</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>17</v>
@@ -1469,7 +1469,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>17</v>
@@ -1480,10 +1480,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>17</v>
@@ -1497,7 +1497,7 @@
         <v>19</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>20</v>
@@ -1511,7 +1511,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>22</v>
@@ -1525,7 +1525,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>24</v>
@@ -1536,13 +1536,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="D27" s="4">
         <v>904</v>
@@ -1550,24 +1550,24 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>25</v>
@@ -1578,10 +1578,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>25</v>
@@ -1592,13 +1592,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>179</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>180</v>
       </c>
       <c r="D31" s="6">
         <v>1</v>
@@ -1606,10 +1606,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>26</v>
@@ -1620,13 +1620,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D33" s="4">
         <v>1160</v>
@@ -1637,7 +1637,7 @@
         <v>27</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>28</v>
@@ -1648,13 +1648,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D35" s="4">
         <v>1176</v>
@@ -1662,13 +1662,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D36" s="4">
         <v>1177</v>
@@ -1676,13 +1676,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D37" s="4">
         <v>1178</v>
@@ -1690,13 +1690,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D38" s="4">
         <v>1179</v>
@@ -1707,7 +1707,7 @@
         <v>29</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>30</v>
@@ -1718,16 +1718,16 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C40" s="4" t="s">
+      <c r="D40" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1735,21 +1735,21 @@
         <v>31</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>33</v>
@@ -1763,7 +1763,7 @@
         <v>34</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>35</v>
@@ -1777,7 +1777,7 @@
         <v>36</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>37</v>
@@ -1791,7 +1791,7 @@
         <v>38</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>37</v>
@@ -1805,7 +1805,7 @@
         <v>39</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>37</v>
@@ -1819,7 +1819,7 @@
         <v>40</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>37</v>
@@ -1830,27 +1830,27 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>176</v>
-      </c>
       <c r="D48" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>187</v>
       </c>
       <c r="D49" s="4">
         <v>750</v>
@@ -1858,13 +1858,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="D50" s="4">
         <v>471</v>
@@ -1875,7 +1875,7 @@
         <v>41</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>42</v>
@@ -1889,7 +1889,7 @@
         <v>43</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>42</v>
@@ -1900,27 +1900,27 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>128</v>
-      </c>
       <c r="D53" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>170</v>
       </c>
       <c r="D54" s="4">
         <v>1</v>
@@ -1928,10 +1928,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>44</v>
@@ -1945,7 +1945,7 @@
         <v>45</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>46</v>
@@ -1956,27 +1956,27 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="D57" s="4">
-        <v>80</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="D58" s="4">
         <v>1</v>
@@ -1984,13 +1984,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="D59" s="4">
         <v>1</v>
@@ -1998,13 +1998,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>189</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>190</v>
       </c>
       <c r="D60" s="4">
         <v>1164</v>
@@ -2012,13 +2012,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="D61" s="4">
         <v>40</v>
@@ -2026,13 +2026,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="D62" s="4">
         <v>103</v>
@@ -2040,13 +2040,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D63" s="4">
         <v>103</v>
@@ -2054,13 +2054,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D64" s="4">
         <v>1166</v>
@@ -2068,13 +2068,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="D65" s="4">
         <v>1</v>
@@ -2082,13 +2082,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="D66" s="4">
         <v>745</v>
@@ -2096,13 +2096,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>207</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>208</v>
       </c>
       <c r="D67" s="4">
         <v>33</v>
@@ -2110,13 +2110,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D68" s="4">
         <v>33</v>
@@ -2124,13 +2124,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D69" s="4">
         <v>32</v>
@@ -2138,13 +2138,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>211</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>212</v>
       </c>
       <c r="D70" s="4">
         <v>33</v>
@@ -2152,13 +2152,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D71" s="4">
         <v>32</v>
@@ -2166,13 +2166,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D72" s="4">
         <v>31</v>
@@ -2180,13 +2180,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="D73" s="4">
         <v>2</v>
@@ -2194,41 +2194,41 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D74" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D75" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>219</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>220</v>
       </c>
       <c r="D76" s="4">
         <v>1181</v>
@@ -2236,27 +2236,27 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B77" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>178</v>
-      </c>
       <c r="D77" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>201</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>202</v>
       </c>
       <c r="D78" s="4">
         <v>1172</v>
@@ -2264,13 +2264,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D79" s="4">
         <v>1173</v>
@@ -2278,13 +2278,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D80" s="4">
         <v>1174</v>
@@ -2292,13 +2292,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="D81" s="4">
         <v>211</v>
@@ -2306,27 +2306,27 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B82" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C82" s="4" t="s">
+      <c r="D82" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D83" s="4">
         <v>1167</v>
@@ -2334,13 +2334,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D84" s="4">
         <v>1167</v>
@@ -2348,13 +2348,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="D85" s="4">
         <v>820</v>
@@ -2362,13 +2362,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D86" s="4">
         <v>819</v>
@@ -2376,13 +2376,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D87" s="4">
         <v>1394</v>
@@ -2390,13 +2390,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D88" s="4">
         <v>72</v>
@@ -2404,13 +2404,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="D89" s="4">
         <v>86</v>
@@ -2418,13 +2418,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D90" s="4">
         <v>55</v>
@@ -2432,13 +2432,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D91" s="4">
         <v>54</v>
@@ -2446,13 +2446,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D92" s="4">
         <v>994</v>
@@ -2460,13 +2460,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="D93" s="4">
         <v>695</v>
@@ -2474,27 +2474,27 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B94" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>141</v>
-      </c>
       <c r="D94" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="D95" s="4">
         <v>1</v>
@@ -2502,27 +2502,27 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B96" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>143</v>
-      </c>
       <c r="D96" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="D97" s="4">
         <v>1</v>
@@ -2530,13 +2530,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D98" s="4">
         <v>884</v>
@@ -2544,13 +2544,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C99" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="D99" s="4">
         <v>53</v>
@@ -2558,13 +2558,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C100" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="D100" s="4">
         <v>107</v>
@@ -2572,13 +2572,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D101" s="4">
         <v>986</v>
@@ -2586,13 +2586,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D102" s="4">
         <v>437</v>
@@ -2600,13 +2600,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D103" s="4">
         <v>449</v>
@@ -2614,13 +2614,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C104" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="D104" s="4">
         <v>170</v>
@@ -2628,13 +2628,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D105" s="4">
         <v>163</v>
@@ -2642,13 +2642,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D106" s="4">
         <v>799</v>
@@ -2656,13 +2656,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D107" s="4">
         <v>1127</v>
@@ -2670,13 +2670,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D108" s="4">
         <v>569</v>
@@ -2684,13 +2684,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D109" s="4">
         <v>762</v>
@@ -2698,13 +2698,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C110" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>185</v>
       </c>
       <c r="D110" s="4">
         <v>1</v>
@@ -2712,13 +2712,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C111" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="D111" s="4">
         <v>211</v>
@@ -2726,41 +2726,41 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C112" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B112" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>145</v>
-      </c>
       <c r="D112" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C113" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B113" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>148</v>
-      </c>
       <c r="D113" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D114" s="4">
         <v>1</v>
@@ -2768,27 +2768,27 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C115" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B115" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C115" s="4" t="s">
+      <c r="D115" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="D115" s="4" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D116" s="4">
         <v>1</v>
@@ -2796,13 +2796,13 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C117" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="D117" s="4">
         <v>1</v>
@@ -2815,18 +2815,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="42">
+    <cfRule type="expression" dxfId="2" priority="43">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D86 A88:D117">
+  <conditionalFormatting sqref="A2:D56 A58:D117">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A87:D87">
+  <conditionalFormatting sqref="A57:D57">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A87))&gt;0</formula>
+      <formula>LEN(TRIM(A57))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/MA_ssoservi_cservico_csala.xlsx
+++ b/pages/MA_ssoservi_cservico_csala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEAB0A01-18B2-4A96-952C-6571771E4D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117452CD-8F76-4BF8-8849-4D0E0550F214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{149F6C8A-4ABB-45E4-B310-DA53D82C00F6}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$116</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$117</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="215">
   <si>
     <t>Complemento</t>
   </si>
@@ -83,9 +83,6 @@
     <t>S020082</t>
   </si>
   <si>
-    <t>CALCULADORA PORTATIL - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020083</t>
   </si>
   <si>
@@ -98,15 +95,9 @@
     <t>CANETA ESFEROGRAFICA ESC. FINA - PRETO</t>
   </si>
   <si>
-    <t>CLIPE 2/0 COM 100UND - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020087</t>
   </si>
   <si>
-    <t>CLIPE 8/0 COM 25UND - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020090</t>
   </si>
   <si>
@@ -128,24 +119,15 @@
     <t>S010013</t>
   </si>
   <si>
-    <t>EMBALAGEM PARA PRESENTE - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S050018</t>
   </si>
   <si>
-    <t>ESPANADOR - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S110018</t>
   </si>
   <si>
     <t>S010018</t>
   </si>
   <si>
-    <t>ESTILETE C/ LAMINA 18MM - LARGA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020046</t>
   </si>
   <si>
@@ -185,9 +167,6 @@
     <t>S020057</t>
   </si>
   <si>
-    <t>LACRE DE SEGURANÇA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S050012</t>
   </si>
   <si>
@@ -206,9 +185,6 @@
     <t>S010027</t>
   </si>
   <si>
-    <t>LIVRO ATA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020063</t>
   </si>
   <si>
@@ -266,15 +242,9 @@
     <t>PORTA ETIQUETA - 60CM</t>
   </si>
   <si>
-    <t>PROTOCOLO DE CORRESPONDENCIA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020038</t>
   </si>
   <si>
-    <t>RODO - UNICA</t>
-  </si>
-  <si>
     <t>S110029</t>
   </si>
   <si>
@@ -317,9 +287,6 @@
     <t>S040046</t>
   </si>
   <si>
-    <t>VASSOURA DE PIASSAVA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S110037</t>
   </si>
   <si>
@@ -359,9 +326,6 @@
     <t>S010009</t>
   </si>
   <si>
-    <t>LANCETAS - UNICA</t>
-  </si>
-  <si>
     <t>S150191</t>
   </si>
   <si>
@@ -380,30 +344,15 @@
     <t>2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>BALDE - 10L - 10L</t>
   </si>
   <si>
     <t>S110003</t>
   </si>
   <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>CANETA DETECTA DINHEIRO FALSO - UNICA</t>
-  </si>
-  <si>
-    <t>S150295</t>
-  </si>
-  <si>
     <t>COLETOR PERFURO-CORTANTE - 7LTS</t>
   </si>
   <si>
-    <t>903</t>
-  </si>
-  <si>
     <t>COPO DESCARTAVEL C/100 UND - 150ML - 150ML</t>
   </si>
   <si>
@@ -416,36 +365,21 @@
     <t>S020041</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>FITA DUPLA FACE - UNICA</t>
-  </si>
-  <si>
     <t>S230009</t>
   </si>
   <si>
     <t>MARCADOR QUADRO BRANCO - PRETO - PRETO</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>MARCADOR QUADRO BRANCO - VERMELHO - VERMELHO</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>PA PLASTICA P/ LIXO - CABO LONGO</t>
   </si>
   <si>
     <t>S110020</t>
   </si>
   <si>
-    <t>591</t>
-  </si>
-  <si>
     <t>S010038</t>
   </si>
   <si>
@@ -458,21 +392,12 @@
     <t>PILHA - AAA</t>
   </si>
   <si>
-    <t>PRANCHETA A4 - UNICA</t>
-  </si>
-  <si>
     <t>S020036</t>
   </si>
   <si>
-    <t>QUADRO DE AVISO - UNICA</t>
-  </si>
-  <si>
     <t>S020118</t>
   </si>
   <si>
-    <t>TESOURA ESCOLAR - UNICA</t>
-  </si>
-  <si>
     <t>S020007</t>
   </si>
   <si>
@@ -545,9 +470,6 @@
     <t>VASSOURA DE PELO SINTETICO - PLASTICO</t>
   </si>
   <si>
-    <t>FITILHO COMUM RECICLADO (BARBANTE)</t>
-  </si>
-  <si>
     <t>S050008</t>
   </si>
   <si>
@@ -557,27 +479,15 @@
     <t>S030004</t>
   </si>
   <si>
-    <t>118</t>
-  </si>
-  <si>
     <t>CANETA ESFEROGRAFICA ESC. FINA - VERMELHA</t>
   </si>
   <si>
-    <t>EXTRATOR DE GRAMPOS - UNICA</t>
-  </si>
-  <si>
     <t>S020048</t>
   </si>
   <si>
-    <t>MEXEDOR PARA CAFE - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S150037</t>
   </si>
   <si>
-    <t>CURATIVO ADESIVO EM DISCO - UNICA</t>
-  </si>
-  <si>
     <t>S150189</t>
   </si>
   <si>
@@ -590,9 +500,6 @@
     <t>S010002</t>
   </si>
   <si>
-    <t>TAPETE - UNICA</t>
-  </si>
-  <si>
     <t>S110059</t>
   </si>
   <si>
@@ -692,9 +599,6 @@
     <t>SACO P/ LIXO INFECTANTE - 50L</t>
   </si>
   <si>
-    <t>TIRA P/ TESTE DE GLICEMIA - UNICA</t>
-  </si>
-  <si>
     <t>MASCARA DESCARTAVEL - TNT</t>
   </si>
   <si>
@@ -708,6 +612,78 @@
   </si>
   <si>
     <t>GRAMPO 26/6 P/ GRAMPEADOR - 1000UN</t>
+  </si>
+  <si>
+    <t>CALCULADORA PORTATIL - 12 DIGITOS</t>
+  </si>
+  <si>
+    <t>CANETA DETECTA DINHEIRO FALSO - LUMINOSA - LUMINOSA</t>
+  </si>
+  <si>
+    <t>S020133</t>
+  </si>
+  <si>
+    <t>CLIPE 2/0 - 100UND</t>
+  </si>
+  <si>
+    <t>CURATIVO ADESIVO EM DISCO - 500 UND</t>
+  </si>
+  <si>
+    <t>CLIPE 8/0 - 25UND</t>
+  </si>
+  <si>
+    <t>SACOLA DE PAPEL PERSONALIZADA - 22X25</t>
+  </si>
+  <si>
+    <t>ESPANADOR - PENA</t>
+  </si>
+  <si>
+    <t>ESTILETE C/ LAMINA - LARGA - 18MM</t>
+  </si>
+  <si>
+    <t>EXTRATOR DE GRAMPOS - METALICO</t>
+  </si>
+  <si>
+    <t>FITA DUPLA FACE - 19mm x 3m</t>
+  </si>
+  <si>
+    <t>FITILHO COMUM RECICLADO (BARBANTE) - 1000M</t>
+  </si>
+  <si>
+    <t>LACRE DE SEGURANÇA PERSONALIZADO - 16CM</t>
+  </si>
+  <si>
+    <t>LANCETAS - 100UN - 100UN</t>
+  </si>
+  <si>
+    <t>LIVRO ATA - 100FLS</t>
+  </si>
+  <si>
+    <t>MEXEDOR PARA CAFE - 500 UND</t>
+  </si>
+  <si>
+    <t>PRANCHETA A4 - MDF A4</t>
+  </si>
+  <si>
+    <t>PROTOCOLO DE CORRESPONDENCIA - 96 FLS</t>
+  </si>
+  <si>
+    <t>QUADRO DE AVISO - 90X60CM - 90X60CM</t>
+  </si>
+  <si>
+    <t>RODO - C/ CABO 40CM</t>
+  </si>
+  <si>
+    <t>TAPETE - 1,20x0,80</t>
+  </si>
+  <si>
+    <t>TESOURA ESCOLAR - 4"</t>
+  </si>
+  <si>
+    <t>TIRA P/ TESTE DE GLICEMIA - ON CALL</t>
+  </si>
+  <si>
+    <t>VASSOURA - PIASSAVA - PIASSAVA</t>
   </si>
 </sst>
 </file>
@@ -815,16 +791,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1158,8 +1125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
   <dimension ref="A1:D117"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57:D57"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1175,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1186,13 +1153,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1200,27 +1167,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>172</v>
+        <v>145</v>
+      </c>
+      <c r="D3" s="6">
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="D4" s="4">
         <v>105</v>
@@ -1228,13 +1195,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>204</v>
+        <v>173</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D5" s="6">
         <v>0.5</v>
@@ -1242,10 +1209,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>3</v>
@@ -1256,13 +1223,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D7" s="4">
         <v>53</v>
@@ -1270,27 +1237,27 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>112</v>
+        <v>99</v>
+      </c>
+      <c r="D8" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>215</v>
+        <v>184</v>
       </c>
       <c r="D9" s="4">
         <v>1208</v>
@@ -1298,16 +1265,16 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>116</v>
+        <v>102</v>
+      </c>
+      <c r="D10" s="6">
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1315,7 +1282,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>5</v>
@@ -1326,10 +1293,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>6</v>
@@ -1340,10 +1307,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>6</v>
@@ -1357,7 +1324,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>8</v>
@@ -1371,7 +1338,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>10</v>
@@ -1385,7 +1352,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>10</v>
@@ -1396,13 +1363,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D17" s="4">
         <v>58</v>
@@ -1413,7 +1380,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>13</v>
@@ -1424,41 +1391,41 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="D19" s="4">
-        <v>1</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>117</v>
+        <v>192</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>113</v>
+        <v>193</v>
+      </c>
+      <c r="D20" s="6">
+        <v>1184</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="D21" s="4">
         <v>2</v>
@@ -1466,13 +1433,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D22" s="4">
         <v>3</v>
@@ -1480,13 +1447,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D23" s="4">
         <v>4</v>
@@ -1494,41 +1461,41 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>19</v>
+        <v>194</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="4">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>21</v>
+        <v>196</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D25" s="4">
-        <v>1</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D26" s="4">
         <v>52</v>
@@ -1536,13 +1503,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D27" s="4">
         <v>904</v>
@@ -1550,27 +1517,27 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>120</v>
+        <v>94</v>
+      </c>
+      <c r="D28" s="6">
+        <v>903</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D29" s="4">
         <v>109</v>
@@ -1578,13 +1545,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D30" s="4">
         <v>100</v>
@@ -1592,27 +1559,27 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="D31" s="6">
-        <v>1</v>
+        <v>874</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D32" s="4">
         <v>105</v>
@@ -1620,13 +1587,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>191</v>
+        <v>160</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="D33" s="4">
         <v>1160</v>
@@ -1634,13 +1601,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D34" s="4">
         <v>103</v>
@@ -1648,13 +1615,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="D35" s="4">
         <v>1176</v>
@@ -1662,13 +1629,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="D36" s="4">
         <v>1177</v>
@@ -1676,13 +1643,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>194</v>
+        <v>163</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="D37" s="4">
         <v>1178</v>
@@ -1690,13 +1657,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="D38" s="4">
         <v>1179</v>
@@ -1704,55 +1671,55 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>29</v>
+        <v>197</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D39" s="4">
-        <v>1</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>125</v>
+        <v>107</v>
+      </c>
+      <c r="D40" s="6">
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>31</v>
+        <v>198</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>113</v>
+        <v>27</v>
+      </c>
+      <c r="D41" s="6">
+        <v>1454</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D42" s="4">
         <v>1162</v>
@@ -1760,27 +1727,27 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>34</v>
+        <v>199</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D43" s="4">
-        <v>1</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D44" s="4">
         <v>899</v>
@@ -1788,13 +1755,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D45" s="4">
         <v>896</v>
@@ -1802,13 +1769,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D46" s="4">
         <v>900</v>
@@ -1816,13 +1783,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D47" s="4">
         <v>898</v>
@@ -1830,27 +1797,27 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>113</v>
+        <v>147</v>
+      </c>
+      <c r="D48" s="6">
+        <v>1456</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>185</v>
+        <v>154</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>186</v>
+        <v>155</v>
       </c>
       <c r="D49" s="4">
         <v>750</v>
@@ -1858,13 +1825,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D50" s="4">
         <v>471</v>
@@ -1872,13 +1839,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D51" s="4">
         <v>166</v>
@@ -1886,13 +1853,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D52" s="4">
         <v>167</v>
@@ -1900,41 +1867,41 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>113</v>
+        <v>108</v>
+      </c>
+      <c r="D53" s="6">
+        <v>272</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="D54" s="4">
-        <v>1</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>198</v>
+        <v>167</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D55" s="4">
         <v>448</v>
@@ -1942,13 +1909,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D56" s="4">
         <v>80</v>
@@ -1956,13 +1923,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>222</v>
+        <v>190</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D57" s="4">
         <v>1395</v>
@@ -1970,41 +1937,41 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>48</v>
+        <v>203</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D58" s="4">
-        <v>1</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>106</v>
+        <v>204</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D59" s="4">
-        <v>1</v>
+        <v>95</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="D60" s="4">
         <v>1164</v>
@@ -2012,13 +1979,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D61" s="4">
         <v>40</v>
@@ -2026,13 +1993,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D62" s="4">
         <v>103</v>
@@ -2040,13 +2007,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>196</v>
+        <v>165</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D63" s="4">
         <v>103</v>
@@ -2054,13 +2021,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D64" s="4">
         <v>1166</v>
@@ -2068,27 +2035,27 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>55</v>
+        <v>205</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D65" s="4">
-        <v>1</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D66" s="4">
         <v>745</v>
@@ -2096,13 +2063,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>206</v>
+        <v>175</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>207</v>
+        <v>176</v>
       </c>
       <c r="D67" s="4">
         <v>33</v>
@@ -2110,13 +2077,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>207</v>
+        <v>176</v>
       </c>
       <c r="D68" s="4">
         <v>33</v>
@@ -2124,13 +2091,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>209</v>
+        <v>178</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>207</v>
+        <v>176</v>
       </c>
       <c r="D69" s="4">
         <v>32</v>
@@ -2138,13 +2105,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="D70" s="4">
         <v>33</v>
@@ -2152,13 +2119,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>212</v>
+        <v>181</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="D71" s="4">
         <v>32</v>
@@ -2166,13 +2133,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="D72" s="4">
         <v>31</v>
@@ -2180,13 +2147,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D73" s="4">
         <v>2</v>
@@ -2194,41 +2161,41 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>129</v>
+        <v>52</v>
+      </c>
+      <c r="D74" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>131</v>
+        <v>52</v>
+      </c>
+      <c r="D75" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c r="D76" s="4">
         <v>1181</v>
@@ -2236,27 +2203,27 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>176</v>
+        <v>206</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>113</v>
+        <v>148</v>
+      </c>
+      <c r="D77" s="6">
+        <v>874</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="D78" s="4">
         <v>1172</v>
@@ -2264,13 +2231,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="D79" s="4">
         <v>1173</v>
@@ -2278,13 +2245,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="D80" s="4">
         <v>1174</v>
@@ -2292,13 +2259,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D81" s="4">
         <v>211</v>
@@ -2306,27 +2273,27 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>134</v>
+        <v>112</v>
+      </c>
+      <c r="D82" s="6">
+        <v>591</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D83" s="4">
         <v>1167</v>
@@ -2334,13 +2301,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>199</v>
+        <v>168</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="D84" s="4">
         <v>1167</v>
@@ -2348,13 +2315,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D85" s="4">
         <v>820</v>
@@ -2362,13 +2329,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D86" s="4">
         <v>819</v>
@@ -2376,13 +2343,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>221</v>
+        <v>189</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D87" s="4">
         <v>1394</v>
@@ -2390,13 +2357,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D88" s="4">
         <v>72</v>
@@ -2404,13 +2371,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D89" s="4">
         <v>86</v>
@@ -2418,13 +2385,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D90" s="4">
         <v>55</v>
@@ -2432,13 +2399,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D91" s="4">
         <v>54</v>
@@ -2446,13 +2413,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D92" s="4">
         <v>994</v>
@@ -2460,13 +2427,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D93" s="4">
         <v>695</v>
@@ -2474,69 +2441,69 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>139</v>
+        <v>207</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>113</v>
+        <v>117</v>
+      </c>
+      <c r="D94" s="6">
+        <v>1457</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>75</v>
+        <v>208</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D95" s="4">
-        <v>1</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>141</v>
+        <v>209</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>113</v>
+        <v>118</v>
+      </c>
+      <c r="D96" s="6">
+        <v>1030</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>77</v>
+        <v>210</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D97" s="4">
-        <v>1</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="D98" s="4">
         <v>884</v>
@@ -2544,13 +2511,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D99" s="4">
         <v>53</v>
@@ -2558,13 +2525,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D100" s="4">
         <v>107</v>
@@ -2572,13 +2539,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>216</v>
+        <v>185</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D101" s="4">
         <v>986</v>
@@ -2586,13 +2553,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>205</v>
+        <v>174</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="D102" s="4">
         <v>437</v>
@@ -2600,13 +2567,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="D103" s="4">
         <v>449</v>
@@ -2614,13 +2581,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D104" s="4">
         <v>170</v>
@@ -2628,13 +2595,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D105" s="4">
         <v>163</v>
@@ -2642,13 +2609,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D106" s="4">
         <v>799</v>
@@ -2656,13 +2623,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D107" s="4">
         <v>1127</v>
@@ -2670,13 +2637,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D108" s="4">
         <v>569</v>
@@ -2684,13 +2651,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D109" s="4">
         <v>762</v>
@@ -2698,27 +2665,27 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>184</v>
+        <v>153</v>
       </c>
       <c r="D110" s="4">
-        <v>1</v>
+        <v>878</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D111" s="4">
         <v>211</v>
@@ -2726,107 +2693,97 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>143</v>
+        <v>212</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D112" s="4" t="s">
-        <v>113</v>
+        <v>119</v>
+      </c>
+      <c r="D112" s="4">
+        <v>202</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D114" s="4">
-        <v>1</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>167</v>
+        <v>214</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="D116" s="4">
-        <v>1</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="D117" s="4">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D116" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D117">
-      <sortCondition ref="A1:A116"/>
-    </sortState>
-  </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="43">
+    <cfRule type="expression" dxfId="1" priority="43">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D56 A58:D117">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D117">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A57:D57">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A57))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/MA_ssoservi_cservico_csala.xlsx
+++ b/pages/MA_ssoservi_cservico_csala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117452CD-8F76-4BF8-8849-4D0E0550F214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F55C1D-7E4E-4618-84F5-06ACE61A77B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{149F6C8A-4ABB-45E4-B310-DA53D82C00F6}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$117</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$116</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="214">
   <si>
     <t>Complemento</t>
   </si>
@@ -603,9 +603,6 @@
   </si>
   <si>
     <t>S080026</t>
-  </si>
-  <si>
-    <t>LIMPADOR MULTIUSO - CIF LIQUIDO</t>
   </si>
   <si>
     <t>PAPEL HIGIENICO - 300MT PC C/8</t>
@@ -1123,10 +1120,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
-  <dimension ref="A1:D117"/>
+  <dimension ref="A1:D116"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1391,7 +1388,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>136</v>
@@ -1405,13 +1402,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>192</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>193</v>
       </c>
       <c r="D20" s="6">
         <v>1184</v>
@@ -1461,7 +1458,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>137</v>
@@ -1475,7 +1472,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>137</v>
@@ -1559,7 +1556,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>136</v>
@@ -1671,7 +1668,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>136</v>
@@ -1699,7 +1696,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>136</v>
@@ -1727,7 +1724,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>136</v>
@@ -1797,7 +1794,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>136</v>
@@ -1867,7 +1864,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>136</v>
@@ -1881,7 +1878,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>136</v>
@@ -1923,7 +1920,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>137</v>
@@ -1937,7 +1934,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>136</v>
@@ -1951,7 +1948,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>137</v>
@@ -2021,49 +2018,49 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D64" s="4">
-        <v>1166</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>205</v>
+        <v>49</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D65" s="4">
-        <v>70</v>
+        <v>745</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>49</v>
+        <v>175</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>50</v>
+        <v>176</v>
       </c>
       <c r="D66" s="4">
-        <v>745</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>136</v>
@@ -2077,7 +2074,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>136</v>
@@ -2086,26 +2083,26 @@
         <v>176</v>
       </c>
       <c r="D68" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D69" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>136</v>
@@ -2114,12 +2111,12 @@
         <v>180</v>
       </c>
       <c r="D70" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>136</v>
@@ -2128,26 +2125,26 @@
         <v>180</v>
       </c>
       <c r="D71" s="4">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>182</v>
+        <v>51</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>180</v>
+        <v>52</v>
       </c>
       <c r="D72" s="4">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>136</v>
@@ -2155,13 +2152,13 @@
       <c r="C73" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D73" s="4">
-        <v>2</v>
+      <c r="D73" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>136</v>
@@ -2170,54 +2167,54 @@
         <v>52</v>
       </c>
       <c r="D74" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>110</v>
+        <v>186</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D75" s="6">
-        <v>4</v>
+        <v>187</v>
+      </c>
+      <c r="D75" s="4">
+        <v>1181</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="D76" s="4">
-        <v>1181</v>
+        <v>148</v>
+      </c>
+      <c r="D76" s="6">
+        <v>874</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>206</v>
+        <v>169</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D77" s="6">
-        <v>874</v>
+        <v>170</v>
+      </c>
+      <c r="D77" s="4">
+        <v>1172</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>136</v>
@@ -2226,12 +2223,12 @@
         <v>170</v>
       </c>
       <c r="D78" s="4">
-        <v>1172</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>136</v>
@@ -2240,60 +2237,60 @@
         <v>170</v>
       </c>
       <c r="D79" s="4">
-        <v>1173</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>172</v>
+        <v>53</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>170</v>
+        <v>54</v>
       </c>
       <c r="D80" s="4">
-        <v>1174</v>
+        <v>211</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D81" s="4">
-        <v>211</v>
+        <v>112</v>
+      </c>
+      <c r="D81" s="6">
+        <v>591</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>111</v>
+        <v>159</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D82" s="6">
-        <v>591</v>
+        <v>55</v>
+      </c>
+      <c r="D82" s="4">
+        <v>1167</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="D83" s="4">
         <v>1167</v>
@@ -2301,21 +2298,21 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>168</v>
+        <v>56</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>113</v>
+        <v>57</v>
       </c>
       <c r="D84" s="4">
-        <v>1167</v>
+        <v>820</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>138</v>
@@ -2324,68 +2321,68 @@
         <v>57</v>
       </c>
       <c r="D85" s="4">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>58</v>
+        <v>188</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>138</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D86" s="4">
-        <v>819</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>189</v>
+        <v>114</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>138</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D87" s="4">
-        <v>1394</v>
+        <v>72</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>114</v>
+        <v>61</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D88" s="4">
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D89" s="4">
-        <v>86</v>
+        <v>55</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>136</v>
@@ -2394,26 +2391,26 @@
         <v>63</v>
       </c>
       <c r="D90" s="4">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>116</v>
+        <v>66</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D91" s="4">
-        <v>54</v>
+        <v>994</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>136</v>
@@ -2422,21 +2419,21 @@
         <v>65</v>
       </c>
       <c r="D92" s="4">
-        <v>994</v>
+        <v>695</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>64</v>
+        <v>206</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D93" s="4">
-        <v>695</v>
+        <v>117</v>
+      </c>
+      <c r="D93" s="6">
+        <v>1457</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -2447,10 +2444,10 @@
         <v>136</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D94" s="6">
-        <v>1457</v>
+        <v>67</v>
+      </c>
+      <c r="D94" s="4">
+        <v>1182</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -2461,10 +2458,10 @@
         <v>136</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D95" s="4">
-        <v>1182</v>
+        <v>118</v>
+      </c>
+      <c r="D95" s="6">
+        <v>1030</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -2475,127 +2472,127 @@
         <v>136</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D96" s="6">
-        <v>1030</v>
+        <v>68</v>
+      </c>
+      <c r="D96" s="4">
+        <v>1468</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>210</v>
+        <v>131</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>68</v>
+        <v>130</v>
       </c>
       <c r="D97" s="4">
-        <v>1468</v>
+        <v>884</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>131</v>
+        <v>69</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>138</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="D98" s="4">
-        <v>884</v>
+        <v>53</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D99" s="4">
-        <v>53</v>
+        <v>107</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>71</v>
+        <v>185</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="D100" s="4">
-        <v>107</v>
+        <v>986</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>138</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="D101" s="4">
-        <v>986</v>
+        <v>437</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>138</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D102" s="4">
-        <v>437</v>
+        <v>449</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>133</v>
+        <v>74</v>
       </c>
       <c r="D103" s="4">
-        <v>449</v>
+        <v>170</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>74</v>
       </c>
       <c r="D104" s="4">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>136</v>
@@ -2604,26 +2601,26 @@
         <v>74</v>
       </c>
       <c r="D105" s="4">
-        <v>163</v>
+        <v>799</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D106" s="4">
-        <v>799</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>140</v>
@@ -2632,12 +2629,12 @@
         <v>77</v>
       </c>
       <c r="D107" s="4">
-        <v>1127</v>
+        <v>569</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>140</v>
@@ -2646,132 +2643,118 @@
         <v>77</v>
       </c>
       <c r="D108" s="4">
-        <v>569</v>
+        <v>762</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>79</v>
+        <v>210</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="D109" s="4">
-        <v>762</v>
+        <v>878</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D110" s="4">
         <v>211</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D110" s="4">
-        <v>878</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>80</v>
+        <v>211</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="D111" s="4">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>212</v>
+        <v>121</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D112" s="4">
-        <v>202</v>
+        <v>122</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>121</v>
+        <v>212</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D113" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
+      </c>
+      <c r="D113" s="4">
+        <v>1418</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>213</v>
+        <v>123</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D114" s="4">
-        <v>1418</v>
+        <v>124</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>123</v>
+        <v>213</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D115" s="4" t="s">
-        <v>125</v>
+        <v>82</v>
+      </c>
+      <c r="D115" s="4">
+        <v>1458</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>214</v>
+        <v>142</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="D116" s="4">
-        <v>1458</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D117" s="4">
         <v>15</v>
       </c>
     </row>
@@ -2781,7 +2764,7 @@
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D117">
+  <conditionalFormatting sqref="A2:D116">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>

--- a/pages/MA_ssoservi_cservico_csala.xlsx
+++ b/pages/MA_ssoservi_cservico_csala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F55C1D-7E4E-4618-84F5-06ACE61A77B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CBC870-5C15-46F4-888C-4F6F39991298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{149F6C8A-4ABB-45E4-B310-DA53D82C00F6}"/>
   </bookViews>
@@ -560,9 +560,6 @@
     <t>MOP - REFIL UMIDO</t>
   </si>
   <si>
-    <t>AGULHA 12X40MM - 100UN</t>
-  </si>
-  <si>
     <t>SACO P/ LIXO C/10UN - 30L</t>
   </si>
   <si>
@@ -681,6 +678,9 @@
   </si>
   <si>
     <t>VASSOURA - PIASSAVA - PIASSAVA</t>
+  </si>
+  <si>
+    <t>AGULHA IM - CALIBRE 40X1,20MM</t>
   </si>
 </sst>
 </file>
@@ -1122,8 +1122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
   <dimension ref="A1:D116"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="H61" sqref="H61"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1192,7 +1192,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>137</v>
@@ -1201,7 +1201,7 @@
         <v>92</v>
       </c>
       <c r="D5" s="6">
-        <v>0.5</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1248,13 +1248,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>141</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D9" s="4">
         <v>1208</v>
@@ -1388,7 +1388,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>136</v>
@@ -1402,13 +1402,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>191</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>192</v>
       </c>
       <c r="D20" s="6">
         <v>1184</v>
@@ -1458,7 +1458,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>137</v>
@@ -1472,7 +1472,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>137</v>
@@ -1556,7 +1556,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>136</v>
@@ -1668,7 +1668,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>136</v>
@@ -1696,7 +1696,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>136</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>136</v>
@@ -1794,7 +1794,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>136</v>
@@ -1864,7 +1864,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>136</v>
@@ -1878,7 +1878,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>136</v>
@@ -1920,7 +1920,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>137</v>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>136</v>
@@ -1948,7 +1948,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>137</v>
@@ -2018,7 +2018,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>136</v>
@@ -2046,13 +2046,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>176</v>
       </c>
       <c r="D66" s="4">
         <v>33</v>
@@ -2060,13 +2060,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D67" s="4">
         <v>33</v>
@@ -2074,13 +2074,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D68" s="4">
         <v>32</v>
@@ -2088,13 +2088,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>179</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>180</v>
       </c>
       <c r="D69" s="4">
         <v>33</v>
@@ -2102,13 +2102,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D70" s="4">
         <v>32</v>
@@ -2116,13 +2116,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D71" s="4">
         <v>31</v>
@@ -2172,13 +2172,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>137</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D75" s="4">
         <v>1181</v>
@@ -2186,7 +2186,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>136</v>
@@ -2326,7 +2326,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>138</v>
@@ -2424,7 +2424,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>136</v>
@@ -2438,7 +2438,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>136</v>
@@ -2452,7 +2452,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>136</v>
@@ -2466,7 +2466,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>136</v>
@@ -2522,7 +2522,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>138</v>
@@ -2536,7 +2536,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>138</v>
@@ -2648,7 +2648,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>136</v>
@@ -2676,7 +2676,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>136</v>
@@ -2704,7 +2704,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>137</v>
@@ -2732,7 +2732,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>136</v>

--- a/pages/MA_ssoservi_cservico_csala.xlsx
+++ b/pages/MA_ssoservi_cservico_csala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CBC870-5C15-46F4-888C-4F6F39991298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C70458-05CC-4C90-BDCA-D9900DBD0D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{149F6C8A-4ABB-45E4-B310-DA53D82C00F6}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="213">
   <si>
     <t>Complemento</t>
   </si>
@@ -339,9 +339,6 @@
   </si>
   <si>
     <t>S020071</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>BALDE - 10L - 10L</t>
@@ -788,7 +785,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1122,8 +1128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
   <dimension ref="A1:D116"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1139,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1153,7 +1159,7 @@
         <v>83</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>84</v>
@@ -1164,13 +1170,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>145</v>
       </c>
       <c r="D3" s="6">
         <v>118</v>
@@ -1178,13 +1184,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>152</v>
       </c>
       <c r="D4" s="4">
         <v>105</v>
@@ -1192,10 +1198,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>92</v>
@@ -1206,10 +1212,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>3</v>
@@ -1223,7 +1229,7 @@
         <v>90</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>91</v>
@@ -1237,7 +1243,7 @@
         <v>98</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>99</v>
@@ -1248,13 +1254,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>182</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>183</v>
       </c>
       <c r="D9" s="4">
         <v>1208</v>
@@ -1262,13 +1268,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="D10" s="6">
         <v>122</v>
@@ -1279,7 +1285,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>5</v>
@@ -1290,10 +1296,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>6</v>
@@ -1304,10 +1310,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>6</v>
@@ -1321,7 +1327,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>8</v>
@@ -1335,7 +1341,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>10</v>
@@ -1349,7 +1355,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>10</v>
@@ -1363,7 +1369,7 @@
         <v>85</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>86</v>
@@ -1377,7 +1383,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>13</v>
@@ -1388,10 +1394,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>14</v>
@@ -1402,13 +1408,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>190</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>191</v>
       </c>
       <c r="D20" s="6">
         <v>1184</v>
@@ -1419,7 +1425,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>16</v>
@@ -1433,7 +1439,7 @@
         <v>17</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>16</v>
@@ -1444,10 +1450,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>16</v>
@@ -1458,24 +1464,24 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>19</v>
@@ -1489,7 +1495,7 @@
         <v>20</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>21</v>
@@ -1503,7 +1509,7 @@
         <v>93</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>94</v>
@@ -1514,10 +1520,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>94</v>
@@ -1528,10 +1534,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>22</v>
@@ -1545,7 +1551,7 @@
         <v>87</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>22</v>
@@ -1556,13 +1562,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D31" s="6">
         <v>874</v>
@@ -1570,10 +1576,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>23</v>
@@ -1584,13 +1590,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D33" s="4">
         <v>1160</v>
@@ -1601,7 +1607,7 @@
         <v>24</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>25</v>
@@ -1612,66 +1618,66 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D35" s="4">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D36" s="4">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D37" s="4">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D38" s="4">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>26</v>
@@ -1682,13 +1688,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="D40" s="6">
         <v>12</v>
@@ -1696,10 +1702,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>27</v>
@@ -1710,10 +1716,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>28</v>
@@ -1724,10 +1730,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>29</v>
@@ -1741,7 +1747,7 @@
         <v>30</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>31</v>
@@ -1755,7 +1761,7 @@
         <v>32</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>31</v>
@@ -1769,7 +1775,7 @@
         <v>33</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>31</v>
@@ -1783,7 +1789,7 @@
         <v>34</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>31</v>
@@ -1794,13 +1800,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D48" s="6">
         <v>1456</v>
@@ -1808,13 +1814,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>155</v>
       </c>
       <c r="D49" s="4">
         <v>750</v>
@@ -1825,7 +1831,7 @@
         <v>88</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>89</v>
@@ -1839,7 +1845,7 @@
         <v>35</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>36</v>
@@ -1853,7 +1859,7 @@
         <v>37</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>36</v>
@@ -1864,13 +1870,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D53" s="6">
         <v>272</v>
@@ -1878,13 +1884,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D54" s="4">
         <v>1157</v>
@@ -1892,10 +1898,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>38</v>
@@ -1909,7 +1915,7 @@
         <v>39</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>40</v>
@@ -1920,10 +1926,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>41</v>
@@ -1934,10 +1940,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>42</v>
@@ -1948,27 +1954,27 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>95</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>158</v>
       </c>
       <c r="D60" s="4">
         <v>1164</v>
@@ -1979,7 +1985,7 @@
         <v>43</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>44</v>
@@ -1993,7 +1999,7 @@
         <v>45</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>46</v>
@@ -2004,10 +2010,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>47</v>
@@ -2018,10 +2024,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>48</v>
@@ -2035,7 +2041,7 @@
         <v>49</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>50</v>
@@ -2046,13 +2052,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>175</v>
       </c>
       <c r="D66" s="4">
         <v>33</v>
@@ -2060,13 +2066,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D67" s="4">
         <v>33</v>
@@ -2074,13 +2080,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D68" s="4">
         <v>32</v>
@@ -2088,13 +2094,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>179</v>
       </c>
       <c r="D69" s="4">
         <v>33</v>
@@ -2102,13 +2108,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D70" s="4">
         <v>32</v>
@@ -2116,13 +2122,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D71" s="4">
         <v>31</v>
@@ -2133,7 +2139,7 @@
         <v>51</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>52</v>
@@ -2144,10 +2150,10 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>52</v>
@@ -2158,10 +2164,10 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>52</v>
@@ -2172,13 +2178,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>186</v>
       </c>
       <c r="D75" s="4">
         <v>1181</v>
@@ -2186,13 +2192,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D76" s="6">
         <v>874</v>
@@ -2200,13 +2206,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>170</v>
       </c>
       <c r="D77" s="4">
         <v>1172</v>
@@ -2214,13 +2220,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D78" s="4">
         <v>1173</v>
@@ -2228,13 +2234,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D79" s="4">
         <v>1174</v>
@@ -2245,7 +2251,7 @@
         <v>53</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>54</v>
@@ -2256,13 +2262,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="D81" s="6">
         <v>591</v>
@@ -2270,10 +2276,10 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>55</v>
@@ -2284,13 +2290,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D83" s="4">
         <v>1167</v>
@@ -2301,7 +2307,7 @@
         <v>56</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>57</v>
@@ -2315,7 +2321,7 @@
         <v>58</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>57</v>
@@ -2326,10 +2332,10 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>59</v>
@@ -2340,10 +2346,10 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>60</v>
@@ -2357,7 +2363,7 @@
         <v>61</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>62</v>
@@ -2368,10 +2374,10 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>63</v>
@@ -2382,10 +2388,10 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>63</v>
@@ -2399,7 +2405,7 @@
         <v>66</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>65</v>
@@ -2413,7 +2419,7 @@
         <v>64</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>65</v>
@@ -2424,13 +2430,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D93" s="6">
         <v>1457</v>
@@ -2438,10 +2444,10 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>67</v>
@@ -2452,13 +2458,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D95" s="6">
         <v>1030</v>
@@ -2466,10 +2472,10 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>68</v>
@@ -2480,13 +2486,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D97" s="4">
         <v>884</v>
@@ -2497,7 +2503,7 @@
         <v>69</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>70</v>
@@ -2511,7 +2517,7 @@
         <v>71</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>72</v>
@@ -2522,10 +2528,10 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>96</v>
@@ -2536,13 +2542,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D101" s="4">
         <v>437</v>
@@ -2550,13 +2556,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D102" s="4">
         <v>449</v>
@@ -2567,7 +2573,7 @@
         <v>73</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>74</v>
@@ -2581,7 +2587,7 @@
         <v>75</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>74</v>
@@ -2595,7 +2601,7 @@
         <v>76</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>74</v>
@@ -2606,10 +2612,10 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>77</v>
@@ -2623,7 +2629,7 @@
         <v>78</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>77</v>
@@ -2637,7 +2643,7 @@
         <v>79</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>77</v>
@@ -2648,13 +2654,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D109" s="4">
         <v>878</v>
@@ -2665,7 +2671,7 @@
         <v>80</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>81</v>
@@ -2676,13 +2682,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D111" s="4">
         <v>202</v>
@@ -2690,24 +2696,24 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C112" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B112" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D112" s="4" t="s">
-        <v>100</v>
+      <c r="D112" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>97</v>
@@ -2718,24 +2724,24 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C114" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B114" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C114" s="4" t="s">
+      <c r="D114" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="D114" s="4" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>82</v>
@@ -2746,13 +2752,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D116" s="4">
         <v>15</v>
@@ -2760,13 +2766,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="43">
+    <cfRule type="expression" dxfId="2" priority="44">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D116">
+  <conditionalFormatting sqref="A2:D34 A39:D116">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35:D38">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
+      <formula>LEN(TRIM(A35))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/MA_ssoservi_cservico_csala.xlsx
+++ b/pages/MA_ssoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C70458-05CC-4C90-BDCA-D9900DBD0D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C227A759-3445-4F47-ADD3-A4B4088AE75E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{149F6C8A-4ABB-45E4-B310-DA53D82C00F6}"/>
   </bookViews>
@@ -431,9 +431,6 @@
     <t>S010046</t>
   </si>
   <si>
-    <t>SABAO EM BARRA - PACOTE C/5</t>
-  </si>
-  <si>
     <t>S010057</t>
   </si>
   <si>
@@ -678,6 +675,9 @@
   </si>
   <si>
     <t>AGULHA IM - CALIBRE 40X1,20MM</t>
+  </si>
+  <si>
+    <t>SABAO EM BARRA - 200G - 200G</t>
   </si>
 </sst>
 </file>
@@ -785,16 +785,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1128,8 +1119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
   <dimension ref="A1:D116"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A97" sqref="A97:D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1145,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1159,7 +1150,7 @@
         <v>83</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>84</v>
@@ -1170,13 +1161,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>144</v>
       </c>
       <c r="D3" s="6">
         <v>118</v>
@@ -1184,13 +1175,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>151</v>
       </c>
       <c r="D4" s="4">
         <v>105</v>
@@ -1198,10 +1189,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>92</v>
@@ -1212,10 +1203,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>3</v>
@@ -1229,7 +1220,7 @@
         <v>90</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>91</v>
@@ -1243,7 +1234,7 @@
         <v>98</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>99</v>
@@ -1254,13 +1245,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>182</v>
       </c>
       <c r="D9" s="4">
         <v>1208</v>
@@ -1271,7 +1262,7 @@
         <v>100</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>101</v>
@@ -1285,7 +1276,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>5</v>
@@ -1299,7 +1290,7 @@
         <v>127</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>6</v>
@@ -1313,7 +1304,7 @@
         <v>126</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>6</v>
@@ -1327,7 +1318,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>8</v>
@@ -1341,7 +1332,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>10</v>
@@ -1355,7 +1346,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>10</v>
@@ -1369,7 +1360,7 @@
         <v>85</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>86</v>
@@ -1383,7 +1374,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>13</v>
@@ -1394,10 +1385,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>14</v>
@@ -1408,13 +1399,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>189</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>190</v>
       </c>
       <c r="D20" s="6">
         <v>1184</v>
@@ -1425,7 +1416,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>16</v>
@@ -1439,7 +1430,7 @@
         <v>17</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>16</v>
@@ -1450,10 +1441,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>16</v>
@@ -1464,10 +1455,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>18</v>
@@ -1478,10 +1469,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>19</v>
@@ -1495,7 +1486,7 @@
         <v>20</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>21</v>
@@ -1509,7 +1500,7 @@
         <v>93</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>94</v>
@@ -1523,7 +1514,7 @@
         <v>102</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>94</v>
@@ -1537,7 +1528,7 @@
         <v>103</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>22</v>
@@ -1551,7 +1542,7 @@
         <v>87</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>22</v>
@@ -1562,13 +1553,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D31" s="6">
         <v>874</v>
@@ -1579,7 +1570,7 @@
         <v>104</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>23</v>
@@ -1590,13 +1581,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D33" s="4">
         <v>1160</v>
@@ -1607,7 +1598,7 @@
         <v>24</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>25</v>
@@ -1618,10 +1609,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>128</v>
@@ -1632,10 +1623,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>128</v>
@@ -1646,10 +1637,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>128</v>
@@ -1660,10 +1651,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>128</v>
@@ -1674,10 +1665,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>26</v>
@@ -1691,7 +1682,7 @@
         <v>105</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>106</v>
@@ -1702,10 +1693,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>27</v>
@@ -1716,10 +1707,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>28</v>
@@ -1730,10 +1721,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>29</v>
@@ -1747,7 +1738,7 @@
         <v>30</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>31</v>
@@ -1761,7 +1752,7 @@
         <v>32</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>31</v>
@@ -1775,7 +1766,7 @@
         <v>33</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>31</v>
@@ -1789,7 +1780,7 @@
         <v>34</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>31</v>
@@ -1800,13 +1791,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="6">
         <v>1456</v>
@@ -1814,13 +1805,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>153</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>154</v>
       </c>
       <c r="D49" s="4">
         <v>750</v>
@@ -1831,7 +1822,7 @@
         <v>88</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>89</v>
@@ -1845,7 +1836,7 @@
         <v>35</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>36</v>
@@ -1859,7 +1850,7 @@
         <v>37</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>36</v>
@@ -1870,10 +1861,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>107</v>
@@ -1884,13 +1875,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D54" s="4">
         <v>1157</v>
@@ -1898,10 +1889,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>38</v>
@@ -1915,7 +1906,7 @@
         <v>39</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>40</v>
@@ -1926,10 +1917,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>41</v>
@@ -1940,10 +1931,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>42</v>
@@ -1954,10 +1945,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>95</v>
@@ -1968,13 +1959,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="D60" s="4">
         <v>1164</v>
@@ -1985,7 +1976,7 @@
         <v>43</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>44</v>
@@ -1999,7 +1990,7 @@
         <v>45</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>46</v>
@@ -2010,10 +2001,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>47</v>
@@ -2024,10 +2015,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>48</v>
@@ -2041,7 +2032,7 @@
         <v>49</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>50</v>
@@ -2052,13 +2043,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>174</v>
       </c>
       <c r="D66" s="4">
         <v>33</v>
@@ -2066,13 +2057,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D67" s="4">
         <v>33</v>
@@ -2080,13 +2071,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D68" s="4">
         <v>32</v>
@@ -2094,13 +2085,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>178</v>
       </c>
       <c r="D69" s="4">
         <v>33</v>
@@ -2108,13 +2099,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D70" s="4">
         <v>32</v>
@@ -2122,13 +2113,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D71" s="4">
         <v>31</v>
@@ -2139,7 +2130,7 @@
         <v>51</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>52</v>
@@ -2153,7 +2144,7 @@
         <v>108</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>52</v>
@@ -2167,7 +2158,7 @@
         <v>109</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>52</v>
@@ -2178,13 +2169,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>185</v>
       </c>
       <c r="D75" s="4">
         <v>1181</v>
@@ -2192,13 +2183,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D76" s="6">
         <v>874</v>
@@ -2206,13 +2197,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>168</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>169</v>
       </c>
       <c r="D77" s="4">
         <v>1172</v>
@@ -2220,13 +2211,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D78" s="4">
         <v>1173</v>
@@ -2234,13 +2225,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D79" s="4">
         <v>1174</v>
@@ -2251,7 +2242,7 @@
         <v>53</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>54</v>
@@ -2265,7 +2256,7 @@
         <v>110</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>111</v>
@@ -2276,10 +2267,10 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>55</v>
@@ -2290,10 +2281,10 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>112</v>
@@ -2307,7 +2298,7 @@
         <v>56</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>57</v>
@@ -2321,7 +2312,7 @@
         <v>58</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>57</v>
@@ -2332,10 +2323,10 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>59</v>
@@ -2349,7 +2340,7 @@
         <v>113</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>60</v>
@@ -2363,7 +2354,7 @@
         <v>61</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>62</v>
@@ -2377,7 +2368,7 @@
         <v>114</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>63</v>
@@ -2391,7 +2382,7 @@
         <v>115</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>63</v>
@@ -2405,7 +2396,7 @@
         <v>66</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>65</v>
@@ -2419,7 +2410,7 @@
         <v>64</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>65</v>
@@ -2430,10 +2421,10 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>116</v>
@@ -2444,10 +2435,10 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>67</v>
@@ -2458,10 +2449,10 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>117</v>
@@ -2472,10 +2463,10 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>68</v>
@@ -2486,16 +2477,16 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>130</v>
+        <v>212</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>129</v>
       </c>
       <c r="D97" s="4">
-        <v>884</v>
+        <v>51</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -2503,7 +2494,7 @@
         <v>69</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>70</v>
@@ -2517,7 +2508,7 @@
         <v>71</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>72</v>
@@ -2528,10 +2519,10 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>96</v>
@@ -2542,13 +2533,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D101" s="4">
         <v>437</v>
@@ -2556,13 +2547,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D102" s="4">
         <v>449</v>
@@ -2573,7 +2564,7 @@
         <v>73</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>74</v>
@@ -2587,7 +2578,7 @@
         <v>75</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>74</v>
@@ -2601,7 +2592,7 @@
         <v>76</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>74</v>
@@ -2615,7 +2606,7 @@
         <v>119</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>77</v>
@@ -2629,7 +2620,7 @@
         <v>78</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>77</v>
@@ -2643,7 +2634,7 @@
         <v>79</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>77</v>
@@ -2654,13 +2645,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D109" s="4">
         <v>878</v>
@@ -2671,7 +2662,7 @@
         <v>80</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>81</v>
@@ -2682,10 +2673,10 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>118</v>
@@ -2699,7 +2690,7 @@
         <v>120</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>121</v>
@@ -2710,10 +2701,10 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>97</v>
@@ -2727,7 +2718,7 @@
         <v>122</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>123</v>
@@ -2738,10 +2729,10 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>82</v>
@@ -2752,10 +2743,10 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>125</v>
@@ -2766,18 +2757,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="44">
+    <cfRule type="expression" dxfId="1" priority="44">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D34 A39:D116">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D116">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A35:D38">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A35))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/MA_ssoservi_cservico_csala.xlsx
+++ b/pages/MA_ssoservi_cservico_csala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C227A759-3445-4F47-ADD3-A4B4088AE75E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CD766D-B5EE-454D-91E9-0BD3CEB8A553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{149F6C8A-4ABB-45E4-B310-DA53D82C00F6}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$116</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$117</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="215">
   <si>
     <t>Complemento</t>
   </si>
@@ -678,6 +678,12 @@
   </si>
   <si>
     <t>SABAO EM BARRA - 200G - 200G</t>
+  </si>
+  <si>
+    <t>ESCOVA DE NYLON - VASO SANITARIO</t>
+  </si>
+  <si>
+    <t>S110017</t>
   </si>
 </sst>
 </file>
@@ -1117,10 +1123,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
-  <dimension ref="A1:D116"/>
+  <dimension ref="A1:D117"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A97" sqref="A97:D97"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1707,49 +1713,49 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>154</v>
+        <v>213</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>134</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D42" s="4">
-        <v>1162</v>
+        <v>214</v>
+      </c>
+      <c r="D42" s="6">
+        <v>1449</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>195</v>
+        <v>154</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>134</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D43" s="4">
-        <v>1455</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>30</v>
+        <v>195</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>134</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D44" s="4">
-        <v>899</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>134</v>
@@ -1758,12 +1764,12 @@
         <v>31</v>
       </c>
       <c r="D45" s="4">
-        <v>896</v>
+        <v>899</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>134</v>
@@ -1772,12 +1778,12 @@
         <v>31</v>
       </c>
       <c r="D46" s="4">
-        <v>900</v>
+        <v>896</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>134</v>
@@ -1786,68 +1792,68 @@
         <v>31</v>
       </c>
       <c r="D47" s="4">
-        <v>898</v>
+        <v>900</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>196</v>
+        <v>34</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>134</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D48" s="6">
-        <v>1456</v>
+        <v>31</v>
+      </c>
+      <c r="D48" s="4">
+        <v>898</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>152</v>
+        <v>196</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>134</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D49" s="4">
-        <v>750</v>
+        <v>145</v>
+      </c>
+      <c r="D49" s="6">
+        <v>1456</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>88</v>
+        <v>152</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>89</v>
+        <v>153</v>
       </c>
       <c r="D50" s="4">
-        <v>471</v>
+        <v>750</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="D51" s="4">
-        <v>166</v>
+        <v>471</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>134</v>
@@ -1856,158 +1862,158 @@
         <v>36</v>
       </c>
       <c r="D52" s="4">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>197</v>
+        <v>37</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>134</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D53" s="6">
-        <v>272</v>
+        <v>36</v>
+      </c>
+      <c r="D53" s="4">
+        <v>167</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>134</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D54" s="4">
-        <v>1157</v>
+        <v>107</v>
+      </c>
+      <c r="D54" s="6">
+        <v>272</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>134</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>38</v>
+        <v>141</v>
       </c>
       <c r="D55" s="4">
-        <v>448</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>39</v>
+        <v>165</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>134</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D56" s="4">
-        <v>80</v>
+        <v>448</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>186</v>
+        <v>39</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D57" s="4">
-        <v>1395</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D58" s="4">
-        <v>1416</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>124</v>
+        <v>42</v>
+      </c>
+      <c r="D59" s="4">
+        <v>1416</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>155</v>
+        <v>200</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D60" s="4">
-        <v>1164</v>
+        <v>95</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>43</v>
+        <v>155</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>134</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>44</v>
+        <v>156</v>
       </c>
       <c r="D61" s="4">
-        <v>40</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>134</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D62" s="4">
-        <v>103</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>163</v>
+        <v>45</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>134</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D63" s="4">
         <v>103</v>
@@ -2015,49 +2021,49 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>201</v>
+        <v>163</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>134</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D64" s="4">
-        <v>70</v>
+        <v>103</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>49</v>
+        <v>201</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>134</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D65" s="4">
-        <v>745</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>172</v>
+        <v>49</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>134</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>173</v>
+        <v>50</v>
       </c>
       <c r="D66" s="4">
-        <v>33</v>
+        <v>745</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>134</v>
@@ -2071,7 +2077,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>134</v>
@@ -2080,26 +2086,26 @@
         <v>173</v>
       </c>
       <c r="D68" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>134</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D69" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>134</v>
@@ -2108,12 +2114,12 @@
         <v>177</v>
       </c>
       <c r="D70" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>134</v>
@@ -2122,26 +2128,26 @@
         <v>177</v>
       </c>
       <c r="D71" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>51</v>
+        <v>179</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>134</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>52</v>
+        <v>177</v>
       </c>
       <c r="D72" s="4">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>134</v>
@@ -2149,13 +2155,13 @@
       <c r="C73" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D73" s="6">
-        <v>3</v>
+      <c r="D73" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>134</v>
@@ -2164,54 +2170,54 @@
         <v>52</v>
       </c>
       <c r="D74" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>183</v>
+        <v>109</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D75" s="4">
-        <v>1181</v>
+        <v>52</v>
+      </c>
+      <c r="D75" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D76" s="6">
-        <v>874</v>
+        <v>184</v>
+      </c>
+      <c r="D76" s="4">
+        <v>1181</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>134</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D77" s="4">
-        <v>1172</v>
+        <v>146</v>
+      </c>
+      <c r="D77" s="6">
+        <v>874</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>134</v>
@@ -2220,12 +2226,12 @@
         <v>168</v>
       </c>
       <c r="D78" s="4">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>134</v>
@@ -2234,60 +2240,60 @@
         <v>168</v>
       </c>
       <c r="D79" s="4">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>53</v>
+        <v>170</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>134</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>54</v>
+        <v>168</v>
       </c>
       <c r="D80" s="4">
-        <v>211</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>134</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D81" s="6">
-        <v>591</v>
+        <v>54</v>
+      </c>
+      <c r="D81" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>157</v>
+        <v>110</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>134</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D82" s="4">
-        <v>1167</v>
+        <v>111</v>
+      </c>
+      <c r="D82" s="6">
+        <v>591</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>134</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>112</v>
+        <v>55</v>
       </c>
       <c r="D83" s="4">
         <v>1167</v>
@@ -2295,21 +2301,21 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>56</v>
+        <v>166</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="D84" s="4">
-        <v>820</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>136</v>
@@ -2318,68 +2324,68 @@
         <v>57</v>
       </c>
       <c r="D85" s="4">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>185</v>
+        <v>58</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D86" s="4">
-        <v>1394</v>
+        <v>819</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>113</v>
+        <v>185</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D87" s="4">
-        <v>72</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D88" s="4">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>114</v>
+        <v>61</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>134</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D89" s="4">
-        <v>55</v>
+        <v>86</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>134</v>
@@ -2388,26 +2394,26 @@
         <v>63</v>
       </c>
       <c r="D90" s="4">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>134</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D91" s="4">
-        <v>994</v>
+        <v>54</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>134</v>
@@ -2416,180 +2422,180 @@
         <v>65</v>
       </c>
       <c r="D92" s="4">
-        <v>695</v>
+        <v>994</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>203</v>
+        <v>64</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>134</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D93" s="6">
-        <v>1457</v>
+        <v>65</v>
+      </c>
+      <c r="D93" s="4">
+        <v>695</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>134</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D94" s="4">
-        <v>1182</v>
+        <v>116</v>
+      </c>
+      <c r="D94" s="6">
+        <v>1457</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>134</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D95" s="6">
-        <v>1030</v>
+        <v>67</v>
+      </c>
+      <c r="D95" s="4">
+        <v>1182</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>134</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D96" s="4">
-        <v>1468</v>
+        <v>117</v>
+      </c>
+      <c r="D96" s="6">
+        <v>1030</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>134</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>129</v>
+        <v>68</v>
       </c>
       <c r="D97" s="4">
-        <v>51</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>69</v>
+        <v>212</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>70</v>
+        <v>129</v>
       </c>
       <c r="D98" s="4">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D99" s="4">
-        <v>107</v>
+        <v>53</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>182</v>
+        <v>71</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="D100" s="4">
-        <v>986</v>
+        <v>107</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="D101" s="4">
-        <v>437</v>
+        <v>986</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D102" s="4">
-        <v>449</v>
+        <v>437</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="D103" s="4">
-        <v>170</v>
+        <v>449</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>74</v>
       </c>
       <c r="D104" s="4">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>134</v>
@@ -2598,26 +2604,26 @@
         <v>74</v>
       </c>
       <c r="D105" s="4">
-        <v>799</v>
+        <v>163</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D106" s="4">
-        <v>1127</v>
+        <v>799</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>138</v>
@@ -2626,12 +2632,12 @@
         <v>77</v>
       </c>
       <c r="D107" s="4">
-        <v>569</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>138</v>
@@ -2640,118 +2646,132 @@
         <v>77</v>
       </c>
       <c r="D108" s="4">
-        <v>762</v>
+        <v>569</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="D109" s="4">
-        <v>878</v>
+        <v>762</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>80</v>
+        <v>207</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>134</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="D110" s="4">
-        <v>211</v>
+        <v>878</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>208</v>
+        <v>80</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>134</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="D111" s="4">
-        <v>202</v>
+        <v>211</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>120</v>
+        <v>208</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>134</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D112" s="6">
-        <v>2</v>
+        <v>118</v>
+      </c>
+      <c r="D112" s="4">
+        <v>202</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>209</v>
+        <v>120</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D113" s="4">
-        <v>1418</v>
+        <v>121</v>
+      </c>
+      <c r="D113" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>122</v>
+        <v>209</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D114" s="4" t="s">
-        <v>124</v>
+        <v>97</v>
+      </c>
+      <c r="D114" s="4">
+        <v>1418</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>210</v>
+        <v>122</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D115" s="4">
-        <v>1458</v>
+        <v>123</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D116" s="4">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B116" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C116" s="4" t="s">
+      <c r="B117" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C117" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D116" s="4">
+      <c r="D117" s="4">
         <v>15</v>
       </c>
     </row>
@@ -2761,7 +2781,7 @@
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D116">
+  <conditionalFormatting sqref="A2:D117">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>

--- a/pages/MA_ssoservi_cservico_csala.xlsx
+++ b/pages/MA_ssoservi_cservico_csala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CD766D-B5EE-454D-91E9-0BD3CEB8A553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54191D9-7C18-4DC9-B3F7-E7772CDFC55A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{149F6C8A-4ABB-45E4-B310-DA53D82C00F6}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="216">
   <si>
     <t>Complemento</t>
   </si>
@@ -635,9 +635,6 @@
     <t>FITA DUPLA FACE - 19mm x 3m</t>
   </si>
   <si>
-    <t>FITILHO COMUM RECICLADO (BARBANTE) - 1000M</t>
-  </si>
-  <si>
     <t>LACRE DE SEGURANÇA PERSONALIZADO - 16CM</t>
   </si>
   <si>
@@ -684,6 +681,12 @@
   </si>
   <si>
     <t>S110017</t>
+  </si>
+  <si>
+    <t>FITILHO EMFESTA - 5MMX50M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1123,10 +1126,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
-  <dimension ref="A1:D117"/>
+  <dimension ref="A1:E117"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1195,7 +1198,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>135</v>
@@ -1713,13 +1716,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>213</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>214</v>
       </c>
       <c r="D42" s="6">
         <v>1449</v>
@@ -1809,7 +1812,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>196</v>
       </c>
@@ -1823,7 +1826,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>152</v>
       </c>
@@ -1837,7 +1840,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>88</v>
       </c>
@@ -1851,7 +1854,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>35</v>
       </c>
@@ -1865,7 +1868,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>37</v>
       </c>
@@ -1879,7 +1882,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>197</v>
       </c>
@@ -1893,9 +1896,9 @@
         <v>272</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>134</v>
@@ -1904,10 +1907,13 @@
         <v>141</v>
       </c>
       <c r="D55" s="4">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1469</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>165</v>
       </c>
@@ -1921,7 +1927,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>39</v>
       </c>
@@ -1935,7 +1941,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>186</v>
       </c>
@@ -1949,9 +1955,9 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>134</v>
@@ -1963,9 +1969,9 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>135</v>
@@ -1977,7 +1983,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>155</v>
       </c>
@@ -1991,7 +1997,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>43</v>
       </c>
@@ -2005,7 +2011,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>45</v>
       </c>
@@ -2019,7 +2025,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>163</v>
       </c>
@@ -2035,7 +2041,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>134</v>
@@ -2203,7 +2209,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>134</v>
@@ -2441,7 +2447,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>134</v>
@@ -2455,7 +2461,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>134</v>
@@ -2469,7 +2475,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>134</v>
@@ -2483,7 +2489,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>134</v>
@@ -2497,7 +2503,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>134</v>
@@ -2665,7 +2671,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>134</v>
@@ -2693,7 +2699,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>134</v>
@@ -2721,7 +2727,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>135</v>
@@ -2749,7 +2755,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>134</v>
@@ -2781,7 +2787,7 @@
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D117">
+  <conditionalFormatting sqref="A2:D117 E55">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>

--- a/pages/MA_ssoservi_cservico_csala.xlsx
+++ b/pages/MA_ssoservi_cservico_csala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54191D9-7C18-4DC9-B3F7-E7772CDFC55A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA542F1-C629-4F87-801C-37E7AD3A61D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{149F6C8A-4ABB-45E4-B310-DA53D82C00F6}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$117</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$E$118</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="218">
   <si>
     <t>Complemento</t>
   </si>
@@ -687,6 +687,12 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>ISOPOR - 3L - 3L</t>
+  </si>
+  <si>
+    <t>S050011</t>
   </si>
 </sst>
 </file>
@@ -1126,11 +1132,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
-  <dimension ref="A1:E117"/>
+  <dimension ref="A1:E118"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1674,30 +1678,30 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>193</v>
+        <v>105</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>134</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D39" s="4">
-        <v>1436</v>
+        <v>106</v>
+      </c>
+      <c r="D39" s="6">
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>105</v>
+        <v>212</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>134</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>106</v>
+        <v>213</v>
       </c>
       <c r="D40" s="6">
-        <v>12</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1716,49 +1720,49 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>212</v>
+        <v>154</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>134</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="D42" s="6">
-        <v>1449</v>
+        <v>28</v>
+      </c>
+      <c r="D42" s="4">
+        <v>1162</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>154</v>
+        <v>195</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>134</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D43" s="4">
-        <v>1162</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>195</v>
+        <v>30</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>134</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D44" s="4">
-        <v>1455</v>
+        <v>899</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>134</v>
@@ -1767,12 +1771,12 @@
         <v>31</v>
       </c>
       <c r="D45" s="4">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>134</v>
@@ -1781,12 +1785,12 @@
         <v>31</v>
       </c>
       <c r="D46" s="4">
-        <v>896</v>
+        <v>900</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>134</v>
@@ -1795,68 +1799,68 @@
         <v>31</v>
       </c>
       <c r="D47" s="4">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>34</v>
+        <v>196</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>134</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D48" s="4">
-        <v>898</v>
+        <v>145</v>
+      </c>
+      <c r="D48" s="6">
+        <v>1456</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>196</v>
+        <v>152</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>134</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D49" s="6">
-        <v>1456</v>
+        <v>153</v>
+      </c>
+      <c r="D49" s="4">
+        <v>750</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>152</v>
+        <v>88</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>153</v>
+        <v>89</v>
       </c>
       <c r="D50" s="4">
-        <v>750</v>
+        <v>471</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="D51" s="4">
-        <v>471</v>
+        <v>166</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>134</v>
@@ -1865,94 +1869,94 @@
         <v>36</v>
       </c>
       <c r="D52" s="4">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>37</v>
+        <v>197</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>134</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D53" s="4">
-        <v>167</v>
+        <v>107</v>
+      </c>
+      <c r="D53" s="6">
+        <v>272</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>134</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D54" s="6">
-        <v>272</v>
+        <v>141</v>
+      </c>
+      <c r="D54" s="4">
+        <v>1469</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>214</v>
+        <v>165</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>134</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>141</v>
+        <v>38</v>
       </c>
       <c r="D55" s="4">
-        <v>1469</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>215</v>
+        <v>448</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>165</v>
+        <v>39</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>134</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D56" s="4">
-        <v>448</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>39</v>
+        <v>186</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D57" s="4">
-        <v>80</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>41</v>
+        <v>217</v>
       </c>
       <c r="D58" s="4">
-        <v>1395</v>
+        <v>116</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -2545,44 +2549,44 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="D101" s="4">
-        <v>986</v>
+        <v>437</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D102" s="4">
-        <v>437</v>
+        <v>449</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>132</v>
+        <v>182</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="D103" s="4">
-        <v>449</v>
+        <v>986</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -2629,21 +2633,21 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>119</v>
+        <v>193</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="D107" s="4">
-        <v>1127</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>138</v>
@@ -2652,12 +2656,12 @@
         <v>77</v>
       </c>
       <c r="D108" s="4">
-        <v>569</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>138</v>
@@ -2666,128 +2670,147 @@
         <v>77</v>
       </c>
       <c r="D109" s="4">
-        <v>762</v>
+        <v>569</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="D110" s="4">
-        <v>878</v>
+        <v>762</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>80</v>
+        <v>206</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>134</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="D111" s="4">
-        <v>211</v>
+        <v>878</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>207</v>
+        <v>80</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>134</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="D112" s="4">
-        <v>202</v>
+        <v>211</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>120</v>
+        <v>207</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>134</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D113" s="6">
-        <v>2</v>
+        <v>118</v>
+      </c>
+      <c r="D113" s="4">
+        <v>202</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>208</v>
+        <v>120</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D114" s="4">
-        <v>1418</v>
+        <v>121</v>
+      </c>
+      <c r="D114" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>122</v>
+        <v>208</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D115" s="4" t="s">
-        <v>124</v>
+        <v>97</v>
+      </c>
+      <c r="D115" s="4">
+        <v>1418</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>209</v>
+        <v>122</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D116" s="4">
-        <v>1458</v>
+        <v>123</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D117" s="4">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B117" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C117" s="4" t="s">
+      <c r="B118" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C118" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D117" s="4">
+      <c r="D118" s="4">
         <v>15</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E118" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E118">
+      <sortCondition ref="A1:A118"/>
+    </sortState>
+  </autoFilter>
   <conditionalFormatting sqref="A1:D1">
     <cfRule type="expression" dxfId="1" priority="44">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D117 E55">
+  <conditionalFormatting sqref="A2:D118 E56">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>

--- a/pages/MA_ssoservi_cservico_csala.xlsx
+++ b/pages/MA_ssoservi_cservico_csala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA542F1-C629-4F87-801C-37E7AD3A61D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2948C3-A772-45EE-90D8-940937D0F1DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{149F6C8A-4ABB-45E4-B310-DA53D82C00F6}"/>
   </bookViews>
@@ -293,15 +293,9 @@
     <t>ACUCAR - 1000G</t>
   </si>
   <si>
-    <t>S030001</t>
-  </si>
-  <si>
     <t>CAFE - 250G - 250G</t>
   </si>
   <si>
-    <t>S030005</t>
-  </si>
-  <si>
     <t>COPO DESCARTAVEL C/100 UND - 50ML - 50ML</t>
   </si>
   <si>
@@ -470,9 +464,6 @@
     <t>ADOÇANTE - 100ML</t>
   </si>
   <si>
-    <t>S030004</t>
-  </si>
-  <si>
     <t>CANETA ESFEROGRAFICA ESC. FINA - VERMELHA</t>
   </si>
   <si>
@@ -693,6 +684,15 @@
   </si>
   <si>
     <t>S050011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S300002 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">S300003 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">S300001 </t>
   </si>
 </sst>
 </file>
@@ -1134,7 +1134,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7055FB95-4629-4DA0-A980-8D7D5C94686B}">
   <dimension ref="A1:E118"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1149,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1163,10 +1165,10 @@
         <v>83</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>84</v>
+        <v>215</v>
       </c>
       <c r="D2" s="4">
         <v>54</v>
@@ -1174,13 +1176,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>143</v>
+        <v>216</v>
       </c>
       <c r="D3" s="6">
         <v>118</v>
@@ -1188,13 +1190,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D4" s="4">
         <v>105</v>
@@ -1202,13 +1204,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D5" s="6">
         <v>1505</v>
@@ -1216,10 +1218,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>3</v>
@@ -1230,13 +1232,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D7" s="4">
         <v>53</v>
@@ -1244,13 +1246,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D8" s="6">
         <v>2</v>
@@ -1258,13 +1260,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D9" s="4">
         <v>1208</v>
@@ -1272,13 +1274,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D10" s="6">
         <v>122</v>
@@ -1289,7 +1291,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>5</v>
@@ -1300,10 +1302,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>6</v>
@@ -1314,10 +1316,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>6</v>
@@ -1331,7 +1333,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>8</v>
@@ -1345,7 +1347,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>10</v>
@@ -1359,7 +1361,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>10</v>
@@ -1370,16 +1372,16 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>86</v>
+        <v>217</v>
       </c>
       <c r="D17" s="4">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1387,7 +1389,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>13</v>
@@ -1398,10 +1400,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>14</v>
@@ -1412,13 +1414,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D20" s="6">
         <v>1184</v>
@@ -1429,7 +1431,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>16</v>
@@ -1443,7 +1445,7 @@
         <v>17</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>16</v>
@@ -1454,10 +1456,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>16</v>
@@ -1468,24 +1470,24 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>19</v>
@@ -1499,7 +1501,7 @@
         <v>20</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>21</v>
@@ -1510,13 +1512,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D27" s="4">
         <v>904</v>
@@ -1524,13 +1526,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D28" s="6">
         <v>903</v>
@@ -1538,10 +1540,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>22</v>
@@ -1552,10 +1554,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>22</v>
@@ -1566,13 +1568,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D31" s="6">
         <v>874</v>
@@ -1580,10 +1582,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>23</v>
@@ -1594,13 +1596,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D33" s="4">
         <v>1160</v>
@@ -1611,7 +1613,7 @@
         <v>24</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>25</v>
@@ -1622,13 +1624,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D35" s="4">
         <v>1175</v>
@@ -1636,13 +1638,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D36" s="4">
         <v>1176</v>
@@ -1650,13 +1652,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D37" s="4">
         <v>1177</v>
@@ -1664,13 +1666,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D38" s="4">
         <v>1178</v>
@@ -1678,13 +1680,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D39" s="6">
         <v>12</v>
@@ -1692,13 +1694,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D40" s="6">
         <v>1449</v>
@@ -1706,10 +1708,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>27</v>
@@ -1720,10 +1722,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>28</v>
@@ -1734,10 +1736,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>29</v>
@@ -1751,7 +1753,7 @@
         <v>30</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>31</v>
@@ -1765,7 +1767,7 @@
         <v>32</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>31</v>
@@ -1779,7 +1781,7 @@
         <v>33</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>31</v>
@@ -1793,7 +1795,7 @@
         <v>34</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>31</v>
@@ -1804,13 +1806,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D48" s="6">
         <v>1456</v>
@@ -1818,13 +1820,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D49" s="4">
         <v>750</v>
@@ -1832,13 +1834,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D50" s="4">
         <v>471</v>
@@ -1849,7 +1851,7 @@
         <v>35</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>36</v>
@@ -1863,7 +1865,7 @@
         <v>37</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>36</v>
@@ -1874,13 +1876,13 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D53" s="6">
         <v>272</v>
@@ -1888,27 +1890,27 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D54" s="4">
         <v>1469</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>38</v>
@@ -1922,7 +1924,7 @@
         <v>39</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>40</v>
@@ -1933,10 +1935,10 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>41</v>
@@ -1947,13 +1949,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D58" s="4">
         <v>116</v>
@@ -1961,10 +1963,10 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>42</v>
@@ -1975,27 +1977,27 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D61" s="4">
         <v>1164</v>
@@ -2006,7 +2008,7 @@
         <v>43</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>44</v>
@@ -2020,7 +2022,7 @@
         <v>45</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>46</v>
@@ -2031,10 +2033,10 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>47</v>
@@ -2045,10 +2047,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>48</v>
@@ -2062,7 +2064,7 @@
         <v>49</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>50</v>
@@ -2073,13 +2075,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D67" s="4">
         <v>33</v>
@@ -2087,13 +2089,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D68" s="4">
         <v>33</v>
@@ -2101,13 +2103,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D69" s="4">
         <v>32</v>
@@ -2115,13 +2117,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D70" s="4">
         <v>33</v>
@@ -2129,13 +2131,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D71" s="4">
         <v>32</v>
@@ -2143,13 +2145,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D72" s="4">
         <v>31</v>
@@ -2160,7 +2162,7 @@
         <v>51</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>52</v>
@@ -2171,10 +2173,10 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>52</v>
@@ -2185,10 +2187,10 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>52</v>
@@ -2199,13 +2201,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D76" s="4">
         <v>1181</v>
@@ -2213,13 +2215,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D77" s="6">
         <v>874</v>
@@ -2227,13 +2229,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D78" s="4">
         <v>1172</v>
@@ -2241,13 +2243,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D79" s="4">
         <v>1173</v>
@@ -2255,13 +2257,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D80" s="4">
         <v>1174</v>
@@ -2272,7 +2274,7 @@
         <v>53</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>54</v>
@@ -2283,13 +2285,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D82" s="6">
         <v>591</v>
@@ -2297,10 +2299,10 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>55</v>
@@ -2311,13 +2313,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D84" s="4">
         <v>1167</v>
@@ -2328,7 +2330,7 @@
         <v>56</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>57</v>
@@ -2342,7 +2344,7 @@
         <v>58</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>57</v>
@@ -2353,10 +2355,10 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>59</v>
@@ -2367,10 +2369,10 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>60</v>
@@ -2384,7 +2386,7 @@
         <v>61</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>62</v>
@@ -2395,10 +2397,10 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>63</v>
@@ -2409,10 +2411,10 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>63</v>
@@ -2426,7 +2428,7 @@
         <v>66</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>65</v>
@@ -2440,7 +2442,7 @@
         <v>64</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>65</v>
@@ -2451,13 +2453,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D94" s="6">
         <v>1457</v>
@@ -2465,10 +2467,10 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>67</v>
@@ -2479,13 +2481,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D96" s="6">
         <v>1030</v>
@@ -2493,10 +2495,10 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>68</v>
@@ -2507,13 +2509,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D98" s="4">
         <v>51</v>
@@ -2524,7 +2526,7 @@
         <v>69</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>70</v>
@@ -2538,7 +2540,7 @@
         <v>71</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>72</v>
@@ -2549,13 +2551,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D101" s="4">
         <v>437</v>
@@ -2563,13 +2565,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D102" s="4">
         <v>449</v>
@@ -2577,13 +2579,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D103" s="4">
         <v>986</v>
@@ -2594,7 +2596,7 @@
         <v>73</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>74</v>
@@ -2608,7 +2610,7 @@
         <v>75</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>74</v>
@@ -2622,7 +2624,7 @@
         <v>76</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>74</v>
@@ -2633,10 +2635,10 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>26</v>
@@ -2647,10 +2649,10 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>77</v>
@@ -2664,7 +2666,7 @@
         <v>78</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>77</v>
@@ -2678,7 +2680,7 @@
         <v>79</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>77</v>
@@ -2689,13 +2691,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D111" s="4">
         <v>878</v>
@@ -2706,7 +2708,7 @@
         <v>80</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>81</v>
@@ -2717,13 +2719,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D113" s="4">
         <v>202</v>
@@ -2731,13 +2733,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D114" s="6">
         <v>2</v>
@@ -2745,13 +2747,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D115" s="4">
         <v>1418</v>
@@ -2759,24 +2761,24 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D116" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D116" s="4" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>82</v>
@@ -2787,13 +2789,13 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D118" s="4">
         <v>15</v>
